--- a/Bogota_daily_cases.xlsx
+++ b/Bogota_daily_cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FAMILIA\Documents\GitHub\covid-transport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7448606C-8448-4F96-9D27-99177770EE6F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC84AB9-91DF-4310-B748-B2FD101DE28B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="780" windowWidth="27720" windowHeight="14820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bogota_cases" sheetId="1" r:id="rId1"/>
@@ -751,13 +751,13 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7740,7 +7740,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B34F2892-92AD-4DDC-95B0-6B1C43EDA9F9}" type="CELLRANGE">
+                    <a:fld id="{53756415-DEF6-4299-9906-D1A6F4B51F08}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7791,7 +7791,7 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{55840DFC-D7DA-4CFB-92A4-4F4A7DABA93D}" type="CELLRANGE">
+                    <a:fld id="{FCFAA205-00B8-4A6B-A6A2-6EA84D85479A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr>
@@ -7905,7 +7905,7 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{84D23578-8134-49C8-AACF-2F786C11C42E}" type="CELLRANGE">
+                    <a:fld id="{D6511778-2EF1-4B7E-A922-81B6089A8F83}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr>
@@ -8001,7 +8001,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A45274B4-AF26-40B6-A0C4-C2B9BFBDCC6E}" type="CELLRANGE">
+                    <a:fld id="{782EA455-938E-4D78-B288-BB96205345AB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8052,7 +8052,7 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{7D6A4EED-DDEA-488D-93BE-B59B506AFB12}" type="CELLRANGE">
+                    <a:fld id="{EDD1CE41-F367-483D-AC94-D0035BC68007}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr>
@@ -8148,7 +8148,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C147C2DE-2E77-419E-9B5E-02FF7DC69D9C}" type="CELLRANGE">
+                    <a:fld id="{BC8FD217-AA23-4BFA-B813-ED10966C1FA4}" type="CELLRANGE">
                       <a:rPr lang="es-CO"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8182,7 +8182,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7002BBCB-A614-4D8C-975D-B3D7B7A65BE3}" type="CELLRANGE">
+                    <a:fld id="{97C6373F-9696-45FF-95A3-2DE9B2DFE316}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8233,7 +8233,7 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{60F51BDD-FA5E-4993-81D3-2DE5C456152C}" type="CELLRANGE">
+                    <a:fld id="{23FD753D-197F-4CD4-9590-5BBCC3A70AFD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr>
@@ -8329,7 +8329,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A7549C62-1EEF-4A96-A82D-384A25026100}" type="CELLRANGE">
+                    <a:fld id="{8E6E488E-5B18-4D1F-B2BB-DE14F90CD0F7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8362,7 +8362,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D34F1218-F8FF-4943-A8FA-626DAF4D6CB5}" type="CELLRANGE">
+                    <a:fld id="{432D7521-7D22-40F5-A837-B55EAF397653}" type="CELLRANGE">
                       <a:rPr lang="es-CO"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8396,7 +8396,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{021F2E4B-0411-4ABD-BD8B-F3D2F1E61C42}" type="CELLRANGE">
+                    <a:fld id="{A03A18C0-B8E8-483F-BA99-26B93E357156}" type="CELLRANGE">
                       <a:rPr lang="es-CO"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8454,7 +8454,7 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{CE2038AA-CE12-4234-AB70-A5A3386A385C}" type="CELLRANGE">
+                    <a:fld id="{6C4BED6A-053D-42C9-865F-4ADDE6065931}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr>
@@ -8550,7 +8550,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{14EBE747-8DD6-4C15-A13E-864E73F86C8F}" type="CELLRANGE">
+                    <a:fld id="{3382DC13-C150-41DB-8F73-7EF1A5437093}" type="CELLRANGE">
                       <a:rPr lang="es-CO"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8584,7 +8584,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8D9B4370-2A3E-4EFB-AEEF-8A926A8ABA1D}" type="CELLRANGE">
+                    <a:fld id="{7F96C64C-EBB2-420B-A8BE-AD478DE3CD91}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8617,7 +8617,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D4A7E706-DE89-461D-905A-44B45B73795F}" type="CELLRANGE">
+                    <a:fld id="{00DD58D2-D809-4AAD-A781-D5C493AC0C2E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8650,7 +8650,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A5B9E976-B5B6-412E-B8C4-D8EF7F0647DE}" type="CELLRANGE">
+                    <a:fld id="{BF0FB4ED-B409-4CB6-B98F-2AD7C29686C3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8683,7 +8683,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AFFCDF0D-343C-4916-A8E3-16758C32DFE2}" type="CELLRANGE">
+                    <a:fld id="{319778A8-8029-4298-8FED-2D23945ADE17}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8716,7 +8716,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AC79A890-AB20-49C5-94CF-A69F6A6B6639}" type="CELLRANGE">
+                    <a:fld id="{3DB8AEA9-9ECF-416C-A885-8D9DB17AD923}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8749,7 +8749,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2AB6F13B-751E-4176-84EC-761D07356CD8}" type="CELLRANGE">
+                    <a:fld id="{CBC9705C-1A10-4048-AA3E-D45BEAD3CD5F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8782,7 +8782,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{144B9379-1E7A-41CC-B92C-7261B52428FA}" type="CELLRANGE">
+                    <a:fld id="{DEB782FA-624D-4A91-B1FD-DBBA00DA4D77}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8815,7 +8815,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D71683AD-6CA4-4AC4-A0C8-3F53BC428C2F}" type="CELLRANGE">
+                    <a:fld id="{7B667CBA-5EA3-4B0A-9A44-45B5141CE757}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8848,7 +8848,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5FF3D06F-1796-4AFD-80FB-5F70E7E7E18B}" type="CELLRANGE">
+                    <a:fld id="{1D5F73C5-DF72-4F27-A58D-8142F95F0B74}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -14936,7 +14936,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T442"/>
   <sheetViews>
-    <sheetView topLeftCell="A310" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -14959,24 +14959,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
       <c r="L1" s="16"/>
-      <c r="S1" s="20" t="s">
+      <c r="S1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="T1" s="20"/>
+      <c r="T1" s="19"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -15096,7 +15096,7 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="21">
         <f>ROUNDUP(AVERAGE(B4:B8),0)</f>
         <v>6</v>
       </c>
@@ -15156,7 +15156,7 @@
       <c r="B5" s="5">
         <v>2</v>
       </c>
-      <c r="C5" s="19"/>
+      <c r="C5" s="21"/>
       <c r="E5" s="7">
         <f t="shared" ref="E5:E68" si="4">E4+7</f>
         <v>43912</v>
@@ -15213,7 +15213,7 @@
       <c r="B6" s="5">
         <v>6</v>
       </c>
-      <c r="C6" s="19"/>
+      <c r="C6" s="21"/>
       <c r="E6" s="7">
         <f t="shared" si="4"/>
         <v>43919</v>
@@ -15270,7 +15270,7 @@
       <c r="B7" s="5">
         <v>4</v>
       </c>
-      <c r="C7" s="19"/>
+      <c r="C7" s="21"/>
       <c r="E7" s="7">
         <f t="shared" si="4"/>
         <v>43926</v>
@@ -15327,7 +15327,7 @@
       <c r="B8" s="5">
         <v>15</v>
       </c>
-      <c r="C8" s="19"/>
+      <c r="C8" s="21"/>
       <c r="E8" s="7">
         <f t="shared" si="4"/>
         <v>43933</v>
@@ -22897,15 +22897,34 @@
     </sortState>
   </autoFilter>
   <mergeCells count="59">
-    <mergeCell ref="C387:C393"/>
-    <mergeCell ref="C394:C400"/>
-    <mergeCell ref="C338:C344"/>
-    <mergeCell ref="C289:C295"/>
-    <mergeCell ref="C296:C302"/>
-    <mergeCell ref="C303:C309"/>
-    <mergeCell ref="C310:C316"/>
-    <mergeCell ref="C317:C323"/>
-    <mergeCell ref="C324:C330"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="C9:C15"/>
+    <mergeCell ref="C16:C22"/>
+    <mergeCell ref="C23:C29"/>
+    <mergeCell ref="C30:C36"/>
+    <mergeCell ref="C254:C260"/>
+    <mergeCell ref="C114:C120"/>
+    <mergeCell ref="C37:C43"/>
+    <mergeCell ref="C44:C50"/>
+    <mergeCell ref="C51:C57"/>
+    <mergeCell ref="C58:C64"/>
+    <mergeCell ref="C65:C71"/>
+    <mergeCell ref="C72:C78"/>
+    <mergeCell ref="C79:C85"/>
+    <mergeCell ref="C86:C92"/>
+    <mergeCell ref="C93:C99"/>
+    <mergeCell ref="C100:C106"/>
+    <mergeCell ref="C107:C113"/>
+    <mergeCell ref="C177:C183"/>
+    <mergeCell ref="C184:C190"/>
+    <mergeCell ref="C191:C197"/>
+    <mergeCell ref="C240:C246"/>
+    <mergeCell ref="C247:C253"/>
+    <mergeCell ref="C142:C148"/>
+    <mergeCell ref="C149:C155"/>
+    <mergeCell ref="C156:C162"/>
+    <mergeCell ref="C163:C169"/>
+    <mergeCell ref="C170:C176"/>
     <mergeCell ref="C261:C267"/>
     <mergeCell ref="C268:C274"/>
     <mergeCell ref="S1:T1"/>
@@ -22922,34 +22941,15 @@
     <mergeCell ref="C121:C127"/>
     <mergeCell ref="C128:C134"/>
     <mergeCell ref="C135:C141"/>
-    <mergeCell ref="C240:C246"/>
-    <mergeCell ref="C247:C253"/>
-    <mergeCell ref="C142:C148"/>
-    <mergeCell ref="C149:C155"/>
-    <mergeCell ref="C156:C162"/>
-    <mergeCell ref="C163:C169"/>
-    <mergeCell ref="C170:C176"/>
-    <mergeCell ref="C254:C260"/>
-    <mergeCell ref="C114:C120"/>
-    <mergeCell ref="C37:C43"/>
-    <mergeCell ref="C44:C50"/>
-    <mergeCell ref="C51:C57"/>
-    <mergeCell ref="C58:C64"/>
-    <mergeCell ref="C65:C71"/>
-    <mergeCell ref="C72:C78"/>
-    <mergeCell ref="C79:C85"/>
-    <mergeCell ref="C86:C92"/>
-    <mergeCell ref="C93:C99"/>
-    <mergeCell ref="C100:C106"/>
-    <mergeCell ref="C107:C113"/>
-    <mergeCell ref="C177:C183"/>
-    <mergeCell ref="C184:C190"/>
-    <mergeCell ref="C191:C197"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="C9:C15"/>
-    <mergeCell ref="C16:C22"/>
-    <mergeCell ref="C23:C29"/>
-    <mergeCell ref="C30:C36"/>
+    <mergeCell ref="C387:C393"/>
+    <mergeCell ref="C394:C400"/>
+    <mergeCell ref="C338:C344"/>
+    <mergeCell ref="C289:C295"/>
+    <mergeCell ref="C296:C302"/>
+    <mergeCell ref="C303:C309"/>
+    <mergeCell ref="C310:C316"/>
+    <mergeCell ref="C317:C323"/>
+    <mergeCell ref="C324:C330"/>
     <mergeCell ref="C380:C386"/>
     <mergeCell ref="C345:C351"/>
     <mergeCell ref="C352:C358"/>
@@ -22967,8 +22967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{753DFDB7-E793-47C7-9699-42695DBED7CF}">
   <dimension ref="A1:I465"/>
   <sheetViews>
-    <sheetView topLeftCell="A249" workbookViewId="0">
-      <selection activeCell="D280" sqref="D280"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H464" sqref="H464"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30166,6 +30166,48 @@
     </row>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="C382:C388"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C354:C360"/>
+    <mergeCell ref="C361:C367"/>
+    <mergeCell ref="C368:C374"/>
+    <mergeCell ref="C375:C381"/>
+    <mergeCell ref="C4:C10"/>
+    <mergeCell ref="C11:C17"/>
+    <mergeCell ref="C18:C24"/>
+    <mergeCell ref="C25:C31"/>
+    <mergeCell ref="C32:C38"/>
+    <mergeCell ref="C39:C45"/>
+    <mergeCell ref="C46:C52"/>
+    <mergeCell ref="C53:C59"/>
+    <mergeCell ref="C60:C66"/>
+    <mergeCell ref="C67:C73"/>
+    <mergeCell ref="C74:C80"/>
+    <mergeCell ref="C81:C87"/>
+    <mergeCell ref="C88:C94"/>
+    <mergeCell ref="C95:C101"/>
+    <mergeCell ref="C102:C108"/>
+    <mergeCell ref="C179:C185"/>
+    <mergeCell ref="C109:C115"/>
+    <mergeCell ref="C116:C122"/>
+    <mergeCell ref="C123:C129"/>
+    <mergeCell ref="C130:C136"/>
+    <mergeCell ref="C137:C143"/>
+    <mergeCell ref="C144:C150"/>
+    <mergeCell ref="C151:C157"/>
+    <mergeCell ref="C158:C164"/>
+    <mergeCell ref="C165:C171"/>
+    <mergeCell ref="C172:C178"/>
+    <mergeCell ref="C333:C339"/>
+    <mergeCell ref="C186:C192"/>
+    <mergeCell ref="C193:C199"/>
+    <mergeCell ref="C200:C206"/>
+    <mergeCell ref="C207:C213"/>
+    <mergeCell ref="C298:C304"/>
+    <mergeCell ref="C305:C311"/>
+    <mergeCell ref="C312:C318"/>
+    <mergeCell ref="C319:C325"/>
+    <mergeCell ref="C326:C332"/>
     <mergeCell ref="C389:C395"/>
     <mergeCell ref="C396:C402"/>
     <mergeCell ref="C214:C220"/>
@@ -30182,48 +30224,6 @@
     <mergeCell ref="C270:C276"/>
     <mergeCell ref="C277:C283"/>
     <mergeCell ref="C347:C353"/>
-    <mergeCell ref="C298:C304"/>
-    <mergeCell ref="C305:C311"/>
-    <mergeCell ref="C312:C318"/>
-    <mergeCell ref="C319:C325"/>
-    <mergeCell ref="C326:C332"/>
-    <mergeCell ref="C333:C339"/>
-    <mergeCell ref="C186:C192"/>
-    <mergeCell ref="C193:C199"/>
-    <mergeCell ref="C200:C206"/>
-    <mergeCell ref="C207:C213"/>
-    <mergeCell ref="C144:C150"/>
-    <mergeCell ref="C151:C157"/>
-    <mergeCell ref="C158:C164"/>
-    <mergeCell ref="C165:C171"/>
-    <mergeCell ref="C172:C178"/>
-    <mergeCell ref="C179:C185"/>
-    <mergeCell ref="C109:C115"/>
-    <mergeCell ref="C116:C122"/>
-    <mergeCell ref="C123:C129"/>
-    <mergeCell ref="C130:C136"/>
-    <mergeCell ref="C137:C143"/>
-    <mergeCell ref="C74:C80"/>
-    <mergeCell ref="C81:C87"/>
-    <mergeCell ref="C88:C94"/>
-    <mergeCell ref="C95:C101"/>
-    <mergeCell ref="C102:C108"/>
-    <mergeCell ref="C382:C388"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C354:C360"/>
-    <mergeCell ref="C361:C367"/>
-    <mergeCell ref="C368:C374"/>
-    <mergeCell ref="C375:C381"/>
-    <mergeCell ref="C4:C10"/>
-    <mergeCell ref="C11:C17"/>
-    <mergeCell ref="C18:C24"/>
-    <mergeCell ref="C25:C31"/>
-    <mergeCell ref="C32:C38"/>
-    <mergeCell ref="C39:C45"/>
-    <mergeCell ref="C46:C52"/>
-    <mergeCell ref="C53:C59"/>
-    <mergeCell ref="C60:C66"/>
-    <mergeCell ref="C67:C73"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -30235,8 +30235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3468E9D4-E3F0-4D94-A35A-E72E353C50D3}">
   <dimension ref="A1:I443"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E398" sqref="E398"/>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30250,18 +30250,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="H1" s="20" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="H1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="20"/>
+      <c r="I1" s="19"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -30292,7 +30292,7 @@
       <c r="B3">
         <v>3</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="19">
         <f>ROUNDUP(AVERAGE(B3:B6),0)</f>
         <v>4</v>
       </c>
@@ -30317,7 +30317,7 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" s="20"/>
+      <c r="C4" s="19"/>
       <c r="E4" s="6">
         <f t="shared" ref="E4:E36" si="0">E3+7</f>
         <v>43905</v>
@@ -30340,7 +30340,7 @@
       <c r="B5">
         <v>3</v>
       </c>
-      <c r="C5" s="20"/>
+      <c r="C5" s="19"/>
       <c r="E5" s="6">
         <f t="shared" si="0"/>
         <v>43912</v>
@@ -30363,7 +30363,7 @@
       <c r="B6">
         <v>6</v>
       </c>
-      <c r="C6" s="20"/>
+      <c r="C6" s="19"/>
       <c r="E6" s="6">
         <f t="shared" si="0"/>
         <v>43919</v>
@@ -37284,6 +37284,50 @@
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="C357:C363"/>
+    <mergeCell ref="C364:C370"/>
+    <mergeCell ref="C371:C377"/>
+    <mergeCell ref="C378:C384"/>
+    <mergeCell ref="C385:C391"/>
+    <mergeCell ref="C35:C41"/>
+    <mergeCell ref="C7:C13"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="C14:C20"/>
+    <mergeCell ref="C21:C27"/>
+    <mergeCell ref="C28:C34"/>
+    <mergeCell ref="C119:C125"/>
+    <mergeCell ref="C42:C48"/>
+    <mergeCell ref="C49:C55"/>
+    <mergeCell ref="C56:C62"/>
+    <mergeCell ref="C63:C69"/>
+    <mergeCell ref="C70:C76"/>
+    <mergeCell ref="C77:C83"/>
+    <mergeCell ref="C84:C90"/>
+    <mergeCell ref="C91:C97"/>
+    <mergeCell ref="C98:C104"/>
+    <mergeCell ref="C105:C111"/>
+    <mergeCell ref="C112:C118"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="C273:C279"/>
+    <mergeCell ref="C280:C286"/>
+    <mergeCell ref="C203:C209"/>
+    <mergeCell ref="C126:C132"/>
+    <mergeCell ref="C133:C139"/>
+    <mergeCell ref="C140:C146"/>
+    <mergeCell ref="C147:C153"/>
+    <mergeCell ref="C154:C160"/>
+    <mergeCell ref="C161:C167"/>
+    <mergeCell ref="C168:C174"/>
+    <mergeCell ref="C175:C181"/>
+    <mergeCell ref="C182:C188"/>
+    <mergeCell ref="C189:C195"/>
+    <mergeCell ref="C196:C202"/>
+    <mergeCell ref="C301:C307"/>
+    <mergeCell ref="C308:C314"/>
+    <mergeCell ref="C315:C321"/>
+    <mergeCell ref="C322:C328"/>
+    <mergeCell ref="C329:C335"/>
     <mergeCell ref="C392:C398"/>
     <mergeCell ref="C399:C405"/>
     <mergeCell ref="C287:C293"/>
@@ -37300,50 +37344,6 @@
     <mergeCell ref="C343:C349"/>
     <mergeCell ref="C350:C356"/>
     <mergeCell ref="C294:C300"/>
-    <mergeCell ref="C301:C307"/>
-    <mergeCell ref="C308:C314"/>
-    <mergeCell ref="C315:C321"/>
-    <mergeCell ref="C322:C328"/>
-    <mergeCell ref="C329:C335"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="C273:C279"/>
-    <mergeCell ref="C280:C286"/>
-    <mergeCell ref="C203:C209"/>
-    <mergeCell ref="C126:C132"/>
-    <mergeCell ref="C133:C139"/>
-    <mergeCell ref="C140:C146"/>
-    <mergeCell ref="C147:C153"/>
-    <mergeCell ref="C154:C160"/>
-    <mergeCell ref="C161:C167"/>
-    <mergeCell ref="C168:C174"/>
-    <mergeCell ref="C175:C181"/>
-    <mergeCell ref="C182:C188"/>
-    <mergeCell ref="C189:C195"/>
-    <mergeCell ref="C196:C202"/>
-    <mergeCell ref="C119:C125"/>
-    <mergeCell ref="C42:C48"/>
-    <mergeCell ref="C49:C55"/>
-    <mergeCell ref="C56:C62"/>
-    <mergeCell ref="C63:C69"/>
-    <mergeCell ref="C70:C76"/>
-    <mergeCell ref="C77:C83"/>
-    <mergeCell ref="C84:C90"/>
-    <mergeCell ref="C91:C97"/>
-    <mergeCell ref="C98:C104"/>
-    <mergeCell ref="C105:C111"/>
-    <mergeCell ref="C112:C118"/>
-    <mergeCell ref="C35:C41"/>
-    <mergeCell ref="C7:C13"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="C14:C20"/>
-    <mergeCell ref="C21:C27"/>
-    <mergeCell ref="C28:C34"/>
-    <mergeCell ref="C357:C363"/>
-    <mergeCell ref="C364:C370"/>
-    <mergeCell ref="C371:C377"/>
-    <mergeCell ref="C378:C384"/>
-    <mergeCell ref="C385:C391"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="date" showInputMessage="1" showErrorMessage="1" sqref="A2:A405" xr:uid="{BAF66607-B879-4D63-85F5-A749520E0F4A}">

--- a/Bogota_daily_cases.xlsx
+++ b/Bogota_daily_cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FAMILIA\Documents\GitHub\covid-transport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD1F461-EC31-4327-89AE-C173B6BD0699}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A46DD4F7-FBAF-4B6D-923C-03443ED38101}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="780" windowWidth="27720" windowHeight="14820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -711,7 +711,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
@@ -751,7 +751,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyAlignment="1">
@@ -766,9 +766,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -7749,7 +7750,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{01CB2618-A1F6-4BA7-B4B9-C955CB367C6F}" type="CELLRANGE">
+                    <a:fld id="{C5192739-35ED-4969-AD42-573131587556}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7800,7 +7801,7 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{75C5ABE2-CC16-42C8-B5A6-386387726808}" type="CELLRANGE">
+                    <a:fld id="{2DC3584F-4BB8-493C-B3E1-5B48A77A6865}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr>
@@ -7914,7 +7915,7 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{9AD66E41-6E56-4996-B0FF-B62C431ADD16}" type="CELLRANGE">
+                    <a:fld id="{47591614-BE71-4E2F-A183-6C41F7DFFB4C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr>
@@ -8010,7 +8011,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{89528AB5-2657-451F-8ED6-F0526D673DF8}" type="CELLRANGE">
+                    <a:fld id="{68BC9881-034B-4043-8FFB-E34BD99042C4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8061,7 +8062,7 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{85184FCD-A0DA-4F1C-8F23-C3C68DE98A38}" type="CELLRANGE">
+                    <a:fld id="{3CA20380-28BA-44FD-9FC9-A50CBE5D9C1F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr>
@@ -8157,7 +8158,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A33C7D27-500B-412C-8291-5ED5A384737F}" type="CELLRANGE">
+                    <a:fld id="{2C8A09FB-95CA-42AB-8FFC-F00DA725365A}" type="CELLRANGE">
                       <a:rPr lang="es-CO"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8191,7 +8192,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1C34B412-F584-4A9D-A54B-66419A3D0836}" type="CELLRANGE">
+                    <a:fld id="{046F942F-BCEC-4F7F-8C45-F0B6099FF7A4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8242,7 +8243,7 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{C21A58EB-0FF9-426F-B6EA-979CCD2A0106}" type="CELLRANGE">
+                    <a:fld id="{8B08FB2B-0B14-46E7-9F3B-00F9C4BAF3AA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr>
@@ -8338,7 +8339,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{997C5EE3-2C72-4EB8-8A2B-CC9EED3E26EF}" type="CELLRANGE">
+                    <a:fld id="{520B9EE9-6765-4CB8-AAF7-09B987C124DB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8371,7 +8372,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BA290D35-7AF9-4F76-B415-894A58A28FC8}" type="CELLRANGE">
+                    <a:fld id="{2DF94EE8-FFEE-4EB4-A82A-5A28366814EA}" type="CELLRANGE">
                       <a:rPr lang="es-CO"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8405,7 +8406,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8E2B7D8E-0250-473C-82F0-B37FF13EE48D}" type="CELLRANGE">
+                    <a:fld id="{3AAA4490-3F07-49E1-BC65-7146689E4CFA}" type="CELLRANGE">
                       <a:rPr lang="es-CO"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8463,7 +8464,7 @@
                         <a:cs typeface="+mn-cs"/>
                       </a:defRPr>
                     </a:pPr>
-                    <a:fld id="{37ABF1CF-54CD-4D8D-A662-65DE8C913DFA}" type="CELLRANGE">
+                    <a:fld id="{BEDEBE7E-19A5-4FB6-8774-A59DD78CDEA9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
                         <a:defRPr>
@@ -8559,7 +8560,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FB2F1B5A-5781-445F-A4A1-5F00134AEA01}" type="CELLRANGE">
+                    <a:fld id="{56DB08E2-C059-48AE-B310-C14ADE679121}" type="CELLRANGE">
                       <a:rPr lang="es-CO"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8593,7 +8594,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B8256B9F-9BA5-452C-8A58-1ACBB2C7ADFA}" type="CELLRANGE">
+                    <a:fld id="{FD8D1D0E-5C31-48EA-97B0-D7A41BAB4AB9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8626,7 +8627,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{05EEEDEE-65DE-45D4-8180-E4BD39C292CA}" type="CELLRANGE">
+                    <a:fld id="{01041D07-8AF7-493B-8E66-AB286FBE2C1A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8659,7 +8660,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A470CA09-1743-469F-A056-278A366FCB57}" type="CELLRANGE">
+                    <a:fld id="{1FA8D939-0212-44F3-B7F6-EF69B01247EF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8692,7 +8693,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8B913189-11A7-4012-A708-F7F708E3248E}" type="CELLRANGE">
+                    <a:fld id="{AB5AA6F3-B755-4919-B5C1-1E81796C834D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8725,7 +8726,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BDCF7305-0DF8-4BAD-954B-9B3FBF794E9F}" type="CELLRANGE">
+                    <a:fld id="{11F56460-B769-4BE3-9CAC-594964C0B146}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8758,7 +8759,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7AF4A663-519D-4D97-99EF-700D14A2E250}" type="CELLRANGE">
+                    <a:fld id="{E56C5A62-67D2-4F10-82E4-4C08FA024402}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8791,7 +8792,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EC2B38A3-26C0-4CF8-81A8-C39D20297B0C}" type="CELLRANGE">
+                    <a:fld id="{900E76A2-4D9A-4024-B876-19665F583484}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8824,7 +8825,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5F813E09-3224-46BF-AC36-07FE1AC20A47}" type="CELLRANGE">
+                    <a:fld id="{EAEEDD53-D189-463F-A864-9C3AB8370902}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8857,7 +8858,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D41B195E-332C-4988-91F2-BAB3CCA90274}" type="CELLRANGE">
+                    <a:fld id="{78430B47-DE80-400A-BAF5-9D5BD957FD5F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -14945,8 +14946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T442"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A365" workbookViewId="0">
-      <selection activeCell="B384" sqref="B384"/>
+    <sheetView tabSelected="1" topLeftCell="I22" workbookViewId="0">
+      <selection activeCell="T37" sqref="T37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15094,7 +15095,7 @@
       <c r="S3" s="12">
         <v>43851</v>
       </c>
-      <c r="T3">
+      <c r="T3" s="23">
         <v>8.33</v>
       </c>
     </row>
@@ -15105,7 +15106,7 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="22">
         <f>ROUNDUP(AVERAGE(B4:B8),0)</f>
         <v>6</v>
       </c>
@@ -15154,7 +15155,7 @@
       <c r="S4" s="12">
         <v>43852</v>
       </c>
-      <c r="T4">
+      <c r="T4" s="23">
         <v>8.33</v>
       </c>
     </row>
@@ -15165,7 +15166,7 @@
       <c r="B5" s="5">
         <v>2</v>
       </c>
-      <c r="C5" s="17"/>
+      <c r="C5" s="22"/>
       <c r="E5" s="7">
         <f t="shared" ref="E5:E68" si="4">E4+7</f>
         <v>43912</v>
@@ -15211,7 +15212,7 @@
       <c r="S5" s="12">
         <v>43853</v>
       </c>
-      <c r="T5">
+      <c r="T5" s="23">
         <v>8.33</v>
       </c>
     </row>
@@ -15222,7 +15223,7 @@
       <c r="B6" s="5">
         <v>6</v>
       </c>
-      <c r="C6" s="17"/>
+      <c r="C6" s="22"/>
       <c r="E6" s="7">
         <f t="shared" si="4"/>
         <v>43919</v>
@@ -15268,7 +15269,7 @@
       <c r="S6" s="12">
         <v>43854</v>
       </c>
-      <c r="T6">
+      <c r="T6" s="23">
         <v>8.33</v>
       </c>
     </row>
@@ -15279,7 +15280,7 @@
       <c r="B7" s="5">
         <v>4</v>
       </c>
-      <c r="C7" s="17"/>
+      <c r="C7" s="22"/>
       <c r="E7" s="7">
         <f t="shared" si="4"/>
         <v>43926</v>
@@ -15325,7 +15326,7 @@
       <c r="S7" s="12">
         <v>43855</v>
       </c>
-      <c r="T7">
+      <c r="T7" s="23">
         <v>8.33</v>
       </c>
     </row>
@@ -15336,7 +15337,7 @@
       <c r="B8" s="5">
         <v>15</v>
       </c>
-      <c r="C8" s="17"/>
+      <c r="C8" s="22"/>
       <c r="E8" s="7">
         <f t="shared" si="4"/>
         <v>43933</v>
@@ -15382,7 +15383,7 @@
       <c r="S8" s="12">
         <v>43856</v>
       </c>
-      <c r="T8">
+      <c r="T8" s="23">
         <v>8.33</v>
       </c>
     </row>
@@ -15442,7 +15443,7 @@
       <c r="S9" s="12">
         <v>43857</v>
       </c>
-      <c r="T9">
+      <c r="T9" s="23">
         <v>8.33</v>
       </c>
     </row>
@@ -15499,7 +15500,7 @@
       <c r="S10" s="12">
         <v>43858</v>
       </c>
-      <c r="T10">
+      <c r="T10" s="23">
         <v>8.33</v>
       </c>
     </row>
@@ -15556,7 +15557,7 @@
       <c r="S11" s="12">
         <v>43859</v>
       </c>
-      <c r="T11">
+      <c r="T11" s="23">
         <v>8.33</v>
       </c>
     </row>
@@ -15613,7 +15614,7 @@
       <c r="S12" s="12">
         <v>43860</v>
       </c>
-      <c r="T12">
+      <c r="T12" s="23">
         <v>8.33</v>
       </c>
     </row>
@@ -15670,7 +15671,7 @@
       <c r="S13" s="12">
         <v>43861</v>
       </c>
-      <c r="T13">
+      <c r="T13" s="23">
         <v>8.33</v>
       </c>
     </row>
@@ -15727,7 +15728,7 @@
       <c r="S14" s="12">
         <v>43862</v>
       </c>
-      <c r="T14">
+      <c r="T14" s="23">
         <v>8.33</v>
       </c>
     </row>
@@ -15784,7 +15785,7 @@
       <c r="S15" s="12">
         <v>43863</v>
       </c>
-      <c r="T15">
+      <c r="T15" s="23">
         <v>8.33</v>
       </c>
     </row>
@@ -15844,7 +15845,7 @@
       <c r="S16" s="12">
         <v>43864</v>
       </c>
-      <c r="T16">
+      <c r="T16" s="23">
         <v>8.33</v>
       </c>
     </row>
@@ -15902,7 +15903,7 @@
       <c r="S17" s="12">
         <v>43865</v>
       </c>
-      <c r="T17">
+      <c r="T17" s="23">
         <v>8.33</v>
       </c>
     </row>
@@ -15959,7 +15960,7 @@
       <c r="S18" s="12">
         <v>43866</v>
       </c>
-      <c r="T18">
+      <c r="T18" s="23">
         <v>8.33</v>
       </c>
     </row>
@@ -16016,7 +16017,7 @@
       <c r="S19" s="12">
         <v>43867</v>
       </c>
-      <c r="T19">
+      <c r="T19" s="23">
         <v>8.33</v>
       </c>
     </row>
@@ -16073,7 +16074,7 @@
       <c r="S20" s="12">
         <v>43868</v>
       </c>
-      <c r="T20">
+      <c r="T20" s="23">
         <v>8.33</v>
       </c>
     </row>
@@ -16130,7 +16131,7 @@
       <c r="S21" s="12">
         <v>43869</v>
       </c>
-      <c r="T21">
+      <c r="T21" s="23">
         <v>8.33</v>
       </c>
     </row>
@@ -16188,7 +16189,7 @@
       <c r="S22" s="12">
         <v>43870</v>
       </c>
-      <c r="T22">
+      <c r="T22" s="23">
         <v>8.33</v>
       </c>
     </row>
@@ -16248,7 +16249,7 @@
       <c r="S23" s="12">
         <v>43871</v>
       </c>
-      <c r="T23">
+      <c r="T23" s="23">
         <v>8.33</v>
       </c>
     </row>
@@ -16305,7 +16306,7 @@
       <c r="S24" s="12">
         <v>43872</v>
       </c>
-      <c r="T24">
+      <c r="T24" s="23">
         <v>8.33</v>
       </c>
     </row>
@@ -16329,7 +16330,7 @@
       <c r="S25" s="12">
         <v>43873</v>
       </c>
-      <c r="T25">
+      <c r="T25" s="23">
         <v>8.33</v>
       </c>
     </row>
@@ -16353,7 +16354,7 @@
       <c r="S26" s="12">
         <v>43874</v>
       </c>
-      <c r="T26">
+      <c r="T26" s="23">
         <v>8.33</v>
       </c>
     </row>
@@ -16376,7 +16377,7 @@
       <c r="S27" s="12">
         <v>43875</v>
       </c>
-      <c r="T27">
+      <c r="T27" s="23">
         <v>8.33</v>
       </c>
     </row>
@@ -16399,7 +16400,7 @@
       <c r="S28" s="12">
         <v>43876</v>
       </c>
-      <c r="T28">
+      <c r="T28" s="23">
         <v>8.33</v>
       </c>
     </row>
@@ -16422,7 +16423,7 @@
       <c r="S29" s="12">
         <v>43877</v>
       </c>
-      <c r="T29">
+      <c r="T29" s="23">
         <v>8.33</v>
       </c>
     </row>
@@ -16448,7 +16449,7 @@
       <c r="S30" s="12">
         <v>43878</v>
       </c>
-      <c r="T30">
+      <c r="T30" s="23">
         <v>8.33</v>
       </c>
     </row>
@@ -16471,7 +16472,7 @@
       <c r="S31" s="12">
         <v>43879</v>
       </c>
-      <c r="T31">
+      <c r="T31" s="23">
         <v>8.33</v>
       </c>
     </row>
@@ -16494,7 +16495,7 @@
       <c r="S32" s="12">
         <v>43880</v>
       </c>
-      <c r="T32">
+      <c r="T32" s="23">
         <v>8.33</v>
       </c>
     </row>
@@ -16517,7 +16518,7 @@
       <c r="S33" s="12">
         <v>43881</v>
       </c>
-      <c r="T33">
+      <c r="T33" s="23">
         <v>8.33</v>
       </c>
     </row>
@@ -16540,7 +16541,7 @@
       <c r="S34" s="12">
         <v>43882</v>
       </c>
-      <c r="T34">
+      <c r="T34" s="23">
         <v>8.33</v>
       </c>
     </row>
@@ -16563,7 +16564,7 @@
       <c r="S35" s="12">
         <v>43883</v>
       </c>
-      <c r="T35">
+      <c r="T35" s="23">
         <v>8.33</v>
       </c>
     </row>
@@ -16586,7 +16587,7 @@
       <c r="S36" s="12">
         <v>43884</v>
       </c>
-      <c r="T36">
+      <c r="T36" s="23">
         <v>8.33</v>
       </c>
     </row>
@@ -16612,7 +16613,7 @@
       <c r="S37" s="12">
         <v>43885</v>
       </c>
-      <c r="T37">
+      <c r="T37" s="23">
         <v>12.04</v>
       </c>
     </row>
@@ -16635,7 +16636,7 @@
       <c r="S38" s="12">
         <v>43886</v>
       </c>
-      <c r="T38">
+      <c r="T38" s="23">
         <v>12.04</v>
       </c>
     </row>
@@ -16658,7 +16659,7 @@
       <c r="S39" s="12">
         <v>43887</v>
       </c>
-      <c r="T39">
+      <c r="T39" s="23">
         <v>12.04</v>
       </c>
     </row>
@@ -16681,7 +16682,7 @@
       <c r="S40" s="12">
         <v>43888</v>
       </c>
-      <c r="T40">
+      <c r="T40" s="23">
         <v>12.04</v>
       </c>
     </row>
@@ -16704,7 +16705,7 @@
       <c r="S41" s="12">
         <v>43889</v>
       </c>
-      <c r="T41">
+      <c r="T41" s="23">
         <v>12.04</v>
       </c>
     </row>
@@ -16727,7 +16728,7 @@
       <c r="S42" s="12">
         <v>43890</v>
       </c>
-      <c r="T42">
+      <c r="T42" s="23">
         <v>12.04</v>
       </c>
     </row>
@@ -16750,7 +16751,7 @@
       <c r="S43" s="12">
         <v>43891</v>
       </c>
-      <c r="T43">
+      <c r="T43" s="23">
         <v>12.04</v>
       </c>
     </row>
@@ -16776,7 +16777,7 @@
       <c r="S44" s="12">
         <v>43892</v>
       </c>
-      <c r="T44">
+      <c r="T44" s="23">
         <v>12.04</v>
       </c>
     </row>
@@ -16799,7 +16800,7 @@
       <c r="S45" s="12">
         <v>43893</v>
       </c>
-      <c r="T45">
+      <c r="T45" s="23">
         <v>12.04</v>
       </c>
     </row>
@@ -16822,7 +16823,7 @@
       <c r="S46" s="12">
         <v>43894</v>
       </c>
-      <c r="T46">
+      <c r="T46" s="23">
         <v>12.04</v>
       </c>
     </row>
@@ -16845,7 +16846,7 @@
       <c r="S47" s="12">
         <v>43895</v>
       </c>
-      <c r="T47">
+      <c r="T47" s="23">
         <v>12.04</v>
       </c>
     </row>
@@ -16868,7 +16869,7 @@
       <c r="S48" s="12">
         <v>43896</v>
       </c>
-      <c r="T48">
+      <c r="T48" s="23">
         <v>12.04</v>
       </c>
     </row>
@@ -16891,7 +16892,7 @@
       <c r="S49" s="12">
         <v>43897</v>
       </c>
-      <c r="T49">
+      <c r="T49" s="23">
         <v>12.04</v>
       </c>
     </row>
@@ -16914,7 +16915,7 @@
       <c r="S50" s="12">
         <v>43898</v>
       </c>
-      <c r="T50">
+      <c r="T50" s="23">
         <v>12.04</v>
       </c>
     </row>
@@ -16940,7 +16941,7 @@
       <c r="S51" s="12">
         <v>43899</v>
       </c>
-      <c r="T51">
+      <c r="T51" s="23">
         <v>14.81</v>
       </c>
     </row>
@@ -16963,7 +16964,7 @@
       <c r="S52" s="12">
         <v>43900</v>
       </c>
-      <c r="T52">
+      <c r="T52" s="23">
         <v>14.81</v>
       </c>
     </row>
@@ -16987,7 +16988,7 @@
       <c r="S53" s="12">
         <v>43901</v>
       </c>
-      <c r="T53">
+      <c r="T53" s="23">
         <v>14.81</v>
       </c>
     </row>
@@ -17010,7 +17011,7 @@
       <c r="S54" s="12">
         <v>43902</v>
       </c>
-      <c r="T54">
+      <c r="T54" s="23">
         <v>34.26</v>
       </c>
     </row>
@@ -17033,7 +17034,7 @@
       <c r="S55" s="12">
         <v>43903</v>
       </c>
-      <c r="T55">
+      <c r="T55" s="23">
         <v>34.26</v>
       </c>
     </row>
@@ -17056,7 +17057,7 @@
       <c r="S56" s="12">
         <v>43904</v>
       </c>
-      <c r="T56">
+      <c r="T56" s="23">
         <v>34.26</v>
       </c>
     </row>
@@ -17079,7 +17080,7 @@
       <c r="S57" s="12">
         <v>43905</v>
       </c>
-      <c r="T57">
+      <c r="T57" s="23">
         <v>34.26</v>
       </c>
     </row>
@@ -17105,7 +17106,7 @@
       <c r="S58" s="12">
         <v>43906</v>
       </c>
-      <c r="T58">
+      <c r="T58" s="23">
         <v>45.37</v>
       </c>
     </row>
@@ -17128,7 +17129,7 @@
       <c r="S59" s="12">
         <v>43907</v>
       </c>
-      <c r="T59">
+      <c r="T59" s="23">
         <v>50.93</v>
       </c>
     </row>
@@ -17151,7 +17152,7 @@
       <c r="S60" s="12">
         <v>43908</v>
       </c>
-      <c r="T60">
+      <c r="T60" s="23">
         <v>50.93</v>
       </c>
     </row>
@@ -17171,7 +17172,7 @@
       <c r="S61" s="12">
         <v>43909</v>
       </c>
-      <c r="T61">
+      <c r="T61" s="23">
         <v>50.93</v>
       </c>
     </row>
@@ -17191,7 +17192,7 @@
       <c r="S62" s="12">
         <v>43910</v>
       </c>
-      <c r="T62">
+      <c r="T62" s="23">
         <v>50.93</v>
       </c>
     </row>
@@ -17211,7 +17212,7 @@
       <c r="S63" s="12">
         <v>43911</v>
       </c>
-      <c r="T63">
+      <c r="T63" s="23">
         <v>50.93</v>
       </c>
     </row>
@@ -17231,7 +17232,7 @@
       <c r="S64" s="12">
         <v>43912</v>
       </c>
-      <c r="T64">
+      <c r="T64" s="23">
         <v>50.93</v>
       </c>
     </row>
@@ -17253,7 +17254,7 @@
       <c r="S65" s="12">
         <v>43913</v>
       </c>
-      <c r="T65">
+      <c r="T65" s="23">
         <v>53.7</v>
       </c>
     </row>
@@ -17273,7 +17274,7 @@
       <c r="S66" s="12">
         <v>43914</v>
       </c>
-      <c r="T66">
+      <c r="T66" s="23">
         <v>53.7</v>
       </c>
     </row>
@@ -17293,7 +17294,7 @@
       <c r="S67" s="12">
         <v>43915</v>
       </c>
-      <c r="T67">
+      <c r="T67" s="23">
         <v>87.96</v>
       </c>
     </row>
@@ -17313,7 +17314,7 @@
       <c r="S68" s="12">
         <v>43916</v>
       </c>
-      <c r="T68">
+      <c r="T68" s="23">
         <v>87.96</v>
       </c>
     </row>
@@ -17333,7 +17334,7 @@
       <c r="S69" s="12">
         <v>43917</v>
       </c>
-      <c r="T69">
+      <c r="T69" s="23">
         <v>87.96</v>
       </c>
     </row>
@@ -17353,7 +17354,7 @@
       <c r="S70" s="12">
         <v>43918</v>
       </c>
-      <c r="T70">
+      <c r="T70" s="23">
         <v>87.96</v>
       </c>
     </row>
@@ -17373,7 +17374,7 @@
       <c r="S71" s="12">
         <v>43919</v>
       </c>
-      <c r="T71">
+      <c r="T71" s="23">
         <v>87.96</v>
       </c>
     </row>
@@ -17395,7 +17396,7 @@
       <c r="S72" s="12">
         <v>43920</v>
       </c>
-      <c r="T72">
+      <c r="T72" s="23">
         <v>87.96</v>
       </c>
     </row>
@@ -17411,7 +17412,7 @@
       <c r="S73" s="12">
         <v>43921</v>
       </c>
-      <c r="T73">
+      <c r="T73" s="23">
         <v>87.96</v>
       </c>
     </row>
@@ -17427,7 +17428,7 @@
       <c r="S74" s="12">
         <v>43922</v>
       </c>
-      <c r="T74">
+      <c r="T74" s="23">
         <v>87.96</v>
       </c>
     </row>
@@ -17443,7 +17444,7 @@
       <c r="S75" s="12">
         <v>43923</v>
       </c>
-      <c r="T75">
+      <c r="T75" s="23">
         <v>87.96</v>
       </c>
     </row>
@@ -17459,7 +17460,7 @@
       <c r="S76" s="12">
         <v>43924</v>
       </c>
-      <c r="T76">
+      <c r="T76" s="23">
         <v>87.96</v>
       </c>
     </row>
@@ -17475,7 +17476,7 @@
       <c r="S77" s="12">
         <v>43925</v>
       </c>
-      <c r="T77">
+      <c r="T77" s="23">
         <v>87.96</v>
       </c>
     </row>
@@ -17491,7 +17492,7 @@
       <c r="S78" s="12">
         <v>43926</v>
       </c>
-      <c r="T78">
+      <c r="T78" s="23">
         <v>87.96</v>
       </c>
     </row>
@@ -17510,7 +17511,7 @@
       <c r="S79" s="12">
         <v>43927</v>
       </c>
-      <c r="T79">
+      <c r="T79" s="23">
         <v>87.96</v>
       </c>
     </row>
@@ -17525,7 +17526,7 @@
       <c r="S80" s="12">
         <v>43928</v>
       </c>
-      <c r="T80">
+      <c r="T80" s="23">
         <v>87.96</v>
       </c>
     </row>
@@ -17540,7 +17541,7 @@
       <c r="S81" s="12">
         <v>43929</v>
       </c>
-      <c r="T81">
+      <c r="T81" s="23">
         <v>87.96</v>
       </c>
     </row>
@@ -17555,7 +17556,7 @@
       <c r="S82" s="12">
         <v>43930</v>
       </c>
-      <c r="T82">
+      <c r="T82" s="23">
         <v>87.96</v>
       </c>
     </row>
@@ -17570,7 +17571,7 @@
       <c r="S83" s="12">
         <v>43931</v>
       </c>
-      <c r="T83">
+      <c r="T83" s="23">
         <v>87.96</v>
       </c>
     </row>
@@ -17585,7 +17586,7 @@
       <c r="S84" s="12">
         <v>43932</v>
       </c>
-      <c r="T84">
+      <c r="T84" s="23">
         <v>87.96</v>
       </c>
     </row>
@@ -17600,7 +17601,7 @@
       <c r="S85" s="12">
         <v>43933</v>
       </c>
-      <c r="T85">
+      <c r="T85" s="23">
         <v>87.96</v>
       </c>
     </row>
@@ -17618,7 +17619,7 @@
       <c r="S86" s="12">
         <v>43934</v>
       </c>
-      <c r="T86">
+      <c r="T86" s="23">
         <v>87.96</v>
       </c>
     </row>
@@ -17633,7 +17634,7 @@
       <c r="S87" s="12">
         <v>43935</v>
       </c>
-      <c r="T87">
+      <c r="T87" s="23">
         <v>84.26</v>
       </c>
     </row>
@@ -17648,7 +17649,7 @@
       <c r="S88" s="12">
         <v>43936</v>
       </c>
-      <c r="T88">
+      <c r="T88" s="23">
         <v>84.26</v>
       </c>
     </row>
@@ -17663,7 +17664,7 @@
       <c r="S89" s="12">
         <v>43937</v>
       </c>
-      <c r="T89">
+      <c r="T89" s="23">
         <v>84.26</v>
       </c>
     </row>
@@ -17678,7 +17679,7 @@
       <c r="S90" s="12">
         <v>43938</v>
       </c>
-      <c r="T90">
+      <c r="T90" s="23">
         <v>84.26</v>
       </c>
     </row>
@@ -17693,7 +17694,7 @@
       <c r="S91" s="12">
         <v>43939</v>
       </c>
-      <c r="T91">
+      <c r="T91" s="23">
         <v>84.26</v>
       </c>
     </row>
@@ -17708,7 +17709,7 @@
       <c r="S92" s="12">
         <v>43940</v>
       </c>
-      <c r="T92">
+      <c r="T92" s="23">
         <v>84.26</v>
       </c>
     </row>
@@ -17726,7 +17727,7 @@
       <c r="S93" s="12">
         <v>43941</v>
       </c>
-      <c r="T93">
+      <c r="T93" s="23">
         <v>84.26</v>
       </c>
     </row>
@@ -17741,7 +17742,7 @@
       <c r="S94" s="12">
         <v>43942</v>
       </c>
-      <c r="T94">
+      <c r="T94" s="23">
         <v>84.26</v>
       </c>
     </row>
@@ -17756,7 +17757,7 @@
       <c r="S95" s="12">
         <v>43943</v>
       </c>
-      <c r="T95">
+      <c r="T95" s="23">
         <v>84.26</v>
       </c>
     </row>
@@ -17771,7 +17772,7 @@
       <c r="S96" s="12">
         <v>43944</v>
       </c>
-      <c r="T96">
+      <c r="T96" s="23">
         <v>84.26</v>
       </c>
     </row>
@@ -17786,7 +17787,7 @@
       <c r="S97" s="12">
         <v>43945</v>
       </c>
-      <c r="T97">
+      <c r="T97" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -17801,7 +17802,7 @@
       <c r="S98" s="12">
         <v>43946</v>
       </c>
-      <c r="T98">
+      <c r="T98" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -17816,7 +17817,7 @@
       <c r="S99" s="12">
         <v>43947</v>
       </c>
-      <c r="T99">
+      <c r="T99" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -17834,7 +17835,7 @@
       <c r="S100" s="12">
         <v>43948</v>
       </c>
-      <c r="T100">
+      <c r="T100" s="23">
         <v>90.74</v>
       </c>
     </row>
@@ -17849,7 +17850,7 @@
       <c r="S101" s="12">
         <v>43949</v>
       </c>
-      <c r="T101">
+      <c r="T101" s="23">
         <v>90.74</v>
       </c>
     </row>
@@ -17864,7 +17865,7 @@
       <c r="S102" s="12">
         <v>43950</v>
       </c>
-      <c r="T102">
+      <c r="T102" s="23">
         <v>90.74</v>
       </c>
     </row>
@@ -17879,7 +17880,7 @@
       <c r="S103" s="12">
         <v>43951</v>
       </c>
-      <c r="T103">
+      <c r="T103" s="23">
         <v>90.74</v>
       </c>
     </row>
@@ -17894,7 +17895,7 @@
       <c r="S104" s="12">
         <v>43952</v>
       </c>
-      <c r="T104">
+      <c r="T104" s="23">
         <v>90.74</v>
       </c>
     </row>
@@ -17909,7 +17910,7 @@
       <c r="S105" s="12">
         <v>43953</v>
       </c>
-      <c r="T105">
+      <c r="T105" s="23">
         <v>90.74</v>
       </c>
     </row>
@@ -17924,7 +17925,7 @@
       <c r="S106" s="12">
         <v>43954</v>
       </c>
-      <c r="T106">
+      <c r="T106" s="23">
         <v>90.74</v>
       </c>
     </row>
@@ -17942,7 +17943,7 @@
       <c r="S107" s="12">
         <v>43955</v>
       </c>
-      <c r="T107">
+      <c r="T107" s="23">
         <v>90.74</v>
       </c>
     </row>
@@ -17957,7 +17958,7 @@
       <c r="S108" s="12">
         <v>43956</v>
       </c>
-      <c r="T108">
+      <c r="T108" s="23">
         <v>90.74</v>
       </c>
     </row>
@@ -17972,7 +17973,7 @@
       <c r="S109" s="12">
         <v>43957</v>
       </c>
-      <c r="T109">
+      <c r="T109" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -17987,7 +17988,7 @@
       <c r="S110" s="12">
         <v>43958</v>
       </c>
-      <c r="T110">
+      <c r="T110" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -18003,7 +18004,7 @@
       <c r="S111" s="12">
         <v>43959</v>
       </c>
-      <c r="T111">
+      <c r="T111" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -18019,7 +18020,7 @@
       <c r="S112" s="12">
         <v>43960</v>
       </c>
-      <c r="T112">
+      <c r="T112" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -18035,7 +18036,7 @@
       <c r="S113" s="12">
         <v>43961</v>
       </c>
-      <c r="T113">
+      <c r="T113" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -18054,7 +18055,7 @@
       <c r="S114" s="12">
         <v>43962</v>
       </c>
-      <c r="T114">
+      <c r="T114" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -18070,7 +18071,7 @@
       <c r="S115" s="12">
         <v>43963</v>
       </c>
-      <c r="T115">
+      <c r="T115" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -18086,7 +18087,7 @@
       <c r="S116" s="12">
         <v>43964</v>
       </c>
-      <c r="T116">
+      <c r="T116" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -18102,7 +18103,7 @@
       <c r="S117" s="12">
         <v>43965</v>
       </c>
-      <c r="T117">
+      <c r="T117" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -18118,7 +18119,7 @@
       <c r="S118" s="12">
         <v>43966</v>
       </c>
-      <c r="T118">
+      <c r="T118" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -18134,7 +18135,7 @@
       <c r="S119" s="12">
         <v>43967</v>
       </c>
-      <c r="T119">
+      <c r="T119" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -18150,7 +18151,7 @@
       <c r="S120" s="12">
         <v>43968</v>
       </c>
-      <c r="T120">
+      <c r="T120" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -18169,7 +18170,7 @@
       <c r="S121" s="12">
         <v>43969</v>
       </c>
-      <c r="T121">
+      <c r="T121" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -18185,7 +18186,7 @@
       <c r="S122" s="12">
         <v>43970</v>
       </c>
-      <c r="T122">
+      <c r="T122" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -18201,7 +18202,7 @@
       <c r="S123" s="12">
         <v>43971</v>
       </c>
-      <c r="T123">
+      <c r="T123" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -18217,7 +18218,7 @@
       <c r="S124" s="12">
         <v>43972</v>
       </c>
-      <c r="T124">
+      <c r="T124" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -18233,7 +18234,7 @@
       <c r="S125" s="12">
         <v>43973</v>
       </c>
-      <c r="T125">
+      <c r="T125" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -18249,7 +18250,7 @@
       <c r="S126" s="12">
         <v>43974</v>
       </c>
-      <c r="T126">
+      <c r="T126" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -18265,7 +18266,7 @@
       <c r="S127" s="12">
         <v>43975</v>
       </c>
-      <c r="T127">
+      <c r="T127" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -18284,7 +18285,7 @@
       <c r="S128" s="12">
         <v>43976</v>
       </c>
-      <c r="T128">
+      <c r="T128" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -18300,7 +18301,7 @@
       <c r="S129" s="12">
         <v>43977</v>
       </c>
-      <c r="T129">
+      <c r="T129" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -18316,7 +18317,7 @@
       <c r="S130" s="12">
         <v>43978</v>
       </c>
-      <c r="T130">
+      <c r="T130" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -18332,7 +18333,7 @@
       <c r="S131" s="12">
         <v>43979</v>
       </c>
-      <c r="T131">
+      <c r="T131" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -18348,7 +18349,7 @@
       <c r="S132" s="12">
         <v>43980</v>
       </c>
-      <c r="T132">
+      <c r="T132" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -18364,7 +18365,7 @@
       <c r="S133" s="12">
         <v>43981</v>
       </c>
-      <c r="T133">
+      <c r="T133" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -18380,7 +18381,7 @@
       <c r="S134" s="12">
         <v>43982</v>
       </c>
-      <c r="T134">
+      <c r="T134" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -18399,7 +18400,7 @@
       <c r="S135" s="12">
         <v>43983</v>
       </c>
-      <c r="T135">
+      <c r="T135" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -18415,7 +18416,7 @@
       <c r="S136" s="12">
         <v>43984</v>
       </c>
-      <c r="T136">
+      <c r="T136" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -18431,7 +18432,7 @@
       <c r="S137" s="12">
         <v>43985</v>
       </c>
-      <c r="T137">
+      <c r="T137" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -18447,7 +18448,7 @@
       <c r="S138" s="12">
         <v>43986</v>
       </c>
-      <c r="T138">
+      <c r="T138" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -18463,7 +18464,7 @@
       <c r="S139" s="12">
         <v>43987</v>
       </c>
-      <c r="T139">
+      <c r="T139" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -18479,7 +18480,7 @@
       <c r="S140" s="12">
         <v>43988</v>
       </c>
-      <c r="T140">
+      <c r="T140" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -18495,7 +18496,7 @@
       <c r="S141" s="12">
         <v>43989</v>
       </c>
-      <c r="T141">
+      <c r="T141" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -18514,7 +18515,7 @@
       <c r="S142" s="12">
         <v>43990</v>
       </c>
-      <c r="T142">
+      <c r="T142" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -18530,7 +18531,7 @@
       <c r="S143" s="12">
         <v>43991</v>
       </c>
-      <c r="T143">
+      <c r="T143" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -18546,7 +18547,7 @@
       <c r="S144" s="12">
         <v>43992</v>
       </c>
-      <c r="T144">
+      <c r="T144" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -18562,7 +18563,7 @@
       <c r="S145" s="12">
         <v>43993</v>
       </c>
-      <c r="T145">
+      <c r="T145" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -18578,7 +18579,7 @@
       <c r="S146" s="12">
         <v>43994</v>
       </c>
-      <c r="T146">
+      <c r="T146" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -18594,7 +18595,7 @@
       <c r="S147" s="12">
         <v>43995</v>
       </c>
-      <c r="T147">
+      <c r="T147" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -18610,7 +18611,7 @@
       <c r="S148" s="12">
         <v>43996</v>
       </c>
-      <c r="T148">
+      <c r="T148" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -18629,7 +18630,7 @@
       <c r="S149" s="12">
         <v>43997</v>
       </c>
-      <c r="T149">
+      <c r="T149" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -18645,7 +18646,7 @@
       <c r="S150" s="12">
         <v>43998</v>
       </c>
-      <c r="T150">
+      <c r="T150" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -18661,7 +18662,7 @@
       <c r="S151" s="12">
         <v>43999</v>
       </c>
-      <c r="T151">
+      <c r="T151" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -18677,7 +18678,7 @@
       <c r="S152" s="12">
         <v>44000</v>
       </c>
-      <c r="T152">
+      <c r="T152" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -18693,7 +18694,7 @@
       <c r="S153" s="12">
         <v>44001</v>
       </c>
-      <c r="T153">
+      <c r="T153" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -18709,7 +18710,7 @@
       <c r="S154" s="12">
         <v>44002</v>
       </c>
-      <c r="T154">
+      <c r="T154" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -18725,7 +18726,7 @@
       <c r="S155" s="12">
         <v>44003</v>
       </c>
-      <c r="T155">
+      <c r="T155" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -18744,7 +18745,7 @@
       <c r="S156" s="12">
         <v>44004</v>
       </c>
-      <c r="T156">
+      <c r="T156" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -18760,7 +18761,7 @@
       <c r="S157" s="12">
         <v>44005</v>
       </c>
-      <c r="T157">
+      <c r="T157" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -18776,7 +18777,7 @@
       <c r="S158" s="12">
         <v>44006</v>
       </c>
-      <c r="T158">
+      <c r="T158" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -18792,7 +18793,7 @@
       <c r="S159" s="12">
         <v>44007</v>
       </c>
-      <c r="T159">
+      <c r="T159" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -18808,7 +18809,7 @@
       <c r="S160" s="12">
         <v>44008</v>
       </c>
-      <c r="T160">
+      <c r="T160" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -18824,7 +18825,7 @@
       <c r="S161" s="12">
         <v>44009</v>
       </c>
-      <c r="T161">
+      <c r="T161" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -18840,7 +18841,7 @@
       <c r="S162" s="12">
         <v>44010</v>
       </c>
-      <c r="T162">
+      <c r="T162" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -18859,7 +18860,7 @@
       <c r="S163" s="12">
         <v>44011</v>
       </c>
-      <c r="T163">
+      <c r="T163" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -18875,7 +18876,7 @@
       <c r="S164" s="12">
         <v>44012</v>
       </c>
-      <c r="T164">
+      <c r="T164" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -18891,7 +18892,7 @@
       <c r="S165" s="12">
         <v>44013</v>
       </c>
-      <c r="T165">
+      <c r="T165" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -18907,7 +18908,7 @@
       <c r="S166" s="12">
         <v>44014</v>
       </c>
-      <c r="T166">
+      <c r="T166" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -18923,7 +18924,7 @@
       <c r="S167" s="12">
         <v>44015</v>
       </c>
-      <c r="T167">
+      <c r="T167" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -18939,7 +18940,7 @@
       <c r="S168" s="12">
         <v>44016</v>
       </c>
-      <c r="T168">
+      <c r="T168" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -18955,7 +18956,7 @@
       <c r="S169" s="12">
         <v>44017</v>
       </c>
-      <c r="T169">
+      <c r="T169" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -18974,7 +18975,7 @@
       <c r="S170" s="12">
         <v>44018</v>
       </c>
-      <c r="T170">
+      <c r="T170" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -18990,7 +18991,7 @@
       <c r="S171" s="12">
         <v>44019</v>
       </c>
-      <c r="T171">
+      <c r="T171" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -19006,7 +19007,7 @@
       <c r="S172" s="12">
         <v>44020</v>
       </c>
-      <c r="T172">
+      <c r="T172" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -19022,7 +19023,7 @@
       <c r="S173" s="12">
         <v>44021</v>
       </c>
-      <c r="T173">
+      <c r="T173" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -19038,7 +19039,7 @@
       <c r="S174" s="12">
         <v>44022</v>
       </c>
-      <c r="T174">
+      <c r="T174" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -19054,7 +19055,7 @@
       <c r="S175" s="12">
         <v>44023</v>
       </c>
-      <c r="T175">
+      <c r="T175" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -19070,7 +19071,7 @@
       <c r="S176" s="12">
         <v>44024</v>
       </c>
-      <c r="T176">
+      <c r="T176" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -19089,7 +19090,7 @@
       <c r="S177" s="12">
         <v>44025</v>
       </c>
-      <c r="T177">
+      <c r="T177" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -19105,7 +19106,7 @@
       <c r="S178" s="12">
         <v>44026</v>
       </c>
-      <c r="T178">
+      <c r="T178" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -19121,7 +19122,7 @@
       <c r="S179" s="12">
         <v>44027</v>
       </c>
-      <c r="T179">
+      <c r="T179" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -19136,7 +19137,7 @@
       <c r="S180" s="12">
         <v>44028</v>
       </c>
-      <c r="T180">
+      <c r="T180" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -19151,7 +19152,7 @@
       <c r="S181" s="12">
         <v>44029</v>
       </c>
-      <c r="T181">
+      <c r="T181" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -19166,7 +19167,7 @@
       <c r="S182" s="12">
         <v>44030</v>
       </c>
-      <c r="T182">
+      <c r="T182" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -19181,7 +19182,7 @@
       <c r="S183" s="12">
         <v>44031</v>
       </c>
-      <c r="T183">
+      <c r="T183" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -19199,7 +19200,7 @@
       <c r="S184" s="12">
         <v>44032</v>
       </c>
-      <c r="T184">
+      <c r="T184" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -19214,7 +19215,7 @@
       <c r="S185" s="12">
         <v>44033</v>
       </c>
-      <c r="T185">
+      <c r="T185" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -19229,7 +19230,7 @@
       <c r="S186" s="12">
         <v>44034</v>
       </c>
-      <c r="T186">
+      <c r="T186" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -19244,7 +19245,7 @@
       <c r="S187" s="12">
         <v>44035</v>
       </c>
-      <c r="T187">
+      <c r="T187" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -19259,7 +19260,7 @@
       <c r="S188" s="12">
         <v>44036</v>
       </c>
-      <c r="T188">
+      <c r="T188" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -19274,7 +19275,7 @@
       <c r="S189" s="12">
         <v>44037</v>
       </c>
-      <c r="T189">
+      <c r="T189" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -19289,7 +19290,7 @@
       <c r="S190" s="12">
         <v>44038</v>
       </c>
-      <c r="T190">
+      <c r="T190" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -19307,7 +19308,7 @@
       <c r="S191" s="12">
         <v>44039</v>
       </c>
-      <c r="T191">
+      <c r="T191" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -19322,7 +19323,7 @@
       <c r="S192" s="12">
         <v>44040</v>
       </c>
-      <c r="T192">
+      <c r="T192" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -19337,7 +19338,7 @@
       <c r="S193" s="12">
         <v>44041</v>
       </c>
-      <c r="T193">
+      <c r="T193" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -19352,7 +19353,7 @@
       <c r="S194" s="12">
         <v>44042</v>
       </c>
-      <c r="T194">
+      <c r="T194" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -19367,7 +19368,7 @@
       <c r="S195" s="12">
         <v>44043</v>
       </c>
-      <c r="T195">
+      <c r="T195" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -19382,7 +19383,7 @@
       <c r="S196" s="12">
         <v>44044</v>
       </c>
-      <c r="T196">
+      <c r="T196" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -19397,7 +19398,7 @@
       <c r="S197" s="12">
         <v>44045</v>
       </c>
-      <c r="T197">
+      <c r="T197" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -19415,7 +19416,7 @@
       <c r="S198" s="12">
         <v>44046</v>
       </c>
-      <c r="T198">
+      <c r="T198" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -19430,7 +19431,7 @@
       <c r="S199" s="12">
         <v>44047</v>
       </c>
-      <c r="T199">
+      <c r="T199" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -19445,7 +19446,7 @@
       <c r="S200" s="12">
         <v>44048</v>
       </c>
-      <c r="T200">
+      <c r="T200" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -19460,7 +19461,7 @@
       <c r="S201" s="12">
         <v>44049</v>
       </c>
-      <c r="T201">
+      <c r="T201" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -19475,7 +19476,7 @@
       <c r="S202" s="12">
         <v>44050</v>
       </c>
-      <c r="T202">
+      <c r="T202" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -19490,7 +19491,7 @@
       <c r="S203" s="12">
         <v>44051</v>
       </c>
-      <c r="T203">
+      <c r="T203" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -19505,7 +19506,7 @@
       <c r="S204" s="12">
         <v>44052</v>
       </c>
-      <c r="T204">
+      <c r="T204" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -19523,7 +19524,7 @@
       <c r="S205" s="12">
         <v>44053</v>
       </c>
-      <c r="T205">
+      <c r="T205" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -19538,7 +19539,7 @@
       <c r="S206" s="12">
         <v>44054</v>
       </c>
-      <c r="T206">
+      <c r="T206" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -19553,7 +19554,7 @@
       <c r="S207" s="12">
         <v>44055</v>
       </c>
-      <c r="T207">
+      <c r="T207" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -19568,7 +19569,7 @@
       <c r="S208" s="12">
         <v>44056</v>
       </c>
-      <c r="T208">
+      <c r="T208" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -19583,7 +19584,7 @@
       <c r="S209" s="12">
         <v>44057</v>
       </c>
-      <c r="T209">
+      <c r="T209" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -19598,7 +19599,7 @@
       <c r="S210" s="12">
         <v>44058</v>
       </c>
-      <c r="T210">
+      <c r="T210" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -19613,7 +19614,7 @@
       <c r="S211" s="12">
         <v>44059</v>
       </c>
-      <c r="T211">
+      <c r="T211" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -19631,7 +19632,7 @@
       <c r="S212" s="12">
         <v>44060</v>
       </c>
-      <c r="T212">
+      <c r="T212" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -19646,7 +19647,7 @@
       <c r="S213" s="12">
         <v>44061</v>
       </c>
-      <c r="T213">
+      <c r="T213" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -19661,7 +19662,7 @@
       <c r="S214" s="12">
         <v>44062</v>
       </c>
-      <c r="T214">
+      <c r="T214" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -19676,7 +19677,7 @@
       <c r="S215" s="12">
         <v>44063</v>
       </c>
-      <c r="T215">
+      <c r="T215" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -19691,7 +19692,7 @@
       <c r="S216" s="12">
         <v>44064</v>
       </c>
-      <c r="T216">
+      <c r="T216" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -19706,7 +19707,7 @@
       <c r="S217" s="12">
         <v>44065</v>
       </c>
-      <c r="T217">
+      <c r="T217" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -19721,7 +19722,7 @@
       <c r="S218" s="12">
         <v>44066</v>
       </c>
-      <c r="T218">
+      <c r="T218" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -19739,7 +19740,7 @@
       <c r="S219" s="12">
         <v>44067</v>
       </c>
-      <c r="T219">
+      <c r="T219" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -19754,7 +19755,7 @@
       <c r="S220" s="12">
         <v>44068</v>
       </c>
-      <c r="T220">
+      <c r="T220" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -19769,7 +19770,7 @@
       <c r="S221" s="12">
         <v>44069</v>
       </c>
-      <c r="T221">
+      <c r="T221" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -19784,7 +19785,7 @@
       <c r="S222" s="12">
         <v>44070</v>
       </c>
-      <c r="T222">
+      <c r="T222" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -19799,7 +19800,7 @@
       <c r="S223" s="12">
         <v>44071</v>
       </c>
-      <c r="T223">
+      <c r="T223" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -19814,7 +19815,7 @@
       <c r="S224" s="12">
         <v>44072</v>
       </c>
-      <c r="T224">
+      <c r="T224" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -19829,7 +19830,7 @@
       <c r="S225" s="12">
         <v>44073</v>
       </c>
-      <c r="T225">
+      <c r="T225" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -19847,7 +19848,7 @@
       <c r="S226" s="12">
         <v>44074</v>
       </c>
-      <c r="T226">
+      <c r="T226" s="23">
         <v>87.04</v>
       </c>
     </row>
@@ -19862,7 +19863,7 @@
       <c r="S227" s="12">
         <v>44075</v>
       </c>
-      <c r="T227">
+      <c r="T227" s="23">
         <v>71.3</v>
       </c>
     </row>
@@ -19877,7 +19878,7 @@
       <c r="S228" s="12">
         <v>44076</v>
       </c>
-      <c r="T228">
+      <c r="T228" s="23">
         <v>71.3</v>
       </c>
     </row>
@@ -19892,7 +19893,7 @@
       <c r="S229" s="12">
         <v>44077</v>
       </c>
-      <c r="T229">
+      <c r="T229" s="23">
         <v>71.3</v>
       </c>
     </row>
@@ -19907,7 +19908,7 @@
       <c r="S230" s="12">
         <v>44078</v>
       </c>
-      <c r="T230">
+      <c r="T230" s="23">
         <v>71.3</v>
       </c>
     </row>
@@ -19922,7 +19923,7 @@
       <c r="S231" s="12">
         <v>44079</v>
       </c>
-      <c r="T231">
+      <c r="T231" s="23">
         <v>71.3</v>
       </c>
     </row>
@@ -19937,7 +19938,7 @@
       <c r="S232" s="12">
         <v>44080</v>
       </c>
-      <c r="T232">
+      <c r="T232" s="23">
         <v>71.3</v>
       </c>
     </row>
@@ -19955,7 +19956,7 @@
       <c r="S233" s="12">
         <v>44081</v>
       </c>
-      <c r="T233">
+      <c r="T233" s="23">
         <v>71.3</v>
       </c>
     </row>
@@ -19970,7 +19971,7 @@
       <c r="S234" s="12">
         <v>44082</v>
       </c>
-      <c r="T234">
+      <c r="T234" s="23">
         <v>71.3</v>
       </c>
     </row>
@@ -19985,7 +19986,7 @@
       <c r="S235" s="12">
         <v>44083</v>
       </c>
-      <c r="T235">
+      <c r="T235" s="23">
         <v>71.3</v>
       </c>
     </row>
@@ -20000,7 +20001,7 @@
       <c r="S236" s="12">
         <v>44084</v>
       </c>
-      <c r="T236">
+      <c r="T236" s="23">
         <v>71.3</v>
       </c>
     </row>
@@ -20015,7 +20016,7 @@
       <c r="S237" s="12">
         <v>44085</v>
       </c>
-      <c r="T237">
+      <c r="T237" s="23">
         <v>71.3</v>
       </c>
     </row>
@@ -20030,7 +20031,7 @@
       <c r="S238" s="12">
         <v>44086</v>
       </c>
-      <c r="T238">
+      <c r="T238" s="23">
         <v>71.3</v>
       </c>
     </row>
@@ -20045,7 +20046,7 @@
       <c r="S239" s="12">
         <v>44087</v>
       </c>
-      <c r="T239">
+      <c r="T239" s="23">
         <v>71.3</v>
       </c>
     </row>
@@ -20063,7 +20064,7 @@
       <c r="S240" s="12">
         <v>44088</v>
       </c>
-      <c r="T240">
+      <c r="T240" s="23">
         <v>71.3</v>
       </c>
     </row>
@@ -20078,7 +20079,7 @@
       <c r="S241" s="12">
         <v>44089</v>
       </c>
-      <c r="T241">
+      <c r="T241" s="23">
         <v>71.3</v>
       </c>
     </row>
@@ -20093,7 +20094,7 @@
       <c r="S242" s="12">
         <v>44090</v>
       </c>
-      <c r="T242">
+      <c r="T242" s="23">
         <v>71.3</v>
       </c>
     </row>
@@ -20108,7 +20109,7 @@
       <c r="S243" s="12">
         <v>44091</v>
       </c>
-      <c r="T243">
+      <c r="T243" s="23">
         <v>71.3</v>
       </c>
     </row>
@@ -20123,7 +20124,7 @@
       <c r="S244" s="12">
         <v>44092</v>
       </c>
-      <c r="T244">
+      <c r="T244" s="23">
         <v>71.3</v>
       </c>
     </row>
@@ -20138,7 +20139,7 @@
       <c r="S245" s="12">
         <v>44093</v>
       </c>
-      <c r="T245">
+      <c r="T245" s="23">
         <v>71.3</v>
       </c>
     </row>
@@ -20153,7 +20154,7 @@
       <c r="S246" s="12">
         <v>44094</v>
       </c>
-      <c r="T246">
+      <c r="T246" s="23">
         <v>71.3</v>
       </c>
     </row>
@@ -20171,7 +20172,7 @@
       <c r="S247" s="12">
         <v>44095</v>
       </c>
-      <c r="T247">
+      <c r="T247" s="23">
         <v>71.3</v>
       </c>
     </row>
@@ -20186,7 +20187,7 @@
       <c r="S248" s="12">
         <v>44096</v>
       </c>
-      <c r="T248">
+      <c r="T248" s="23">
         <v>71.3</v>
       </c>
     </row>
@@ -20201,7 +20202,7 @@
       <c r="S249" s="12">
         <v>44097</v>
       </c>
-      <c r="T249">
+      <c r="T249" s="23">
         <v>71.3</v>
       </c>
     </row>
@@ -20216,7 +20217,7 @@
       <c r="S250" s="12">
         <v>44098</v>
       </c>
-      <c r="T250">
+      <c r="T250" s="23">
         <v>71.3</v>
       </c>
     </row>
@@ -20231,7 +20232,7 @@
       <c r="S251" s="12">
         <v>44099</v>
       </c>
-      <c r="T251">
+      <c r="T251" s="23">
         <v>71.3</v>
       </c>
     </row>
@@ -20246,7 +20247,7 @@
       <c r="S252" s="12">
         <v>44100</v>
       </c>
-      <c r="T252">
+      <c r="T252" s="23">
         <v>71.3</v>
       </c>
     </row>
@@ -20261,7 +20262,7 @@
       <c r="S253" s="12">
         <v>44101</v>
       </c>
-      <c r="T253">
+      <c r="T253" s="23">
         <v>71.3</v>
       </c>
     </row>
@@ -20279,7 +20280,7 @@
       <c r="S254" s="12">
         <v>44102</v>
       </c>
-      <c r="T254">
+      <c r="T254" s="23">
         <v>71.3</v>
       </c>
     </row>
@@ -20294,7 +20295,7 @@
       <c r="S255" s="12">
         <v>44103</v>
       </c>
-      <c r="T255">
+      <c r="T255" s="23">
         <v>71.3</v>
       </c>
     </row>
@@ -20309,7 +20310,7 @@
       <c r="S256" s="12">
         <v>44104</v>
       </c>
-      <c r="T256">
+      <c r="T256" s="23">
         <v>71.3</v>
       </c>
     </row>
@@ -20324,7 +20325,7 @@
       <c r="S257" s="12">
         <v>44105</v>
       </c>
-      <c r="T257">
+      <c r="T257" s="23">
         <v>71.3</v>
       </c>
     </row>
@@ -20339,7 +20340,7 @@
       <c r="S258" s="12">
         <v>44106</v>
       </c>
-      <c r="T258">
+      <c r="T258" s="23">
         <v>71.3</v>
       </c>
     </row>
@@ -20354,7 +20355,7 @@
       <c r="S259" s="12">
         <v>44107</v>
       </c>
-      <c r="T259">
+      <c r="T259" s="23">
         <v>71.3</v>
       </c>
     </row>
@@ -20369,7 +20370,7 @@
       <c r="S260" s="12">
         <v>44108</v>
       </c>
-      <c r="T260">
+      <c r="T260" s="23">
         <v>71.3</v>
       </c>
     </row>
@@ -20387,7 +20388,7 @@
       <c r="S261" s="12">
         <v>44109</v>
       </c>
-      <c r="T261">
+      <c r="T261" s="23">
         <v>71.3</v>
       </c>
     </row>
@@ -20402,7 +20403,7 @@
       <c r="S262" s="12">
         <v>44110</v>
       </c>
-      <c r="T262">
+      <c r="T262" s="23">
         <v>71.3</v>
       </c>
     </row>
@@ -20417,7 +20418,7 @@
       <c r="S263" s="12">
         <v>44111</v>
       </c>
-      <c r="T263">
+      <c r="T263" s="23">
         <v>71.3</v>
       </c>
     </row>
@@ -20432,7 +20433,7 @@
       <c r="S264" s="12">
         <v>44112</v>
       </c>
-      <c r="T264">
+      <c r="T264" s="23">
         <v>71.3</v>
       </c>
     </row>
@@ -20447,7 +20448,7 @@
       <c r="S265" s="12">
         <v>44113</v>
       </c>
-      <c r="T265">
+      <c r="T265" s="23">
         <v>71.3</v>
       </c>
     </row>
@@ -20462,7 +20463,7 @@
       <c r="S266" s="12">
         <v>44114</v>
       </c>
-      <c r="T266">
+      <c r="T266" s="23">
         <v>71.3</v>
       </c>
     </row>
@@ -20477,7 +20478,7 @@
       <c r="S267" s="12">
         <v>44115</v>
       </c>
-      <c r="T267">
+      <c r="T267" s="23">
         <v>71.3</v>
       </c>
     </row>
@@ -20495,7 +20496,7 @@
       <c r="S268" s="12">
         <v>44116</v>
       </c>
-      <c r="T268">
+      <c r="T268" s="23">
         <v>71.3</v>
       </c>
     </row>
@@ -20510,7 +20511,7 @@
       <c r="S269" s="12">
         <v>44117</v>
       </c>
-      <c r="T269">
+      <c r="T269" s="23">
         <v>71.3</v>
       </c>
     </row>
@@ -20525,7 +20526,7 @@
       <c r="S270" s="12">
         <v>44118</v>
       </c>
-      <c r="T270">
+      <c r="T270" s="23">
         <v>71.3</v>
       </c>
     </row>
@@ -20540,7 +20541,7 @@
       <c r="S271" s="12">
         <v>44119</v>
       </c>
-      <c r="T271">
+      <c r="T271" s="23">
         <v>71.3</v>
       </c>
     </row>
@@ -20555,7 +20556,7 @@
       <c r="S272" s="12">
         <v>44120</v>
       </c>
-      <c r="T272">
+      <c r="T272" s="23">
         <v>71.3</v>
       </c>
     </row>
@@ -20570,7 +20571,7 @@
       <c r="S273" s="12">
         <v>44121</v>
       </c>
-      <c r="T273">
+      <c r="T273" s="23">
         <v>71.3</v>
       </c>
     </row>
@@ -20585,7 +20586,7 @@
       <c r="S274" s="12">
         <v>44122</v>
       </c>
-      <c r="T274">
+      <c r="T274" s="23">
         <v>71.3</v>
       </c>
     </row>
@@ -20603,7 +20604,7 @@
       <c r="S275" s="12">
         <v>44123</v>
       </c>
-      <c r="T275">
+      <c r="T275" s="23">
         <v>65.739999999999995</v>
       </c>
     </row>
@@ -20618,7 +20619,7 @@
       <c r="S276" s="12">
         <v>44124</v>
       </c>
-      <c r="T276">
+      <c r="T276" s="23">
         <v>65.739999999999995</v>
       </c>
     </row>
@@ -20633,7 +20634,7 @@
       <c r="S277" s="12">
         <v>44125</v>
       </c>
-      <c r="T277">
+      <c r="T277" s="23">
         <v>65.739999999999995</v>
       </c>
     </row>
@@ -20648,7 +20649,7 @@
       <c r="S278" s="12">
         <v>44126</v>
       </c>
-      <c r="T278">
+      <c r="T278" s="23">
         <v>65.739999999999995</v>
       </c>
     </row>
@@ -20663,7 +20664,7 @@
       <c r="S279" s="12">
         <v>44127</v>
       </c>
-      <c r="T279">
+      <c r="T279" s="23">
         <v>65.739999999999995</v>
       </c>
     </row>
@@ -20678,7 +20679,7 @@
       <c r="S280" s="12">
         <v>44128</v>
       </c>
-      <c r="T280">
+      <c r="T280" s="23">
         <v>65.739999999999995</v>
       </c>
     </row>
@@ -20693,7 +20694,7 @@
       <c r="S281" s="12">
         <v>44129</v>
       </c>
-      <c r="T281">
+      <c r="T281" s="23">
         <v>65.739999999999995</v>
       </c>
     </row>
@@ -20711,7 +20712,7 @@
       <c r="S282" s="12">
         <v>44130</v>
       </c>
-      <c r="T282">
+      <c r="T282" s="23">
         <v>65.739999999999995</v>
       </c>
     </row>
@@ -20726,7 +20727,7 @@
       <c r="S283" s="12">
         <v>44131</v>
       </c>
-      <c r="T283">
+      <c r="T283" s="23">
         <v>65.739999999999995</v>
       </c>
     </row>
@@ -20741,7 +20742,7 @@
       <c r="S284" s="12">
         <v>44132</v>
       </c>
-      <c r="T284">
+      <c r="T284" s="23">
         <v>65.739999999999995</v>
       </c>
     </row>
@@ -20756,7 +20757,7 @@
       <c r="S285" s="12">
         <v>44133</v>
       </c>
-      <c r="T285">
+      <c r="T285" s="23">
         <v>65.739999999999995</v>
       </c>
     </row>
@@ -20771,7 +20772,7 @@
       <c r="S286" s="12">
         <v>44134</v>
       </c>
-      <c r="T286">
+      <c r="T286" s="23">
         <v>65.739999999999995</v>
       </c>
     </row>
@@ -20786,7 +20787,7 @@
       <c r="S287" s="12">
         <v>44135</v>
       </c>
-      <c r="T287">
+      <c r="T287" s="23">
         <v>65.739999999999995</v>
       </c>
     </row>
@@ -20801,7 +20802,7 @@
       <c r="S288" s="12">
         <v>44136</v>
       </c>
-      <c r="T288">
+      <c r="T288" s="23">
         <v>65.739999999999995</v>
       </c>
     </row>
@@ -20819,7 +20820,7 @@
       <c r="S289" s="12">
         <v>44137</v>
       </c>
-      <c r="T289">
+      <c r="T289" s="23">
         <v>65.739999999999995</v>
       </c>
     </row>
@@ -20835,7 +20836,7 @@
       <c r="S290" s="12">
         <v>44138</v>
       </c>
-      <c r="T290">
+      <c r="T290" s="23">
         <v>65.739999999999995</v>
       </c>
     </row>
@@ -20851,7 +20852,7 @@
       <c r="S291" s="12">
         <v>44139</v>
       </c>
-      <c r="T291">
+      <c r="T291" s="23">
         <v>65.739999999999995</v>
       </c>
     </row>
@@ -20866,7 +20867,7 @@
       <c r="S292" s="12">
         <v>44140</v>
       </c>
-      <c r="T292">
+      <c r="T292" s="23">
         <v>65.739999999999995</v>
       </c>
     </row>
@@ -20882,7 +20883,7 @@
       <c r="S293" s="12">
         <v>44141</v>
       </c>
-      <c r="T293">
+      <c r="T293" s="23">
         <v>65.739999999999995</v>
       </c>
     </row>
@@ -20898,7 +20899,7 @@
       <c r="S294" s="12">
         <v>44142</v>
       </c>
-      <c r="T294">
+      <c r="T294" s="23">
         <v>65.739999999999995</v>
       </c>
     </row>
@@ -20914,7 +20915,7 @@
       <c r="S295" s="12">
         <v>44143</v>
       </c>
-      <c r="T295">
+      <c r="T295" s="23">
         <v>65.739999999999995</v>
       </c>
     </row>
@@ -20933,7 +20934,7 @@
       <c r="S296" s="12">
         <v>44144</v>
       </c>
-      <c r="T296">
+      <c r="T296" s="23">
         <v>65.739999999999995</v>
       </c>
     </row>
@@ -20949,7 +20950,7 @@
       <c r="S297" s="12">
         <v>44145</v>
       </c>
-      <c r="T297">
+      <c r="T297" s="23">
         <v>65.739999999999995</v>
       </c>
     </row>
@@ -20965,7 +20966,7 @@
       <c r="S298" s="12">
         <v>44146</v>
       </c>
-      <c r="T298">
+      <c r="T298" s="23">
         <v>65.739999999999995</v>
       </c>
     </row>
@@ -20981,7 +20982,7 @@
       <c r="S299" s="12">
         <v>44147</v>
       </c>
-      <c r="T299">
+      <c r="T299" s="23">
         <v>65.739999999999995</v>
       </c>
     </row>
@@ -20997,7 +20998,7 @@
       <c r="S300" s="12">
         <v>44148</v>
       </c>
-      <c r="T300">
+      <c r="T300" s="23">
         <v>65.739999999999995</v>
       </c>
     </row>
@@ -21013,7 +21014,7 @@
       <c r="S301" s="12">
         <v>44149</v>
       </c>
-      <c r="T301">
+      <c r="T301" s="23">
         <v>65.739999999999995</v>
       </c>
     </row>
@@ -21029,7 +21030,7 @@
       <c r="S302" s="12">
         <v>44150</v>
       </c>
-      <c r="T302">
+      <c r="T302" s="23">
         <v>65.739999999999995</v>
       </c>
     </row>
@@ -21048,7 +21049,7 @@
       <c r="S303" s="12">
         <v>44151</v>
       </c>
-      <c r="T303">
+      <c r="T303" s="23">
         <v>65.739999999999995</v>
       </c>
     </row>
@@ -21064,7 +21065,7 @@
       <c r="S304" s="12">
         <v>44152</v>
       </c>
-      <c r="T304">
+      <c r="T304" s="23">
         <v>65.739999999999995</v>
       </c>
     </row>
@@ -21080,7 +21081,7 @@
       <c r="S305" s="12">
         <v>44153</v>
       </c>
-      <c r="T305">
+      <c r="T305" s="23">
         <v>65.739999999999995</v>
       </c>
     </row>
@@ -21096,7 +21097,7 @@
       <c r="S306" s="12">
         <v>44154</v>
       </c>
-      <c r="T306">
+      <c r="T306" s="23">
         <v>65.739999999999995</v>
       </c>
     </row>
@@ -21112,7 +21113,7 @@
       <c r="S307" s="12">
         <v>44155</v>
       </c>
-      <c r="T307">
+      <c r="T307" s="23">
         <v>65.739999999999995</v>
       </c>
     </row>
@@ -21128,7 +21129,7 @@
       <c r="S308" s="12">
         <v>44156</v>
       </c>
-      <c r="T308">
+      <c r="T308" s="23">
         <v>65.739999999999995</v>
       </c>
     </row>
@@ -21144,7 +21145,7 @@
       <c r="S309" s="12">
         <v>44157</v>
       </c>
-      <c r="T309">
+      <c r="T309" s="23">
         <v>65.739999999999995</v>
       </c>
     </row>
@@ -21163,7 +21164,7 @@
       <c r="S310" s="12">
         <v>44158</v>
       </c>
-      <c r="T310">
+      <c r="T310" s="23">
         <v>65.739999999999995</v>
       </c>
     </row>
@@ -21179,7 +21180,7 @@
       <c r="S311" s="12">
         <v>44159</v>
       </c>
-      <c r="T311">
+      <c r="T311" s="23">
         <v>65.739999999999995</v>
       </c>
     </row>
@@ -21195,7 +21196,7 @@
       <c r="S312" s="12">
         <v>44160</v>
       </c>
-      <c r="T312">
+      <c r="T312" s="23">
         <v>65.739999999999995</v>
       </c>
     </row>
@@ -21211,7 +21212,7 @@
       <c r="S313" s="12">
         <v>44161</v>
       </c>
-      <c r="T313">
+      <c r="T313" s="23">
         <v>60.19</v>
       </c>
     </row>
@@ -21227,7 +21228,7 @@
       <c r="S314" s="12">
         <v>44162</v>
       </c>
-      <c r="T314">
+      <c r="T314" s="23">
         <v>60.19</v>
       </c>
     </row>
@@ -21243,7 +21244,7 @@
       <c r="S315" s="12">
         <v>44163</v>
       </c>
-      <c r="T315">
+      <c r="T315" s="23">
         <v>60.19</v>
       </c>
     </row>
@@ -21259,7 +21260,7 @@
       <c r="S316" s="12">
         <v>44164</v>
       </c>
-      <c r="T316">
+      <c r="T316" s="23">
         <v>60.19</v>
       </c>
     </row>
@@ -21278,7 +21279,7 @@
       <c r="S317" s="12">
         <v>44165</v>
       </c>
-      <c r="T317">
+      <c r="T317" s="23">
         <v>60.19</v>
       </c>
     </row>
@@ -21294,7 +21295,7 @@
       <c r="S318" s="12">
         <v>44166</v>
       </c>
-      <c r="T318">
+      <c r="T318" s="23">
         <v>60.19</v>
       </c>
     </row>
@@ -21310,7 +21311,7 @@
       <c r="S319" s="12">
         <v>44167</v>
       </c>
-      <c r="T319">
+      <c r="T319" s="23">
         <v>60.19</v>
       </c>
     </row>
@@ -21326,7 +21327,7 @@
       <c r="S320" s="12">
         <v>44168</v>
       </c>
-      <c r="T320">
+      <c r="T320" s="23">
         <v>60.19</v>
       </c>
     </row>
@@ -21342,7 +21343,7 @@
       <c r="S321" s="12">
         <v>44169</v>
       </c>
-      <c r="T321">
+      <c r="T321" s="23">
         <v>60.19</v>
       </c>
     </row>
@@ -21358,7 +21359,7 @@
       <c r="S322" s="12">
         <v>44170</v>
       </c>
-      <c r="T322">
+      <c r="T322" s="23">
         <v>60.19</v>
       </c>
     </row>
@@ -21374,7 +21375,7 @@
       <c r="S323" s="12">
         <v>44171</v>
       </c>
-      <c r="T323">
+      <c r="T323" s="23">
         <v>60.19</v>
       </c>
     </row>
@@ -21393,7 +21394,7 @@
       <c r="S324" s="12">
         <v>44172</v>
       </c>
-      <c r="T324">
+      <c r="T324" s="23">
         <v>60.19</v>
       </c>
     </row>
@@ -21409,7 +21410,7 @@
       <c r="S325" s="12">
         <v>44173</v>
       </c>
-      <c r="T325">
+      <c r="T325" s="23">
         <v>60.19</v>
       </c>
     </row>
@@ -21425,7 +21426,7 @@
       <c r="S326" s="12">
         <v>44174</v>
       </c>
-      <c r="T326">
+      <c r="T326" s="23">
         <v>60.19</v>
       </c>
     </row>
@@ -21441,7 +21442,7 @@
       <c r="S327" s="12">
         <v>44175</v>
       </c>
-      <c r="T327">
+      <c r="T327" s="23">
         <v>60.19</v>
       </c>
     </row>
@@ -21457,7 +21458,7 @@
       <c r="S328" s="12">
         <v>44176</v>
       </c>
-      <c r="T328">
+      <c r="T328" s="23">
         <v>60.19</v>
       </c>
     </row>
@@ -21473,7 +21474,7 @@
       <c r="S329" s="12">
         <v>44177</v>
       </c>
-      <c r="T329">
+      <c r="T329" s="23">
         <v>60.19</v>
       </c>
     </row>
@@ -21489,7 +21490,7 @@
       <c r="S330" s="12">
         <v>44178</v>
       </c>
-      <c r="T330">
+      <c r="T330" s="23">
         <v>60.19</v>
       </c>
     </row>
@@ -21508,7 +21509,7 @@
       <c r="S331" s="12">
         <v>44179</v>
       </c>
-      <c r="T331">
+      <c r="T331" s="23">
         <v>60.19</v>
       </c>
     </row>
@@ -21524,7 +21525,7 @@
       <c r="S332" s="12">
         <v>44180</v>
       </c>
-      <c r="T332">
+      <c r="T332" s="23">
         <v>60.19</v>
       </c>
     </row>
@@ -21540,7 +21541,7 @@
       <c r="S333" s="12">
         <v>44181</v>
       </c>
-      <c r="T333">
+      <c r="T333" s="23">
         <v>60.19</v>
       </c>
     </row>
@@ -21556,7 +21557,7 @@
       <c r="S334" s="12">
         <v>44182</v>
       </c>
-      <c r="T334">
+      <c r="T334" s="23">
         <v>60.19</v>
       </c>
     </row>
@@ -21572,7 +21573,7 @@
       <c r="S335" s="12">
         <v>44183</v>
       </c>
-      <c r="T335">
+      <c r="T335" s="23">
         <v>60.19</v>
       </c>
     </row>
@@ -21587,7 +21588,7 @@
       <c r="S336" s="12">
         <v>44184</v>
       </c>
-      <c r="T336">
+      <c r="T336" s="23">
         <v>60.19</v>
       </c>
     </row>
@@ -21602,7 +21603,7 @@
       <c r="S337" s="12">
         <v>44185</v>
       </c>
-      <c r="T337">
+      <c r="T337" s="23">
         <v>60.19</v>
       </c>
     </row>
@@ -21620,7 +21621,7 @@
       <c r="S338" s="12">
         <v>44186</v>
       </c>
-      <c r="T338">
+      <c r="T338" s="23">
         <v>60.19</v>
       </c>
     </row>
@@ -21635,7 +21636,7 @@
       <c r="S339" s="12">
         <v>44187</v>
       </c>
-      <c r="T339">
+      <c r="T339" s="23">
         <v>60.19</v>
       </c>
     </row>
@@ -21650,7 +21651,7 @@
       <c r="S340" s="12">
         <v>44188</v>
       </c>
-      <c r="T340">
+      <c r="T340" s="23">
         <v>60.19</v>
       </c>
     </row>
@@ -21665,7 +21666,7 @@
       <c r="S341" s="12">
         <v>44189</v>
       </c>
-      <c r="T341">
+      <c r="T341" s="23">
         <v>60.19</v>
       </c>
     </row>
@@ -21680,7 +21681,7 @@
       <c r="S342" s="12">
         <v>44190</v>
       </c>
-      <c r="T342">
+      <c r="T342" s="23">
         <v>60.19</v>
       </c>
     </row>
@@ -21695,7 +21696,7 @@
       <c r="S343" s="12">
         <v>44191</v>
       </c>
-      <c r="T343">
+      <c r="T343" s="23">
         <v>60.19</v>
       </c>
     </row>
@@ -21710,7 +21711,7 @@
       <c r="S344" s="12">
         <v>44192</v>
       </c>
-      <c r="T344">
+      <c r="T344" s="23">
         <v>60.19</v>
       </c>
     </row>
@@ -21728,7 +21729,7 @@
       <c r="S345" s="12">
         <v>44193</v>
       </c>
-      <c r="T345">
+      <c r="T345" s="23">
         <v>60.19</v>
       </c>
     </row>
@@ -21743,7 +21744,7 @@
       <c r="S346" s="12">
         <v>44194</v>
       </c>
-      <c r="T346">
+      <c r="T346" s="23">
         <v>60.19</v>
       </c>
     </row>
@@ -21758,7 +21759,7 @@
       <c r="S347" s="12">
         <v>44195</v>
       </c>
-      <c r="T347">
+      <c r="T347" s="23">
         <v>60.19</v>
       </c>
     </row>
@@ -21773,7 +21774,7 @@
       <c r="S348" s="12">
         <v>44196</v>
       </c>
-      <c r="T348">
+      <c r="T348" s="23">
         <v>60.19</v>
       </c>
     </row>
@@ -21788,7 +21789,7 @@
       <c r="S349" s="12">
         <v>44197</v>
       </c>
-      <c r="T349">
+      <c r="T349" s="23">
         <v>60.19</v>
       </c>
     </row>
@@ -21803,7 +21804,7 @@
       <c r="S350" s="12">
         <v>44198</v>
       </c>
-      <c r="T350">
+      <c r="T350" s="23">
         <v>60.19</v>
       </c>
     </row>
@@ -21818,7 +21819,7 @@
       <c r="S351" s="12">
         <v>44199</v>
       </c>
-      <c r="T351">
+      <c r="T351" s="23">
         <v>60.19</v>
       </c>
     </row>
@@ -21836,7 +21837,7 @@
       <c r="S352" s="12">
         <v>44200</v>
       </c>
-      <c r="T352">
+      <c r="T352" s="23">
         <v>60.19</v>
       </c>
     </row>
@@ -21851,7 +21852,7 @@
       <c r="S353" s="12">
         <v>44201</v>
       </c>
-      <c r="T353">
+      <c r="T353" s="23">
         <v>60.19</v>
       </c>
     </row>
@@ -21866,7 +21867,7 @@
       <c r="S354" s="12">
         <v>44202</v>
       </c>
-      <c r="T354">
+      <c r="T354" s="23">
         <v>60.19</v>
       </c>
     </row>
@@ -21881,7 +21882,7 @@
       <c r="S355" s="12">
         <v>44203</v>
       </c>
-      <c r="T355">
+      <c r="T355" s="23">
         <v>81.02</v>
       </c>
     </row>
@@ -21896,7 +21897,7 @@
       <c r="S356" s="12">
         <v>44204</v>
       </c>
-      <c r="T356">
+      <c r="T356" s="23">
         <v>81.02</v>
       </c>
     </row>
@@ -21911,7 +21912,7 @@
       <c r="S357" s="12">
         <v>44205</v>
       </c>
-      <c r="T357">
+      <c r="T357" s="23">
         <v>81.02</v>
       </c>
     </row>
@@ -21926,7 +21927,7 @@
       <c r="S358" s="12">
         <v>44206</v>
       </c>
-      <c r="T358">
+      <c r="T358" s="23">
         <v>81.02</v>
       </c>
     </row>
@@ -21944,7 +21945,7 @@
       <c r="S359" s="12">
         <v>44207</v>
       </c>
-      <c r="T359">
+      <c r="T359" s="23">
         <v>81.02</v>
       </c>
     </row>
@@ -21959,7 +21960,7 @@
       <c r="S360" s="12">
         <v>44208</v>
       </c>
-      <c r="T360">
+      <c r="T360" s="23">
         <v>81.02</v>
       </c>
     </row>
@@ -21974,7 +21975,7 @@
       <c r="S361" s="12">
         <v>44209</v>
       </c>
-      <c r="T361">
+      <c r="T361" s="23">
         <v>81.02</v>
       </c>
     </row>
@@ -21989,7 +21990,7 @@
       <c r="S362" s="12">
         <v>44210</v>
       </c>
-      <c r="T362">
+      <c r="T362" s="23">
         <v>81.02</v>
       </c>
     </row>
@@ -22004,7 +22005,7 @@
       <c r="S363" s="12">
         <v>44211</v>
       </c>
-      <c r="T363">
+      <c r="T363" s="23">
         <v>81.02</v>
       </c>
     </row>
@@ -22019,7 +22020,7 @@
       <c r="S364" s="12">
         <v>44212</v>
       </c>
-      <c r="T364">
+      <c r="T364" s="23">
         <v>81.02</v>
       </c>
     </row>
@@ -22034,7 +22035,7 @@
       <c r="S365" s="12">
         <v>44213</v>
       </c>
-      <c r="T365">
+      <c r="T365" s="23">
         <v>81.02</v>
       </c>
     </row>
@@ -22052,7 +22053,7 @@
       <c r="S366" s="12">
         <v>44214</v>
       </c>
-      <c r="T366">
+      <c r="T366" s="23">
         <v>81.02</v>
       </c>
     </row>
@@ -22067,7 +22068,7 @@
       <c r="S367" s="12">
         <v>44215</v>
       </c>
-      <c r="T367">
+      <c r="T367" s="23">
         <v>81.02</v>
       </c>
     </row>
@@ -22082,7 +22083,7 @@
       <c r="S368" s="12">
         <v>44216</v>
       </c>
-      <c r="T368">
+      <c r="T368" s="23">
         <v>81.02</v>
       </c>
     </row>
@@ -22097,7 +22098,7 @@
       <c r="S369" s="12">
         <v>44217</v>
       </c>
-      <c r="T369">
+      <c r="T369" s="23">
         <v>81.02</v>
       </c>
     </row>
@@ -22112,7 +22113,7 @@
       <c r="S370" s="12">
         <v>44218</v>
       </c>
-      <c r="T370">
+      <c r="T370" s="23">
         <v>81.02</v>
       </c>
     </row>
@@ -22127,7 +22128,7 @@
       <c r="S371" s="12">
         <v>44219</v>
       </c>
-      <c r="T371">
+      <c r="T371" s="23">
         <v>81.02</v>
       </c>
     </row>
@@ -22142,7 +22143,7 @@
       <c r="S372" s="12">
         <v>44220</v>
       </c>
-      <c r="T372">
+      <c r="T372" s="23">
         <v>81.02</v>
       </c>
     </row>
@@ -22160,7 +22161,7 @@
       <c r="S373" s="12">
         <v>44221</v>
       </c>
-      <c r="T373">
+      <c r="T373" s="23">
         <v>81.02</v>
       </c>
     </row>
@@ -22175,7 +22176,7 @@
       <c r="S374" s="12">
         <v>44222</v>
       </c>
-      <c r="T374">
+      <c r="T374" s="23">
         <v>81.02</v>
       </c>
     </row>
@@ -22190,7 +22191,7 @@
       <c r="S375" s="12">
         <v>44223</v>
       </c>
-      <c r="T375">
+      <c r="T375" s="23">
         <v>81.02</v>
       </c>
     </row>
@@ -22205,7 +22206,7 @@
       <c r="S376" s="12">
         <v>44224</v>
       </c>
-      <c r="T376">
+      <c r="T376" s="23">
         <v>81.02</v>
       </c>
     </row>
@@ -22220,7 +22221,7 @@
       <c r="S377" s="12">
         <v>44225</v>
       </c>
-      <c r="T377">
+      <c r="T377" s="23">
         <v>81.02</v>
       </c>
     </row>
@@ -22235,7 +22236,7 @@
       <c r="S378" s="12">
         <v>44226</v>
       </c>
-      <c r="T378">
+      <c r="T378" s="23">
         <v>81.02</v>
       </c>
     </row>
@@ -22250,7 +22251,7 @@
       <c r="S379" s="12">
         <v>44227</v>
       </c>
-      <c r="T379">
+      <c r="T379" s="23">
         <v>81.02</v>
       </c>
     </row>
@@ -22268,7 +22269,7 @@
       <c r="S380" s="12">
         <v>44228</v>
       </c>
-      <c r="T380">
+      <c r="T380" s="23">
         <v>81.02</v>
       </c>
     </row>
@@ -22276,14 +22277,14 @@
       <c r="A381" s="7">
         <v>44278</v>
       </c>
-      <c r="B381" s="22">
+      <c r="B381" s="17">
         <v>1375</v>
       </c>
       <c r="C381" s="19"/>
       <c r="S381" s="12">
         <v>44229</v>
       </c>
-      <c r="T381">
+      <c r="T381" s="23">
         <v>81.02</v>
       </c>
     </row>
@@ -22298,7 +22299,7 @@
       <c r="S382" s="12">
         <v>44230</v>
       </c>
-      <c r="T382">
+      <c r="T382" s="23">
         <v>81.02</v>
       </c>
     </row>
@@ -22313,7 +22314,7 @@
       <c r="S383" s="12">
         <v>44231</v>
       </c>
-      <c r="T383">
+      <c r="T383" s="23">
         <v>81.02</v>
       </c>
     </row>
@@ -22328,7 +22329,7 @@
       <c r="S384" s="12">
         <v>44232</v>
       </c>
-      <c r="T384">
+      <c r="T384" s="23">
         <v>81.02</v>
       </c>
     </row>
@@ -22343,7 +22344,7 @@
       <c r="S385" s="12">
         <v>44233</v>
       </c>
-      <c r="T385">
+      <c r="T385" s="23">
         <v>81.02</v>
       </c>
     </row>
@@ -22358,7 +22359,7 @@
       <c r="S386" s="12">
         <v>44234</v>
       </c>
-      <c r="T386">
+      <c r="T386" s="23">
         <v>81.02</v>
       </c>
     </row>
@@ -22376,7 +22377,7 @@
       <c r="S387" s="12">
         <v>44235</v>
       </c>
-      <c r="T387">
+      <c r="T387" s="23">
         <v>81.02</v>
       </c>
     </row>
@@ -22391,7 +22392,7 @@
       <c r="S388" s="12">
         <v>44236</v>
       </c>
-      <c r="T388">
+      <c r="T388" s="23">
         <v>81.02</v>
       </c>
     </row>
@@ -22406,7 +22407,7 @@
       <c r="S389" s="12">
         <v>44237</v>
       </c>
-      <c r="T389">
+      <c r="T389" s="23">
         <v>81.02</v>
       </c>
     </row>
@@ -22421,7 +22422,7 @@
       <c r="S390" s="12">
         <v>44238</v>
       </c>
-      <c r="T390">
+      <c r="T390" s="23">
         <v>81.02</v>
       </c>
     </row>
@@ -22436,7 +22437,7 @@
       <c r="S391" s="12">
         <v>44239</v>
       </c>
-      <c r="T391">
+      <c r="T391" s="23">
         <v>81.02</v>
       </c>
     </row>
@@ -22451,7 +22452,7 @@
       <c r="S392" s="12">
         <v>44240</v>
       </c>
-      <c r="T392">
+      <c r="T392" s="23">
         <v>81.02</v>
       </c>
     </row>
@@ -22466,7 +22467,7 @@
       <c r="S393" s="12">
         <v>44241</v>
       </c>
-      <c r="T393">
+      <c r="T393" s="23">
         <v>81.02</v>
       </c>
     </row>
@@ -22484,7 +22485,7 @@
       <c r="S394" s="12">
         <v>44242</v>
       </c>
-      <c r="T394">
+      <c r="T394" s="23">
         <v>81.02</v>
       </c>
     </row>
@@ -22499,7 +22500,7 @@
       <c r="S395" s="12">
         <v>44243</v>
       </c>
-      <c r="T395">
+      <c r="T395" s="23">
         <v>81.02</v>
       </c>
     </row>
@@ -22514,7 +22515,7 @@
       <c r="S396" s="12">
         <v>44244</v>
       </c>
-      <c r="T396">
+      <c r="T396" s="23">
         <v>81.02</v>
       </c>
     </row>
@@ -22529,7 +22530,7 @@
       <c r="S397" s="12">
         <v>44245</v>
       </c>
-      <c r="T397">
+      <c r="T397" s="23">
         <v>81.02</v>
       </c>
     </row>
@@ -22544,7 +22545,7 @@
       <c r="S398" s="12">
         <v>44246</v>
       </c>
-      <c r="T398">
+      <c r="T398" s="23">
         <v>81.02</v>
       </c>
     </row>
@@ -22559,7 +22560,7 @@
       <c r="S399" s="12">
         <v>44247</v>
       </c>
-      <c r="T399">
+      <c r="T399" s="23">
         <v>81.02</v>
       </c>
     </row>
@@ -22574,7 +22575,7 @@
       <c r="S400" s="12">
         <v>44248</v>
       </c>
-      <c r="T400">
+      <c r="T400" s="23">
         <v>81.02</v>
       </c>
     </row>
@@ -22582,7 +22583,7 @@
       <c r="S401" s="12">
         <v>44249</v>
       </c>
-      <c r="T401">
+      <c r="T401" s="23">
         <v>81.02</v>
       </c>
     </row>
@@ -22590,7 +22591,7 @@
       <c r="S402" s="12">
         <v>44250</v>
       </c>
-      <c r="T402">
+      <c r="T402" s="23">
         <v>81.02</v>
       </c>
     </row>
@@ -22598,7 +22599,7 @@
       <c r="S403" s="12">
         <v>44251</v>
       </c>
-      <c r="T403">
+      <c r="T403" s="23">
         <v>81.02</v>
       </c>
     </row>
@@ -22606,7 +22607,7 @@
       <c r="S404" s="12">
         <v>44252</v>
       </c>
-      <c r="T404">
+      <c r="T404" s="23">
         <v>81.02</v>
       </c>
     </row>
@@ -22614,7 +22615,7 @@
       <c r="S405" s="12">
         <v>44253</v>
       </c>
-      <c r="T405">
+      <c r="T405" s="23">
         <v>81.02</v>
       </c>
     </row>
@@ -22622,7 +22623,7 @@
       <c r="S406" s="12">
         <v>44254</v>
       </c>
-      <c r="T406">
+      <c r="T406" s="23">
         <v>81.02</v>
       </c>
     </row>
@@ -22630,7 +22631,7 @@
       <c r="S407" s="12">
         <v>44255</v>
       </c>
-      <c r="T407">
+      <c r="T407" s="23">
         <v>81.02</v>
       </c>
     </row>
@@ -22638,7 +22639,7 @@
       <c r="S408" s="12">
         <v>44256</v>
       </c>
-      <c r="T408">
+      <c r="T408" s="23">
         <v>81.02</v>
       </c>
     </row>
@@ -22646,7 +22647,7 @@
       <c r="S409" s="12">
         <v>44257</v>
       </c>
-      <c r="T409">
+      <c r="T409" s="23">
         <v>81.02</v>
       </c>
     </row>
@@ -22654,7 +22655,7 @@
       <c r="S410" s="12">
         <v>44258</v>
       </c>
-      <c r="T410">
+      <c r="T410" s="23">
         <v>81.02</v>
       </c>
     </row>
@@ -22662,7 +22663,7 @@
       <c r="S411" s="12">
         <v>44259</v>
       </c>
-      <c r="T411">
+      <c r="T411" s="23">
         <v>81.02</v>
       </c>
     </row>
@@ -22670,7 +22671,7 @@
       <c r="S412" s="12">
         <v>44260</v>
       </c>
-      <c r="T412">
+      <c r="T412" s="23">
         <v>81.02</v>
       </c>
     </row>
@@ -22678,7 +22679,7 @@
       <c r="S413" s="12">
         <v>44261</v>
       </c>
-      <c r="T413">
+      <c r="T413" s="23">
         <v>81.02</v>
       </c>
     </row>
@@ -22686,7 +22687,7 @@
       <c r="S414" s="12">
         <v>44262</v>
       </c>
-      <c r="T414">
+      <c r="T414" s="23">
         <v>81.02</v>
       </c>
     </row>
@@ -22694,7 +22695,7 @@
       <c r="S415" s="12">
         <v>44263</v>
       </c>
-      <c r="T415">
+      <c r="T415" s="23">
         <v>81.02</v>
       </c>
     </row>
@@ -22702,7 +22703,7 @@
       <c r="S416" s="12">
         <v>44264</v>
       </c>
-      <c r="T416">
+      <c r="T416" s="23">
         <v>81.02</v>
       </c>
     </row>
@@ -22710,7 +22711,7 @@
       <c r="S417" s="12">
         <v>44265</v>
       </c>
-      <c r="T417">
+      <c r="T417" s="23">
         <v>81.02</v>
       </c>
     </row>
@@ -22718,7 +22719,7 @@
       <c r="S418" s="12">
         <v>44266</v>
       </c>
-      <c r="T418">
+      <c r="T418" s="23">
         <v>81.02</v>
       </c>
     </row>
@@ -22726,7 +22727,7 @@
       <c r="S419" s="12">
         <v>44267</v>
       </c>
-      <c r="T419">
+      <c r="T419" s="23">
         <v>81.02</v>
       </c>
     </row>
@@ -22734,7 +22735,7 @@
       <c r="S420" s="12">
         <v>44268</v>
       </c>
-      <c r="T420">
+      <c r="T420" s="23">
         <v>81.02</v>
       </c>
     </row>
@@ -22742,7 +22743,7 @@
       <c r="S421" s="12">
         <v>44269</v>
       </c>
-      <c r="T421">
+      <c r="T421" s="23">
         <v>81.02</v>
       </c>
     </row>
@@ -22750,7 +22751,7 @@
       <c r="S422" s="12">
         <v>44270</v>
       </c>
-      <c r="T422">
+      <c r="T422" s="23">
         <v>81.02</v>
       </c>
     </row>
@@ -22758,7 +22759,7 @@
       <c r="S423" s="12">
         <v>44271</v>
       </c>
-      <c r="T423">
+      <c r="T423" s="23">
         <v>81.02</v>
       </c>
     </row>
@@ -22766,7 +22767,7 @@
       <c r="S424" s="12">
         <v>44272</v>
       </c>
-      <c r="T424">
+      <c r="T424" s="23">
         <v>81.02</v>
       </c>
     </row>
@@ -22774,7 +22775,7 @@
       <c r="S425" s="12">
         <v>44273</v>
       </c>
-      <c r="T425">
+      <c r="T425" s="23">
         <v>81.02</v>
       </c>
     </row>
@@ -22782,7 +22783,7 @@
       <c r="S426" s="12">
         <v>44274</v>
       </c>
-      <c r="T426">
+      <c r="T426" s="23">
         <v>81.02</v>
       </c>
     </row>
@@ -22790,7 +22791,7 @@
       <c r="S427" s="12">
         <v>44275</v>
       </c>
-      <c r="T427">
+      <c r="T427" s="23">
         <v>82.87</v>
       </c>
     </row>
@@ -22798,7 +22799,7 @@
       <c r="S428" s="12">
         <v>44276</v>
       </c>
-      <c r="T428">
+      <c r="T428" s="23">
         <v>82.87</v>
       </c>
     </row>
@@ -22806,7 +22807,7 @@
       <c r="S429" s="12">
         <v>44277</v>
       </c>
-      <c r="T429">
+      <c r="T429" s="23">
         <v>82.87</v>
       </c>
     </row>
@@ -22814,7 +22815,7 @@
       <c r="S430" s="12">
         <v>44278</v>
       </c>
-      <c r="T430">
+      <c r="T430" s="23">
         <v>82.87</v>
       </c>
     </row>
@@ -22822,7 +22823,7 @@
       <c r="S431" s="12">
         <v>44279</v>
       </c>
-      <c r="T431">
+      <c r="T431" s="23">
         <v>82.87</v>
       </c>
     </row>
@@ -22830,7 +22831,7 @@
       <c r="S432" s="12">
         <v>44280</v>
       </c>
-      <c r="T432">
+      <c r="T432" s="23">
         <v>82.87</v>
       </c>
     </row>
@@ -22838,7 +22839,7 @@
       <c r="S433" s="12">
         <v>44281</v>
       </c>
-      <c r="T433">
+      <c r="T433" s="23">
         <v>82.87</v>
       </c>
     </row>
@@ -22846,7 +22847,7 @@
       <c r="S434" s="12">
         <v>44282</v>
       </c>
-      <c r="T434">
+      <c r="T434" s="23">
         <v>82.87</v>
       </c>
     </row>
@@ -22854,7 +22855,7 @@
       <c r="S435" s="12">
         <v>44283</v>
       </c>
-      <c r="T435">
+      <c r="T435" s="23">
         <v>82.87</v>
       </c>
     </row>
@@ -22862,7 +22863,7 @@
       <c r="S436" s="12">
         <v>44284</v>
       </c>
-      <c r="T436">
+      <c r="T436" s="23">
         <v>82.87</v>
       </c>
     </row>
@@ -22870,7 +22871,7 @@
       <c r="S437" s="12">
         <v>44285</v>
       </c>
-      <c r="T437">
+      <c r="T437" s="23">
         <v>82.87</v>
       </c>
     </row>
@@ -22878,7 +22879,7 @@
       <c r="S438" s="12">
         <v>44286</v>
       </c>
-      <c r="T438">
+      <c r="T438" s="23">
         <v>82.87</v>
       </c>
     </row>
@@ -22886,7 +22887,7 @@
       <c r="S439" s="12">
         <v>44287</v>
       </c>
-      <c r="T439">
+      <c r="T439" s="23">
         <v>82.87</v>
       </c>
     </row>
@@ -22894,7 +22895,7 @@
       <c r="S440" s="12">
         <v>44288</v>
       </c>
-      <c r="T440">
+      <c r="T440" s="23">
         <v>82.87</v>
       </c>
     </row>
@@ -22902,7 +22903,7 @@
       <c r="S441" s="12">
         <v>44289</v>
       </c>
-      <c r="T441">
+      <c r="T441" s="23">
         <v>82.87</v>
       </c>
     </row>
@@ -22910,7 +22911,7 @@
       <c r="S442" s="12">
         <v>44290</v>
       </c>
-      <c r="T442">
+      <c r="T442" s="23">
         <v>82.87</v>
       </c>
     </row>
@@ -22921,21 +22922,34 @@
     </sortState>
   </autoFilter>
   <mergeCells count="59">
-    <mergeCell ref="C387:C393"/>
-    <mergeCell ref="C394:C400"/>
-    <mergeCell ref="C338:C344"/>
-    <mergeCell ref="C289:C295"/>
-    <mergeCell ref="C296:C302"/>
-    <mergeCell ref="C303:C309"/>
-    <mergeCell ref="C310:C316"/>
-    <mergeCell ref="C317:C323"/>
-    <mergeCell ref="C324:C330"/>
-    <mergeCell ref="C380:C386"/>
-    <mergeCell ref="C345:C351"/>
-    <mergeCell ref="C352:C358"/>
-    <mergeCell ref="C359:C365"/>
-    <mergeCell ref="C366:C372"/>
-    <mergeCell ref="C373:C379"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="C9:C15"/>
+    <mergeCell ref="C16:C22"/>
+    <mergeCell ref="C23:C29"/>
+    <mergeCell ref="C30:C36"/>
+    <mergeCell ref="C254:C260"/>
+    <mergeCell ref="C114:C120"/>
+    <mergeCell ref="C37:C43"/>
+    <mergeCell ref="C44:C50"/>
+    <mergeCell ref="C51:C57"/>
+    <mergeCell ref="C58:C64"/>
+    <mergeCell ref="C65:C71"/>
+    <mergeCell ref="C72:C78"/>
+    <mergeCell ref="C79:C85"/>
+    <mergeCell ref="C86:C92"/>
+    <mergeCell ref="C93:C99"/>
+    <mergeCell ref="C100:C106"/>
+    <mergeCell ref="C107:C113"/>
+    <mergeCell ref="C177:C183"/>
+    <mergeCell ref="C184:C190"/>
+    <mergeCell ref="C191:C197"/>
+    <mergeCell ref="C240:C246"/>
+    <mergeCell ref="C247:C253"/>
+    <mergeCell ref="C142:C148"/>
+    <mergeCell ref="C149:C155"/>
+    <mergeCell ref="C156:C162"/>
+    <mergeCell ref="C163:C169"/>
+    <mergeCell ref="C170:C176"/>
     <mergeCell ref="C261:C267"/>
     <mergeCell ref="C268:C274"/>
     <mergeCell ref="S1:T1"/>
@@ -22952,34 +22966,21 @@
     <mergeCell ref="C121:C127"/>
     <mergeCell ref="C128:C134"/>
     <mergeCell ref="C135:C141"/>
-    <mergeCell ref="C240:C246"/>
-    <mergeCell ref="C247:C253"/>
-    <mergeCell ref="C142:C148"/>
-    <mergeCell ref="C149:C155"/>
-    <mergeCell ref="C156:C162"/>
-    <mergeCell ref="C163:C169"/>
-    <mergeCell ref="C170:C176"/>
-    <mergeCell ref="C254:C260"/>
-    <mergeCell ref="C114:C120"/>
-    <mergeCell ref="C37:C43"/>
-    <mergeCell ref="C44:C50"/>
-    <mergeCell ref="C51:C57"/>
-    <mergeCell ref="C58:C64"/>
-    <mergeCell ref="C65:C71"/>
-    <mergeCell ref="C72:C78"/>
-    <mergeCell ref="C79:C85"/>
-    <mergeCell ref="C86:C92"/>
-    <mergeCell ref="C93:C99"/>
-    <mergeCell ref="C100:C106"/>
-    <mergeCell ref="C107:C113"/>
-    <mergeCell ref="C177:C183"/>
-    <mergeCell ref="C184:C190"/>
-    <mergeCell ref="C191:C197"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="C9:C15"/>
-    <mergeCell ref="C16:C22"/>
-    <mergeCell ref="C23:C29"/>
-    <mergeCell ref="C30:C36"/>
+    <mergeCell ref="C387:C393"/>
+    <mergeCell ref="C394:C400"/>
+    <mergeCell ref="C338:C344"/>
+    <mergeCell ref="C289:C295"/>
+    <mergeCell ref="C296:C302"/>
+    <mergeCell ref="C303:C309"/>
+    <mergeCell ref="C310:C316"/>
+    <mergeCell ref="C317:C323"/>
+    <mergeCell ref="C324:C330"/>
+    <mergeCell ref="C380:C386"/>
+    <mergeCell ref="C345:C351"/>
+    <mergeCell ref="C352:C358"/>
+    <mergeCell ref="C359:C365"/>
+    <mergeCell ref="C366:C372"/>
+    <mergeCell ref="C373:C379"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -30196,6 +30197,48 @@
     </row>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="C382:C388"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C354:C360"/>
+    <mergeCell ref="C361:C367"/>
+    <mergeCell ref="C368:C374"/>
+    <mergeCell ref="C375:C381"/>
+    <mergeCell ref="C4:C10"/>
+    <mergeCell ref="C11:C17"/>
+    <mergeCell ref="C18:C24"/>
+    <mergeCell ref="C25:C31"/>
+    <mergeCell ref="C32:C38"/>
+    <mergeCell ref="C39:C45"/>
+    <mergeCell ref="C46:C52"/>
+    <mergeCell ref="C53:C59"/>
+    <mergeCell ref="C60:C66"/>
+    <mergeCell ref="C67:C73"/>
+    <mergeCell ref="C74:C80"/>
+    <mergeCell ref="C81:C87"/>
+    <mergeCell ref="C88:C94"/>
+    <mergeCell ref="C95:C101"/>
+    <mergeCell ref="C102:C108"/>
+    <mergeCell ref="C179:C185"/>
+    <mergeCell ref="C109:C115"/>
+    <mergeCell ref="C116:C122"/>
+    <mergeCell ref="C123:C129"/>
+    <mergeCell ref="C130:C136"/>
+    <mergeCell ref="C137:C143"/>
+    <mergeCell ref="C144:C150"/>
+    <mergeCell ref="C151:C157"/>
+    <mergeCell ref="C158:C164"/>
+    <mergeCell ref="C165:C171"/>
+    <mergeCell ref="C172:C178"/>
+    <mergeCell ref="C333:C339"/>
+    <mergeCell ref="C186:C192"/>
+    <mergeCell ref="C193:C199"/>
+    <mergeCell ref="C200:C206"/>
+    <mergeCell ref="C207:C213"/>
+    <mergeCell ref="C298:C304"/>
+    <mergeCell ref="C305:C311"/>
+    <mergeCell ref="C312:C318"/>
+    <mergeCell ref="C319:C325"/>
+    <mergeCell ref="C326:C332"/>
     <mergeCell ref="C389:C395"/>
     <mergeCell ref="C396:C402"/>
     <mergeCell ref="C214:C220"/>
@@ -30212,48 +30255,6 @@
     <mergeCell ref="C270:C276"/>
     <mergeCell ref="C277:C283"/>
     <mergeCell ref="C347:C353"/>
-    <mergeCell ref="C333:C339"/>
-    <mergeCell ref="C186:C192"/>
-    <mergeCell ref="C193:C199"/>
-    <mergeCell ref="C200:C206"/>
-    <mergeCell ref="C207:C213"/>
-    <mergeCell ref="C298:C304"/>
-    <mergeCell ref="C305:C311"/>
-    <mergeCell ref="C312:C318"/>
-    <mergeCell ref="C319:C325"/>
-    <mergeCell ref="C326:C332"/>
-    <mergeCell ref="C179:C185"/>
-    <mergeCell ref="C109:C115"/>
-    <mergeCell ref="C116:C122"/>
-    <mergeCell ref="C123:C129"/>
-    <mergeCell ref="C130:C136"/>
-    <mergeCell ref="C137:C143"/>
-    <mergeCell ref="C144:C150"/>
-    <mergeCell ref="C151:C157"/>
-    <mergeCell ref="C158:C164"/>
-    <mergeCell ref="C165:C171"/>
-    <mergeCell ref="C172:C178"/>
-    <mergeCell ref="C74:C80"/>
-    <mergeCell ref="C81:C87"/>
-    <mergeCell ref="C88:C94"/>
-    <mergeCell ref="C95:C101"/>
-    <mergeCell ref="C102:C108"/>
-    <mergeCell ref="C382:C388"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C354:C360"/>
-    <mergeCell ref="C361:C367"/>
-    <mergeCell ref="C368:C374"/>
-    <mergeCell ref="C375:C381"/>
-    <mergeCell ref="C4:C10"/>
-    <mergeCell ref="C11:C17"/>
-    <mergeCell ref="C18:C24"/>
-    <mergeCell ref="C25:C31"/>
-    <mergeCell ref="C32:C38"/>
-    <mergeCell ref="C39:C45"/>
-    <mergeCell ref="C46:C52"/>
-    <mergeCell ref="C53:C59"/>
-    <mergeCell ref="C60:C66"/>
-    <mergeCell ref="C67:C73"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -37320,6 +37321,50 @@
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="C357:C363"/>
+    <mergeCell ref="C364:C370"/>
+    <mergeCell ref="C371:C377"/>
+    <mergeCell ref="C378:C384"/>
+    <mergeCell ref="C385:C391"/>
+    <mergeCell ref="C35:C41"/>
+    <mergeCell ref="C7:C13"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="C14:C20"/>
+    <mergeCell ref="C21:C27"/>
+    <mergeCell ref="C28:C34"/>
+    <mergeCell ref="C119:C125"/>
+    <mergeCell ref="C42:C48"/>
+    <mergeCell ref="C49:C55"/>
+    <mergeCell ref="C56:C62"/>
+    <mergeCell ref="C63:C69"/>
+    <mergeCell ref="C70:C76"/>
+    <mergeCell ref="C77:C83"/>
+    <mergeCell ref="C84:C90"/>
+    <mergeCell ref="C91:C97"/>
+    <mergeCell ref="C98:C104"/>
+    <mergeCell ref="C105:C111"/>
+    <mergeCell ref="C112:C118"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="C273:C279"/>
+    <mergeCell ref="C280:C286"/>
+    <mergeCell ref="C203:C209"/>
+    <mergeCell ref="C126:C132"/>
+    <mergeCell ref="C133:C139"/>
+    <mergeCell ref="C140:C146"/>
+    <mergeCell ref="C147:C153"/>
+    <mergeCell ref="C154:C160"/>
+    <mergeCell ref="C161:C167"/>
+    <mergeCell ref="C168:C174"/>
+    <mergeCell ref="C175:C181"/>
+    <mergeCell ref="C182:C188"/>
+    <mergeCell ref="C189:C195"/>
+    <mergeCell ref="C196:C202"/>
+    <mergeCell ref="C301:C307"/>
+    <mergeCell ref="C308:C314"/>
+    <mergeCell ref="C315:C321"/>
+    <mergeCell ref="C322:C328"/>
+    <mergeCell ref="C329:C335"/>
     <mergeCell ref="C392:C398"/>
     <mergeCell ref="C399:C405"/>
     <mergeCell ref="C287:C293"/>
@@ -37336,50 +37381,6 @@
     <mergeCell ref="C343:C349"/>
     <mergeCell ref="C350:C356"/>
     <mergeCell ref="C294:C300"/>
-    <mergeCell ref="C301:C307"/>
-    <mergeCell ref="C308:C314"/>
-    <mergeCell ref="C315:C321"/>
-    <mergeCell ref="C322:C328"/>
-    <mergeCell ref="C329:C335"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="C273:C279"/>
-    <mergeCell ref="C280:C286"/>
-    <mergeCell ref="C203:C209"/>
-    <mergeCell ref="C126:C132"/>
-    <mergeCell ref="C133:C139"/>
-    <mergeCell ref="C140:C146"/>
-    <mergeCell ref="C147:C153"/>
-    <mergeCell ref="C154:C160"/>
-    <mergeCell ref="C161:C167"/>
-    <mergeCell ref="C168:C174"/>
-    <mergeCell ref="C175:C181"/>
-    <mergeCell ref="C182:C188"/>
-    <mergeCell ref="C189:C195"/>
-    <mergeCell ref="C196:C202"/>
-    <mergeCell ref="C119:C125"/>
-    <mergeCell ref="C42:C48"/>
-    <mergeCell ref="C49:C55"/>
-    <mergeCell ref="C56:C62"/>
-    <mergeCell ref="C63:C69"/>
-    <mergeCell ref="C70:C76"/>
-    <mergeCell ref="C77:C83"/>
-    <mergeCell ref="C84:C90"/>
-    <mergeCell ref="C91:C97"/>
-    <mergeCell ref="C98:C104"/>
-    <mergeCell ref="C105:C111"/>
-    <mergeCell ref="C112:C118"/>
-    <mergeCell ref="C35:C41"/>
-    <mergeCell ref="C7:C13"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="C14:C20"/>
-    <mergeCell ref="C21:C27"/>
-    <mergeCell ref="C28:C34"/>
-    <mergeCell ref="C357:C363"/>
-    <mergeCell ref="C364:C370"/>
-    <mergeCell ref="C371:C377"/>
-    <mergeCell ref="C378:C384"/>
-    <mergeCell ref="C385:C391"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="date" showInputMessage="1" showErrorMessage="1" sqref="A2:A405" xr:uid="{BAF66607-B879-4D63-85F5-A749520E0F4A}">

--- a/Bogota_daily_cases.xlsx
+++ b/Bogota_daily_cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FAMILIA\Documents\GitHub\covid-transport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D7565BA-7FEC-4FC2-823B-04F03DE66E20}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9310ACAB-3627-47EC-90B0-042CC0803F3C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="780" windowWidth="27720" windowHeight="14820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bogota_cases" sheetId="1" r:id="rId1"/>
@@ -1038,13 +1038,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8437,7 +8437,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6B520779-17FF-405A-A490-91772C212324}" type="CELLRANGE">
+                    <a:fld id="{C6B0B40B-C0E5-4BAD-A552-45B04758D80B}" type="CELLRANGE">
                       <a:rPr lang="es-CO"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8651,7 +8651,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FFAF71B3-FA46-44D9-994C-9F29C089B835}" type="CELLRANGE">
+                    <a:fld id="{6055E094-0E64-44B3-9A0F-5C9295F25BBE}" type="CELLRANGE">
                       <a:rPr lang="es-CO"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8685,7 +8685,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3E21CC30-991E-46D1-B293-6025AB360354}" type="CELLRANGE">
+                    <a:fld id="{E12DB2C2-F165-4682-A1F3-10EA56A2C45F}" type="CELLRANGE">
                       <a:rPr lang="es-CO"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8839,7 +8839,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1BAB7C2E-7D89-4FA5-9E75-3B5A60BFF017}" type="CELLRANGE">
+                    <a:fld id="{98ADD761-A7FA-4A1F-8914-BAB448CE81DE}" type="CELLRANGE">
                       <a:rPr lang="es-CO"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18091,34 +18091,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
-      <c r="X1" s="53" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="X1" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="Y1" s="53"/>
+      <c r="Y1" s="55"/>
       <c r="Z1" t="s">
         <v>45</v>
       </c>
@@ -35778,6 +35778,104 @@
     </sortState>
   </autoFilter>
   <mergeCells count="122">
+    <mergeCell ref="C387:C393"/>
+    <mergeCell ref="C394:C400"/>
+    <mergeCell ref="C338:C344"/>
+    <mergeCell ref="C289:C295"/>
+    <mergeCell ref="C296:C302"/>
+    <mergeCell ref="C303:C309"/>
+    <mergeCell ref="C310:C316"/>
+    <mergeCell ref="C317:C323"/>
+    <mergeCell ref="C324:C330"/>
+    <mergeCell ref="C380:C386"/>
+    <mergeCell ref="C345:C351"/>
+    <mergeCell ref="C352:C358"/>
+    <mergeCell ref="C359:C365"/>
+    <mergeCell ref="C366:C372"/>
+    <mergeCell ref="C373:C379"/>
+    <mergeCell ref="C261:C267"/>
+    <mergeCell ref="C268:C274"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="C331:C337"/>
+    <mergeCell ref="C282:C288"/>
+    <mergeCell ref="C205:C211"/>
+    <mergeCell ref="C212:C218"/>
+    <mergeCell ref="C219:C225"/>
+    <mergeCell ref="C226:C232"/>
+    <mergeCell ref="C233:C239"/>
+    <mergeCell ref="C275:C281"/>
+    <mergeCell ref="C198:C204"/>
+    <mergeCell ref="C121:C127"/>
+    <mergeCell ref="C128:C134"/>
+    <mergeCell ref="C135:C141"/>
+    <mergeCell ref="C107:C113"/>
+    <mergeCell ref="C177:C183"/>
+    <mergeCell ref="C184:C190"/>
+    <mergeCell ref="C191:C197"/>
+    <mergeCell ref="C240:C246"/>
+    <mergeCell ref="C247:C253"/>
+    <mergeCell ref="C142:C148"/>
+    <mergeCell ref="C149:C155"/>
+    <mergeCell ref="C156:C162"/>
+    <mergeCell ref="C23:C29"/>
+    <mergeCell ref="C30:C36"/>
+    <mergeCell ref="C254:C260"/>
+    <mergeCell ref="C114:C120"/>
+    <mergeCell ref="C37:C43"/>
+    <mergeCell ref="C163:C169"/>
+    <mergeCell ref="C170:C176"/>
+    <mergeCell ref="C44:C50"/>
+    <mergeCell ref="C51:C57"/>
+    <mergeCell ref="C58:C64"/>
+    <mergeCell ref="C65:C71"/>
+    <mergeCell ref="C72:C78"/>
+    <mergeCell ref="C79:C85"/>
+    <mergeCell ref="C86:C92"/>
+    <mergeCell ref="C93:C99"/>
+    <mergeCell ref="C100:C106"/>
+    <mergeCell ref="E100:E106"/>
+    <mergeCell ref="E107:E113"/>
+    <mergeCell ref="E114:E120"/>
+    <mergeCell ref="E121:E127"/>
+    <mergeCell ref="E128:E134"/>
+    <mergeCell ref="C401:C407"/>
+    <mergeCell ref="C408:C414"/>
+    <mergeCell ref="E4:E8"/>
+    <mergeCell ref="E9:E15"/>
+    <mergeCell ref="E16:E22"/>
+    <mergeCell ref="E23:E29"/>
+    <mergeCell ref="E30:E36"/>
+    <mergeCell ref="E37:E43"/>
+    <mergeCell ref="E44:E50"/>
+    <mergeCell ref="E51:E57"/>
+    <mergeCell ref="E58:E64"/>
+    <mergeCell ref="E65:E71"/>
+    <mergeCell ref="E72:E78"/>
+    <mergeCell ref="E79:E85"/>
+    <mergeCell ref="E86:E92"/>
+    <mergeCell ref="E93:E99"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="C9:C15"/>
+    <mergeCell ref="C16:C22"/>
+    <mergeCell ref="E170:E176"/>
+    <mergeCell ref="E177:E183"/>
+    <mergeCell ref="E184:E190"/>
+    <mergeCell ref="E191:E197"/>
+    <mergeCell ref="E198:E204"/>
+    <mergeCell ref="E135:E141"/>
+    <mergeCell ref="E142:E148"/>
+    <mergeCell ref="E149:E155"/>
+    <mergeCell ref="E156:E162"/>
+    <mergeCell ref="E163:E169"/>
+    <mergeCell ref="E247:E253"/>
+    <mergeCell ref="E254:E260"/>
+    <mergeCell ref="E261:E267"/>
+    <mergeCell ref="E268:E274"/>
+    <mergeCell ref="E205:E211"/>
+    <mergeCell ref="E212:E218"/>
+    <mergeCell ref="E219:E225"/>
+    <mergeCell ref="E226:E232"/>
+    <mergeCell ref="E233:E239"/>
     <mergeCell ref="C415:C421"/>
     <mergeCell ref="E415:E421"/>
     <mergeCell ref="A1:V1"/>
@@ -35802,104 +35900,6 @@
     <mergeCell ref="E296:E302"/>
     <mergeCell ref="E303:E309"/>
     <mergeCell ref="E240:E246"/>
-    <mergeCell ref="E247:E253"/>
-    <mergeCell ref="E254:E260"/>
-    <mergeCell ref="E261:E267"/>
-    <mergeCell ref="E268:E274"/>
-    <mergeCell ref="E205:E211"/>
-    <mergeCell ref="E212:E218"/>
-    <mergeCell ref="E219:E225"/>
-    <mergeCell ref="E226:E232"/>
-    <mergeCell ref="E233:E239"/>
-    <mergeCell ref="E170:E176"/>
-    <mergeCell ref="E177:E183"/>
-    <mergeCell ref="E184:E190"/>
-    <mergeCell ref="E191:E197"/>
-    <mergeCell ref="E198:E204"/>
-    <mergeCell ref="E135:E141"/>
-    <mergeCell ref="E142:E148"/>
-    <mergeCell ref="E149:E155"/>
-    <mergeCell ref="E156:E162"/>
-    <mergeCell ref="E163:E169"/>
-    <mergeCell ref="E100:E106"/>
-    <mergeCell ref="E107:E113"/>
-    <mergeCell ref="E114:E120"/>
-    <mergeCell ref="E121:E127"/>
-    <mergeCell ref="E128:E134"/>
-    <mergeCell ref="C401:C407"/>
-    <mergeCell ref="C408:C414"/>
-    <mergeCell ref="E4:E8"/>
-    <mergeCell ref="E9:E15"/>
-    <mergeCell ref="E16:E22"/>
-    <mergeCell ref="E23:E29"/>
-    <mergeCell ref="E30:E36"/>
-    <mergeCell ref="E37:E43"/>
-    <mergeCell ref="E44:E50"/>
-    <mergeCell ref="E51:E57"/>
-    <mergeCell ref="E58:E64"/>
-    <mergeCell ref="E65:E71"/>
-    <mergeCell ref="E72:E78"/>
-    <mergeCell ref="E79:E85"/>
-    <mergeCell ref="E86:E92"/>
-    <mergeCell ref="E93:E99"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="C9:C15"/>
-    <mergeCell ref="C16:C22"/>
-    <mergeCell ref="C23:C29"/>
-    <mergeCell ref="C30:C36"/>
-    <mergeCell ref="C254:C260"/>
-    <mergeCell ref="C114:C120"/>
-    <mergeCell ref="C37:C43"/>
-    <mergeCell ref="C163:C169"/>
-    <mergeCell ref="C170:C176"/>
-    <mergeCell ref="C44:C50"/>
-    <mergeCell ref="C51:C57"/>
-    <mergeCell ref="C58:C64"/>
-    <mergeCell ref="C65:C71"/>
-    <mergeCell ref="C72:C78"/>
-    <mergeCell ref="C79:C85"/>
-    <mergeCell ref="C86:C92"/>
-    <mergeCell ref="C93:C99"/>
-    <mergeCell ref="C100:C106"/>
-    <mergeCell ref="C261:C267"/>
-    <mergeCell ref="C268:C274"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="C331:C337"/>
-    <mergeCell ref="C282:C288"/>
-    <mergeCell ref="C205:C211"/>
-    <mergeCell ref="C212:C218"/>
-    <mergeCell ref="C219:C225"/>
-    <mergeCell ref="C226:C232"/>
-    <mergeCell ref="C233:C239"/>
-    <mergeCell ref="C275:C281"/>
-    <mergeCell ref="C198:C204"/>
-    <mergeCell ref="C121:C127"/>
-    <mergeCell ref="C128:C134"/>
-    <mergeCell ref="C135:C141"/>
-    <mergeCell ref="C107:C113"/>
-    <mergeCell ref="C177:C183"/>
-    <mergeCell ref="C184:C190"/>
-    <mergeCell ref="C191:C197"/>
-    <mergeCell ref="C240:C246"/>
-    <mergeCell ref="C247:C253"/>
-    <mergeCell ref="C142:C148"/>
-    <mergeCell ref="C149:C155"/>
-    <mergeCell ref="C156:C162"/>
-    <mergeCell ref="C387:C393"/>
-    <mergeCell ref="C394:C400"/>
-    <mergeCell ref="C338:C344"/>
-    <mergeCell ref="C289:C295"/>
-    <mergeCell ref="C296:C302"/>
-    <mergeCell ref="C303:C309"/>
-    <mergeCell ref="C310:C316"/>
-    <mergeCell ref="C317:C323"/>
-    <mergeCell ref="C324:C330"/>
-    <mergeCell ref="C380:C386"/>
-    <mergeCell ref="C345:C351"/>
-    <mergeCell ref="C352:C358"/>
-    <mergeCell ref="C359:C365"/>
-    <mergeCell ref="C366:C372"/>
-    <mergeCell ref="C373:C379"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -35912,8 +35912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3468E9D4-E3F0-4D94-A35A-E72E353C50D3}">
   <dimension ref="A1:AB472"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="U19" sqref="U19"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35943,35 +35943,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="53"/>
-      <c r="V1" s="53"/>
-      <c r="X1" s="53" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="X1" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="Y1" s="53"/>
-      <c r="Z1" s="53"/>
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="55"/>
       <c r="AA1" s="20"/>
       <c r="AB1" t="s">
         <v>47</v>
@@ -36062,14 +36062,14 @@
       <c r="B3" s="43">
         <v>3</v>
       </c>
-      <c r="C3" s="53">
+      <c r="C3" s="55">
         <f>ROUNDUP(AVERAGE(B3:B6),0)</f>
         <v>4</v>
       </c>
       <c r="D3" s="41">
         <v>0</v>
       </c>
-      <c r="E3" s="55">
+      <c r="E3" s="53">
         <f>ROUNDUP(AVERAGE(D3:D6),0)</f>
         <v>1</v>
       </c>
@@ -36143,11 +36143,11 @@
       <c r="B4" s="43">
         <v>3</v>
       </c>
-      <c r="C4" s="53"/>
+      <c r="C4" s="55"/>
       <c r="D4" s="42">
         <v>0</v>
       </c>
-      <c r="E4" s="55"/>
+      <c r="E4" s="53"/>
       <c r="F4" s="42">
         <f t="shared" ref="F4:F23" si="2">E4</f>
         <v>0</v>
@@ -36223,11 +36223,11 @@
       <c r="B5" s="43">
         <v>3</v>
       </c>
-      <c r="C5" s="53"/>
+      <c r="C5" s="55"/>
       <c r="D5" s="42">
         <v>0</v>
       </c>
-      <c r="E5" s="55"/>
+      <c r="E5" s="53"/>
       <c r="F5" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -36300,11 +36300,11 @@
       <c r="B6" s="43">
         <v>6</v>
       </c>
-      <c r="C6" s="53"/>
+      <c r="C6" s="55"/>
       <c r="D6" s="42">
         <v>1</v>
       </c>
-      <c r="E6" s="55"/>
+      <c r="E6" s="53"/>
       <c r="F6" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -53750,84 +53750,30 @@
     </row>
   </sheetData>
   <mergeCells count="126">
-    <mergeCell ref="C413:C419"/>
-    <mergeCell ref="C420:C426"/>
-    <mergeCell ref="C427:C433"/>
-    <mergeCell ref="E406:E412"/>
-    <mergeCell ref="E413:E419"/>
-    <mergeCell ref="E420:E426"/>
-    <mergeCell ref="E427:E433"/>
-    <mergeCell ref="E385:E391"/>
-    <mergeCell ref="E392:E398"/>
-    <mergeCell ref="E399:E405"/>
-    <mergeCell ref="C385:C391"/>
-    <mergeCell ref="E364:E370"/>
-    <mergeCell ref="E371:E377"/>
-    <mergeCell ref="E378:E384"/>
-    <mergeCell ref="E315:E321"/>
-    <mergeCell ref="E322:E328"/>
-    <mergeCell ref="E329:E335"/>
-    <mergeCell ref="E336:E342"/>
-    <mergeCell ref="E343:E349"/>
-    <mergeCell ref="C406:C412"/>
-    <mergeCell ref="E301:E307"/>
-    <mergeCell ref="E308:E314"/>
-    <mergeCell ref="E245:E251"/>
-    <mergeCell ref="E252:E258"/>
-    <mergeCell ref="E259:E265"/>
-    <mergeCell ref="E266:E272"/>
-    <mergeCell ref="E273:E279"/>
-    <mergeCell ref="E350:E356"/>
-    <mergeCell ref="E357:E363"/>
-    <mergeCell ref="E238:E244"/>
-    <mergeCell ref="E175:E181"/>
-    <mergeCell ref="E182:E188"/>
-    <mergeCell ref="E189:E195"/>
-    <mergeCell ref="E196:E202"/>
-    <mergeCell ref="E203:E209"/>
-    <mergeCell ref="E280:E286"/>
-    <mergeCell ref="E287:E293"/>
-    <mergeCell ref="E294:E300"/>
-    <mergeCell ref="C378:C384"/>
-    <mergeCell ref="C35:C41"/>
-    <mergeCell ref="C7:C13"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="C14:C20"/>
-    <mergeCell ref="C21:C27"/>
-    <mergeCell ref="C28:C34"/>
-    <mergeCell ref="C119:C125"/>
-    <mergeCell ref="C42:C48"/>
-    <mergeCell ref="C49:C55"/>
-    <mergeCell ref="C56:C62"/>
-    <mergeCell ref="C63:C69"/>
-    <mergeCell ref="C70:C76"/>
-    <mergeCell ref="C77:C83"/>
-    <mergeCell ref="C84:C90"/>
-    <mergeCell ref="C91:C97"/>
-    <mergeCell ref="C322:C328"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="E7:E13"/>
-    <mergeCell ref="E14:E20"/>
-    <mergeCell ref="E21:E27"/>
-    <mergeCell ref="E28:E34"/>
-    <mergeCell ref="C357:C363"/>
-    <mergeCell ref="C364:C370"/>
-    <mergeCell ref="C371:C377"/>
-    <mergeCell ref="E70:E76"/>
-    <mergeCell ref="E77:E83"/>
-    <mergeCell ref="E84:E90"/>
-    <mergeCell ref="E91:E97"/>
-    <mergeCell ref="E98:E104"/>
-    <mergeCell ref="E35:E41"/>
-    <mergeCell ref="E42:E48"/>
-    <mergeCell ref="E49:E55"/>
-    <mergeCell ref="E56:E62"/>
-    <mergeCell ref="E63:E69"/>
-    <mergeCell ref="E140:E146"/>
-    <mergeCell ref="E147:E153"/>
-    <mergeCell ref="E154:E160"/>
-    <mergeCell ref="E161:E167"/>
-    <mergeCell ref="E168:E174"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="C392:C398"/>
+    <mergeCell ref="C399:C405"/>
+    <mergeCell ref="C287:C293"/>
+    <mergeCell ref="C210:C216"/>
+    <mergeCell ref="C217:C223"/>
+    <mergeCell ref="C224:C230"/>
+    <mergeCell ref="C231:C237"/>
+    <mergeCell ref="C252:C258"/>
+    <mergeCell ref="C259:C265"/>
+    <mergeCell ref="C266:C272"/>
+    <mergeCell ref="C238:C244"/>
+    <mergeCell ref="C245:C251"/>
+    <mergeCell ref="C336:C342"/>
+    <mergeCell ref="C343:C349"/>
+    <mergeCell ref="C350:C356"/>
+    <mergeCell ref="C98:C104"/>
+    <mergeCell ref="C105:C111"/>
+    <mergeCell ref="C112:C118"/>
+    <mergeCell ref="C329:C335"/>
+    <mergeCell ref="C294:C300"/>
+    <mergeCell ref="C301:C307"/>
+    <mergeCell ref="C308:C314"/>
+    <mergeCell ref="C315:C321"/>
     <mergeCell ref="X1:Z1"/>
     <mergeCell ref="C273:C279"/>
     <mergeCell ref="C280:C286"/>
@@ -53852,30 +53798,84 @@
     <mergeCell ref="E217:E223"/>
     <mergeCell ref="E224:E230"/>
     <mergeCell ref="E231:E237"/>
-    <mergeCell ref="A1:V1"/>
-    <mergeCell ref="C392:C398"/>
-    <mergeCell ref="C399:C405"/>
-    <mergeCell ref="C287:C293"/>
-    <mergeCell ref="C210:C216"/>
-    <mergeCell ref="C217:C223"/>
-    <mergeCell ref="C224:C230"/>
-    <mergeCell ref="C231:C237"/>
-    <mergeCell ref="C252:C258"/>
-    <mergeCell ref="C259:C265"/>
-    <mergeCell ref="C266:C272"/>
-    <mergeCell ref="C238:C244"/>
-    <mergeCell ref="C245:C251"/>
-    <mergeCell ref="C336:C342"/>
-    <mergeCell ref="C343:C349"/>
-    <mergeCell ref="C350:C356"/>
-    <mergeCell ref="C98:C104"/>
-    <mergeCell ref="C105:C111"/>
-    <mergeCell ref="C112:C118"/>
-    <mergeCell ref="C329:C335"/>
-    <mergeCell ref="C294:C300"/>
-    <mergeCell ref="C301:C307"/>
-    <mergeCell ref="C308:C314"/>
-    <mergeCell ref="C315:C321"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="E7:E13"/>
+    <mergeCell ref="E14:E20"/>
+    <mergeCell ref="E21:E27"/>
+    <mergeCell ref="E28:E34"/>
+    <mergeCell ref="C357:C363"/>
+    <mergeCell ref="C364:C370"/>
+    <mergeCell ref="C371:C377"/>
+    <mergeCell ref="E70:E76"/>
+    <mergeCell ref="E77:E83"/>
+    <mergeCell ref="E84:E90"/>
+    <mergeCell ref="E91:E97"/>
+    <mergeCell ref="E98:E104"/>
+    <mergeCell ref="E35:E41"/>
+    <mergeCell ref="E42:E48"/>
+    <mergeCell ref="E49:E55"/>
+    <mergeCell ref="E56:E62"/>
+    <mergeCell ref="E63:E69"/>
+    <mergeCell ref="E140:E146"/>
+    <mergeCell ref="E147:E153"/>
+    <mergeCell ref="E154:E160"/>
+    <mergeCell ref="E161:E167"/>
+    <mergeCell ref="E168:E174"/>
+    <mergeCell ref="C35:C41"/>
+    <mergeCell ref="C7:C13"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="C14:C20"/>
+    <mergeCell ref="C21:C27"/>
+    <mergeCell ref="C28:C34"/>
+    <mergeCell ref="C119:C125"/>
+    <mergeCell ref="C42:C48"/>
+    <mergeCell ref="C49:C55"/>
+    <mergeCell ref="C56:C62"/>
+    <mergeCell ref="C63:C69"/>
+    <mergeCell ref="C70:C76"/>
+    <mergeCell ref="C77:C83"/>
+    <mergeCell ref="C84:C90"/>
+    <mergeCell ref="C91:C97"/>
+    <mergeCell ref="E238:E244"/>
+    <mergeCell ref="E175:E181"/>
+    <mergeCell ref="E182:E188"/>
+    <mergeCell ref="E189:E195"/>
+    <mergeCell ref="E196:E202"/>
+    <mergeCell ref="E203:E209"/>
+    <mergeCell ref="E280:E286"/>
+    <mergeCell ref="E287:E293"/>
+    <mergeCell ref="E294:E300"/>
+    <mergeCell ref="E301:E307"/>
+    <mergeCell ref="E308:E314"/>
+    <mergeCell ref="E245:E251"/>
+    <mergeCell ref="E252:E258"/>
+    <mergeCell ref="E259:E265"/>
+    <mergeCell ref="E266:E272"/>
+    <mergeCell ref="E273:E279"/>
+    <mergeCell ref="E350:E356"/>
+    <mergeCell ref="E357:E363"/>
+    <mergeCell ref="E364:E370"/>
+    <mergeCell ref="E371:E377"/>
+    <mergeCell ref="E378:E384"/>
+    <mergeCell ref="E315:E321"/>
+    <mergeCell ref="E322:E328"/>
+    <mergeCell ref="E329:E335"/>
+    <mergeCell ref="E336:E342"/>
+    <mergeCell ref="E343:E349"/>
+    <mergeCell ref="C406:C412"/>
+    <mergeCell ref="C378:C384"/>
+    <mergeCell ref="C322:C328"/>
+    <mergeCell ref="C413:C419"/>
+    <mergeCell ref="C420:C426"/>
+    <mergeCell ref="C427:C433"/>
+    <mergeCell ref="E406:E412"/>
+    <mergeCell ref="E413:E419"/>
+    <mergeCell ref="E420:E426"/>
+    <mergeCell ref="E427:E433"/>
+    <mergeCell ref="E385:E391"/>
+    <mergeCell ref="E392:E398"/>
+    <mergeCell ref="E399:E405"/>
+    <mergeCell ref="C385:C391"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="date" showInputMessage="1" showErrorMessage="1" sqref="A2:A433" xr:uid="{BAF66607-B879-4D63-85F5-A749520E0F4A}">
@@ -53893,8 +53893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{753DFDB7-E793-47C7-9699-42695DBED7CF}">
   <dimension ref="A1:AB662"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="U13" sqref="U13"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53912,7 +53912,7 @@
     <col min="13" max="13" width="9.140625" style="2"/>
     <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.140625" style="2"/>
+    <col min="18" max="18" width="36" style="2" customWidth="1"/>
     <col min="19" max="19" width="8" style="2" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="8" style="2" customWidth="1"/>
     <col min="22" max="23" width="9.140625" style="2"/>
@@ -54081,7 +54081,7 @@
       <c r="P3" t="s">
         <v>104</v>
       </c>
-      <c r="R3" t="s">
+      <c r="R3" s="48" t="s">
         <v>66</v>
       </c>
       <c r="S3">
@@ -54167,7 +54167,7 @@
       <c r="Q4" t="s">
         <v>14</v>
       </c>
-      <c r="R4" t="s">
+      <c r="R4" s="48" t="s">
         <v>16</v>
       </c>
       <c r="S4">
@@ -54244,7 +54244,7 @@
       <c r="P5" t="s">
         <v>104</v>
       </c>
-      <c r="R5" t="s">
+      <c r="R5" s="48" t="s">
         <v>70</v>
       </c>
       <c r="S5">
@@ -54321,7 +54321,7 @@
       <c r="P6" t="s">
         <v>104</v>
       </c>
-      <c r="R6" t="s">
+      <c r="R6" s="48" t="s">
         <v>50</v>
       </c>
       <c r="S6">
@@ -54398,7 +54398,7 @@
       <c r="P7" t="s">
         <v>104</v>
       </c>
-      <c r="R7" t="s">
+      <c r="R7" s="48" t="s">
         <v>65</v>
       </c>
       <c r="S7">
@@ -54474,7 +54474,7 @@
       <c r="P8" t="s">
         <v>104</v>
       </c>
-      <c r="R8" t="s">
+      <c r="R8" s="48" t="s">
         <v>67</v>
       </c>
       <c r="S8">
@@ -54550,7 +54550,7 @@
       <c r="P9" t="s">
         <v>105</v>
       </c>
-      <c r="R9" t="s">
+      <c r="R9" s="48" t="s">
         <v>68</v>
       </c>
       <c r="S9">
@@ -54626,7 +54626,7 @@
       <c r="P10" t="s">
         <v>106</v>
       </c>
-      <c r="R10" t="s">
+      <c r="R10" s="48" t="s">
         <v>77</v>
       </c>
       <c r="S10">
@@ -54709,7 +54709,7 @@
       <c r="P11" t="s">
         <v>108</v>
       </c>
-      <c r="R11" t="s">
+      <c r="R11" s="48" t="s">
         <v>69</v>
       </c>
       <c r="S11">
@@ -54785,7 +54785,7 @@
       <c r="P12" t="s">
         <v>109</v>
       </c>
-      <c r="R12" t="s">
+      <c r="R12" s="48" t="s">
         <v>78</v>
       </c>
       <c r="S12">
@@ -54862,7 +54862,7 @@
       <c r="P13" t="s">
         <v>109</v>
       </c>
-      <c r="R13" t="s">
+      <c r="R13" s="48" t="s">
         <v>71</v>
       </c>
       <c r="S13">
@@ -54938,7 +54938,7 @@
       <c r="P14" t="s">
         <v>110</v>
       </c>
-      <c r="R14" t="s">
+      <c r="R14" s="48" t="s">
         <v>72</v>
       </c>
       <c r="S14">
@@ -55015,7 +55015,7 @@
       <c r="P15" t="s">
         <v>110</v>
       </c>
-      <c r="R15" t="s">
+      <c r="R15" s="48" t="s">
         <v>76</v>
       </c>
       <c r="S15">
@@ -55092,7 +55092,7 @@
       <c r="P16" t="s">
         <v>110</v>
       </c>
-      <c r="R16" t="s">
+      <c r="R16" s="48" t="s">
         <v>79</v>
       </c>
       <c r="S16">
@@ -55169,7 +55169,7 @@
       <c r="P17" t="s">
         <v>104</v>
       </c>
-      <c r="R17" t="s">
+      <c r="R17" s="48" t="s">
         <v>73</v>
       </c>
       <c r="S17">
@@ -55251,7 +55251,7 @@
       <c r="P18" t="s">
         <v>104</v>
       </c>
-      <c r="R18" t="s">
+      <c r="R18" s="48" t="s">
         <v>75</v>
       </c>
       <c r="S18">
@@ -55327,7 +55327,7 @@
       <c r="P19" t="s">
         <v>105</v>
       </c>
-      <c r="R19" t="s">
+      <c r="R19" s="48" t="s">
         <v>74</v>
       </c>
       <c r="S19">
@@ -55403,7 +55403,7 @@
       <c r="P20" t="s">
         <v>106</v>
       </c>
-      <c r="R20" t="s">
+      <c r="R20" s="48" t="s">
         <v>80</v>
       </c>
       <c r="S20">
@@ -73005,6 +73005,105 @@
     </row>
   </sheetData>
   <mergeCells count="123">
+    <mergeCell ref="C389:C395"/>
+    <mergeCell ref="C396:C402"/>
+    <mergeCell ref="C214:C220"/>
+    <mergeCell ref="C221:C227"/>
+    <mergeCell ref="C228:C234"/>
+    <mergeCell ref="C235:C241"/>
+    <mergeCell ref="C242:C248"/>
+    <mergeCell ref="C284:C290"/>
+    <mergeCell ref="C291:C297"/>
+    <mergeCell ref="C340:C346"/>
+    <mergeCell ref="C249:C255"/>
+    <mergeCell ref="C256:C262"/>
+    <mergeCell ref="C263:C269"/>
+    <mergeCell ref="C270:C276"/>
+    <mergeCell ref="C277:C283"/>
+    <mergeCell ref="C382:C388"/>
+    <mergeCell ref="C354:C360"/>
+    <mergeCell ref="C361:C367"/>
+    <mergeCell ref="C368:C374"/>
+    <mergeCell ref="C375:C381"/>
+    <mergeCell ref="C326:C332"/>
+    <mergeCell ref="A1:AB1"/>
+    <mergeCell ref="C74:C80"/>
+    <mergeCell ref="C81:C87"/>
+    <mergeCell ref="C88:C94"/>
+    <mergeCell ref="C95:C101"/>
+    <mergeCell ref="C102:C108"/>
+    <mergeCell ref="C179:C185"/>
+    <mergeCell ref="C109:C115"/>
+    <mergeCell ref="C116:C122"/>
+    <mergeCell ref="C123:C129"/>
+    <mergeCell ref="C130:C136"/>
+    <mergeCell ref="C137:C143"/>
+    <mergeCell ref="C144:C150"/>
+    <mergeCell ref="C151:C157"/>
+    <mergeCell ref="C158:C164"/>
+    <mergeCell ref="C165:C171"/>
+    <mergeCell ref="E277:E283"/>
+    <mergeCell ref="E284:E290"/>
+    <mergeCell ref="C193:C199"/>
+    <mergeCell ref="C200:C206"/>
+    <mergeCell ref="C207:C213"/>
+    <mergeCell ref="C298:C304"/>
+    <mergeCell ref="C305:C311"/>
+    <mergeCell ref="C312:C318"/>
+    <mergeCell ref="C319:C325"/>
+    <mergeCell ref="E214:E220"/>
+    <mergeCell ref="E221:E227"/>
+    <mergeCell ref="E228:E234"/>
+    <mergeCell ref="E235:E241"/>
+    <mergeCell ref="E172:E178"/>
+    <mergeCell ref="E179:E185"/>
+    <mergeCell ref="E186:E192"/>
+    <mergeCell ref="E193:E199"/>
+    <mergeCell ref="E200:E206"/>
+    <mergeCell ref="E88:E94"/>
+    <mergeCell ref="E95:E101"/>
+    <mergeCell ref="C39:C45"/>
+    <mergeCell ref="C46:C52"/>
+    <mergeCell ref="C53:C59"/>
+    <mergeCell ref="C60:C66"/>
+    <mergeCell ref="C67:C73"/>
+    <mergeCell ref="E165:E171"/>
+    <mergeCell ref="E207:E213"/>
+    <mergeCell ref="E242:E248"/>
+    <mergeCell ref="E249:E255"/>
+    <mergeCell ref="E256:E262"/>
+    <mergeCell ref="E263:E269"/>
+    <mergeCell ref="E270:E276"/>
+    <mergeCell ref="E354:E360"/>
+    <mergeCell ref="C4:C10"/>
+    <mergeCell ref="C11:C17"/>
+    <mergeCell ref="C18:C24"/>
+    <mergeCell ref="C25:C31"/>
+    <mergeCell ref="C32:C38"/>
+    <mergeCell ref="E137:E143"/>
+    <mergeCell ref="E144:E150"/>
+    <mergeCell ref="E151:E157"/>
+    <mergeCell ref="E158:E164"/>
+    <mergeCell ref="E102:E108"/>
+    <mergeCell ref="E109:E115"/>
+    <mergeCell ref="E116:E122"/>
+    <mergeCell ref="E123:E129"/>
+    <mergeCell ref="E130:E136"/>
+    <mergeCell ref="C172:C178"/>
+    <mergeCell ref="C347:C353"/>
+    <mergeCell ref="C333:C339"/>
+    <mergeCell ref="C186:C192"/>
+    <mergeCell ref="E368:E374"/>
+    <mergeCell ref="E375:E381"/>
+    <mergeCell ref="E312:E318"/>
+    <mergeCell ref="E319:E325"/>
+    <mergeCell ref="E326:E332"/>
+    <mergeCell ref="E333:E339"/>
+    <mergeCell ref="E340:E346"/>
+    <mergeCell ref="E424:E430"/>
+    <mergeCell ref="E291:E297"/>
+    <mergeCell ref="E298:E304"/>
+    <mergeCell ref="E305:E311"/>
     <mergeCell ref="C403:C409"/>
     <mergeCell ref="C410:C416"/>
     <mergeCell ref="C417:C423"/>
@@ -73029,105 +73128,6 @@
     <mergeCell ref="E417:E423"/>
     <mergeCell ref="E347:E353"/>
     <mergeCell ref="E361:E367"/>
-    <mergeCell ref="E368:E374"/>
-    <mergeCell ref="E375:E381"/>
-    <mergeCell ref="E312:E318"/>
-    <mergeCell ref="E319:E325"/>
-    <mergeCell ref="E326:E332"/>
-    <mergeCell ref="E333:E339"/>
-    <mergeCell ref="E340:E346"/>
-    <mergeCell ref="E424:E430"/>
-    <mergeCell ref="E291:E297"/>
-    <mergeCell ref="E298:E304"/>
-    <mergeCell ref="E305:E311"/>
-    <mergeCell ref="E242:E248"/>
-    <mergeCell ref="E249:E255"/>
-    <mergeCell ref="E256:E262"/>
-    <mergeCell ref="E263:E269"/>
-    <mergeCell ref="E270:E276"/>
-    <mergeCell ref="E354:E360"/>
-    <mergeCell ref="C4:C10"/>
-    <mergeCell ref="C11:C17"/>
-    <mergeCell ref="C18:C24"/>
-    <mergeCell ref="C25:C31"/>
-    <mergeCell ref="C32:C38"/>
-    <mergeCell ref="E137:E143"/>
-    <mergeCell ref="E144:E150"/>
-    <mergeCell ref="E151:E157"/>
-    <mergeCell ref="E158:E164"/>
-    <mergeCell ref="E102:E108"/>
-    <mergeCell ref="E109:E115"/>
-    <mergeCell ref="E116:E122"/>
-    <mergeCell ref="E123:E129"/>
-    <mergeCell ref="E130:E136"/>
-    <mergeCell ref="C172:C178"/>
-    <mergeCell ref="C347:C353"/>
-    <mergeCell ref="C333:C339"/>
-    <mergeCell ref="C186:C192"/>
-    <mergeCell ref="E88:E94"/>
-    <mergeCell ref="E95:E101"/>
-    <mergeCell ref="C39:C45"/>
-    <mergeCell ref="C46:C52"/>
-    <mergeCell ref="C53:C59"/>
-    <mergeCell ref="C60:C66"/>
-    <mergeCell ref="C67:C73"/>
-    <mergeCell ref="E165:E171"/>
-    <mergeCell ref="E207:E213"/>
-    <mergeCell ref="E214:E220"/>
-    <mergeCell ref="E221:E227"/>
-    <mergeCell ref="E228:E234"/>
-    <mergeCell ref="E235:E241"/>
-    <mergeCell ref="E172:E178"/>
-    <mergeCell ref="E179:E185"/>
-    <mergeCell ref="E186:E192"/>
-    <mergeCell ref="E193:E199"/>
-    <mergeCell ref="E200:E206"/>
-    <mergeCell ref="E277:E283"/>
-    <mergeCell ref="E284:E290"/>
-    <mergeCell ref="C193:C199"/>
-    <mergeCell ref="C200:C206"/>
-    <mergeCell ref="C207:C213"/>
-    <mergeCell ref="C298:C304"/>
-    <mergeCell ref="C305:C311"/>
-    <mergeCell ref="C312:C318"/>
-    <mergeCell ref="C319:C325"/>
-    <mergeCell ref="C326:C332"/>
-    <mergeCell ref="A1:AB1"/>
-    <mergeCell ref="C74:C80"/>
-    <mergeCell ref="C81:C87"/>
-    <mergeCell ref="C88:C94"/>
-    <mergeCell ref="C95:C101"/>
-    <mergeCell ref="C102:C108"/>
-    <mergeCell ref="C179:C185"/>
-    <mergeCell ref="C109:C115"/>
-    <mergeCell ref="C116:C122"/>
-    <mergeCell ref="C123:C129"/>
-    <mergeCell ref="C130:C136"/>
-    <mergeCell ref="C137:C143"/>
-    <mergeCell ref="C144:C150"/>
-    <mergeCell ref="C151:C157"/>
-    <mergeCell ref="C158:C164"/>
-    <mergeCell ref="C165:C171"/>
-    <mergeCell ref="C389:C395"/>
-    <mergeCell ref="C396:C402"/>
-    <mergeCell ref="C214:C220"/>
-    <mergeCell ref="C221:C227"/>
-    <mergeCell ref="C228:C234"/>
-    <mergeCell ref="C235:C241"/>
-    <mergeCell ref="C242:C248"/>
-    <mergeCell ref="C284:C290"/>
-    <mergeCell ref="C291:C297"/>
-    <mergeCell ref="C340:C346"/>
-    <mergeCell ref="C249:C255"/>
-    <mergeCell ref="C256:C262"/>
-    <mergeCell ref="C263:C269"/>
-    <mergeCell ref="C270:C276"/>
-    <mergeCell ref="C277:C283"/>
-    <mergeCell ref="C382:C388"/>
-    <mergeCell ref="C354:C360"/>
-    <mergeCell ref="C361:C367"/>
-    <mergeCell ref="C368:C374"/>
-    <mergeCell ref="C375:C381"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -81811,35 +81811,91 @@
     </row>
   </sheetData>
   <mergeCells count="138">
-    <mergeCell ref="E468:E474"/>
-    <mergeCell ref="E475:E481"/>
-    <mergeCell ref="E398:E404"/>
-    <mergeCell ref="E405:E411"/>
-    <mergeCell ref="E412:E418"/>
-    <mergeCell ref="E419:E425"/>
-    <mergeCell ref="E426:E432"/>
-    <mergeCell ref="E433:E439"/>
-    <mergeCell ref="E328:E334"/>
-    <mergeCell ref="E335:E341"/>
-    <mergeCell ref="E342:E348"/>
-    <mergeCell ref="E349:E355"/>
-    <mergeCell ref="E356:E362"/>
-    <mergeCell ref="E363:E369"/>
-    <mergeCell ref="E447:E453"/>
-    <mergeCell ref="E454:E460"/>
-    <mergeCell ref="E461:E467"/>
-    <mergeCell ref="E251:E257"/>
-    <mergeCell ref="E258:E264"/>
-    <mergeCell ref="E265:E271"/>
-    <mergeCell ref="E272:E278"/>
-    <mergeCell ref="E279:E285"/>
-    <mergeCell ref="E286:E292"/>
-    <mergeCell ref="E181:E187"/>
-    <mergeCell ref="E188:E194"/>
-    <mergeCell ref="E195:E201"/>
-    <mergeCell ref="E202:E208"/>
-    <mergeCell ref="E209:E215"/>
-    <mergeCell ref="E216:E222"/>
+    <mergeCell ref="D55:D61"/>
+    <mergeCell ref="D62:D68"/>
+    <mergeCell ref="D69:D75"/>
+    <mergeCell ref="D76:D82"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="D447:D453"/>
+    <mergeCell ref="D454:D460"/>
+    <mergeCell ref="D461:D467"/>
+    <mergeCell ref="D370:D376"/>
+    <mergeCell ref="D377:D383"/>
+    <mergeCell ref="D384:D390"/>
+    <mergeCell ref="D391:D397"/>
+    <mergeCell ref="D300:D306"/>
+    <mergeCell ref="D307:D313"/>
+    <mergeCell ref="D314:D320"/>
+    <mergeCell ref="D321:D327"/>
+    <mergeCell ref="E167:E173"/>
+    <mergeCell ref="E174:E180"/>
+    <mergeCell ref="E83:E89"/>
+    <mergeCell ref="E90:E96"/>
+    <mergeCell ref="E97:E103"/>
+    <mergeCell ref="E104:E110"/>
+    <mergeCell ref="E69:E75"/>
+    <mergeCell ref="E76:E82"/>
+    <mergeCell ref="D440:D446"/>
+    <mergeCell ref="D293:D299"/>
+    <mergeCell ref="D223:D229"/>
+    <mergeCell ref="D230:D236"/>
+    <mergeCell ref="D237:D243"/>
+    <mergeCell ref="D244:D250"/>
+    <mergeCell ref="D153:D159"/>
+    <mergeCell ref="D160:D166"/>
+    <mergeCell ref="D167:D173"/>
+    <mergeCell ref="D174:D180"/>
+    <mergeCell ref="D83:D89"/>
+    <mergeCell ref="D90:D96"/>
+    <mergeCell ref="D97:D103"/>
+    <mergeCell ref="D104:D110"/>
+    <mergeCell ref="D181:D187"/>
+    <mergeCell ref="D188:D194"/>
+    <mergeCell ref="D195:D201"/>
+    <mergeCell ref="D202:D208"/>
+    <mergeCell ref="D209:D215"/>
+    <mergeCell ref="D216:D222"/>
+    <mergeCell ref="D111:D117"/>
+    <mergeCell ref="D118:D124"/>
+    <mergeCell ref="D125:D131"/>
+    <mergeCell ref="D6:D12"/>
+    <mergeCell ref="E6:E12"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="D20:D26"/>
+    <mergeCell ref="D27:D33"/>
+    <mergeCell ref="D34:D40"/>
+    <mergeCell ref="D41:D47"/>
+    <mergeCell ref="D48:D54"/>
+    <mergeCell ref="E440:E446"/>
+    <mergeCell ref="E370:E376"/>
+    <mergeCell ref="E377:E383"/>
+    <mergeCell ref="E384:E390"/>
+    <mergeCell ref="E391:E397"/>
+    <mergeCell ref="E300:E306"/>
+    <mergeCell ref="E307:E313"/>
+    <mergeCell ref="E314:E320"/>
+    <mergeCell ref="E321:E327"/>
+    <mergeCell ref="E293:E299"/>
+    <mergeCell ref="E223:E229"/>
+    <mergeCell ref="E230:E236"/>
+    <mergeCell ref="E237:E243"/>
+    <mergeCell ref="E244:E250"/>
+    <mergeCell ref="E153:E159"/>
+    <mergeCell ref="E160:E166"/>
+    <mergeCell ref="D132:D138"/>
+    <mergeCell ref="D139:D145"/>
+    <mergeCell ref="D146:D152"/>
+    <mergeCell ref="D342:D348"/>
+    <mergeCell ref="D349:D355"/>
+    <mergeCell ref="D356:D362"/>
+    <mergeCell ref="D363:D369"/>
+    <mergeCell ref="D251:D257"/>
+    <mergeCell ref="D258:D264"/>
+    <mergeCell ref="D265:D271"/>
+    <mergeCell ref="D272:D278"/>
+    <mergeCell ref="D279:D285"/>
+    <mergeCell ref="D286:D292"/>
     <mergeCell ref="E111:E117"/>
     <mergeCell ref="E118:E124"/>
     <mergeCell ref="E125:E131"/>
@@ -81864,91 +81920,35 @@
     <mergeCell ref="D433:D439"/>
     <mergeCell ref="D328:D334"/>
     <mergeCell ref="D335:D341"/>
-    <mergeCell ref="D132:D138"/>
-    <mergeCell ref="D139:D145"/>
-    <mergeCell ref="D146:D152"/>
-    <mergeCell ref="D342:D348"/>
-    <mergeCell ref="D349:D355"/>
-    <mergeCell ref="D356:D362"/>
-    <mergeCell ref="D363:D369"/>
-    <mergeCell ref="D251:D257"/>
-    <mergeCell ref="D258:D264"/>
-    <mergeCell ref="D265:D271"/>
-    <mergeCell ref="D272:D278"/>
-    <mergeCell ref="D279:D285"/>
-    <mergeCell ref="D286:D292"/>
-    <mergeCell ref="D6:D12"/>
-    <mergeCell ref="E6:E12"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="D20:D26"/>
-    <mergeCell ref="D27:D33"/>
-    <mergeCell ref="D34:D40"/>
-    <mergeCell ref="D41:D47"/>
-    <mergeCell ref="D48:D54"/>
-    <mergeCell ref="E440:E446"/>
-    <mergeCell ref="E370:E376"/>
-    <mergeCell ref="E377:E383"/>
-    <mergeCell ref="E384:E390"/>
-    <mergeCell ref="E391:E397"/>
-    <mergeCell ref="E300:E306"/>
-    <mergeCell ref="E307:E313"/>
-    <mergeCell ref="E314:E320"/>
-    <mergeCell ref="E321:E327"/>
-    <mergeCell ref="E293:E299"/>
-    <mergeCell ref="E223:E229"/>
-    <mergeCell ref="E230:E236"/>
-    <mergeCell ref="E237:E243"/>
-    <mergeCell ref="E244:E250"/>
-    <mergeCell ref="E153:E159"/>
-    <mergeCell ref="E160:E166"/>
-    <mergeCell ref="E76:E82"/>
-    <mergeCell ref="D440:D446"/>
-    <mergeCell ref="D293:D299"/>
-    <mergeCell ref="D223:D229"/>
-    <mergeCell ref="D230:D236"/>
-    <mergeCell ref="D237:D243"/>
-    <mergeCell ref="D244:D250"/>
-    <mergeCell ref="D153:D159"/>
-    <mergeCell ref="D160:D166"/>
-    <mergeCell ref="D167:D173"/>
-    <mergeCell ref="D174:D180"/>
-    <mergeCell ref="D83:D89"/>
-    <mergeCell ref="D90:D96"/>
-    <mergeCell ref="D97:D103"/>
-    <mergeCell ref="D104:D110"/>
-    <mergeCell ref="D181:D187"/>
-    <mergeCell ref="D188:D194"/>
-    <mergeCell ref="D195:D201"/>
-    <mergeCell ref="D202:D208"/>
-    <mergeCell ref="D209:D215"/>
-    <mergeCell ref="D216:D222"/>
-    <mergeCell ref="D111:D117"/>
-    <mergeCell ref="D118:D124"/>
-    <mergeCell ref="D125:D131"/>
-    <mergeCell ref="D55:D61"/>
-    <mergeCell ref="D62:D68"/>
-    <mergeCell ref="D69:D75"/>
-    <mergeCell ref="D76:D82"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="D447:D453"/>
-    <mergeCell ref="D454:D460"/>
-    <mergeCell ref="D461:D467"/>
-    <mergeCell ref="D370:D376"/>
-    <mergeCell ref="D377:D383"/>
-    <mergeCell ref="D384:D390"/>
-    <mergeCell ref="D391:D397"/>
-    <mergeCell ref="D300:D306"/>
-    <mergeCell ref="D307:D313"/>
-    <mergeCell ref="D314:D320"/>
-    <mergeCell ref="D321:D327"/>
-    <mergeCell ref="E167:E173"/>
-    <mergeCell ref="E174:E180"/>
-    <mergeCell ref="E83:E89"/>
-    <mergeCell ref="E90:E96"/>
-    <mergeCell ref="E97:E103"/>
-    <mergeCell ref="E104:E110"/>
-    <mergeCell ref="E69:E75"/>
+    <mergeCell ref="E251:E257"/>
+    <mergeCell ref="E258:E264"/>
+    <mergeCell ref="E265:E271"/>
+    <mergeCell ref="E272:E278"/>
+    <mergeCell ref="E279:E285"/>
+    <mergeCell ref="E286:E292"/>
+    <mergeCell ref="E181:E187"/>
+    <mergeCell ref="E188:E194"/>
+    <mergeCell ref="E195:E201"/>
+    <mergeCell ref="E202:E208"/>
+    <mergeCell ref="E209:E215"/>
+    <mergeCell ref="E216:E222"/>
+    <mergeCell ref="E468:E474"/>
+    <mergeCell ref="E475:E481"/>
+    <mergeCell ref="E398:E404"/>
+    <mergeCell ref="E405:E411"/>
+    <mergeCell ref="E412:E418"/>
+    <mergeCell ref="E419:E425"/>
+    <mergeCell ref="E426:E432"/>
+    <mergeCell ref="E433:E439"/>
+    <mergeCell ref="E328:E334"/>
+    <mergeCell ref="E335:E341"/>
+    <mergeCell ref="E342:E348"/>
+    <mergeCell ref="E349:E355"/>
+    <mergeCell ref="E356:E362"/>
+    <mergeCell ref="E363:E369"/>
+    <mergeCell ref="E447:E453"/>
+    <mergeCell ref="E454:E460"/>
+    <mergeCell ref="E461:E467"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Bogota_daily_cases.xlsx
+++ b/Bogota_daily_cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FAMILIA\Documents\GitHub\covid-transport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9310ACAB-3627-47EC-90B0-042CC0803F3C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E883B8-F4FD-4861-92F7-9211E340EEB7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,6 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">BA_cases!$N$2:$V$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Bogota_cases!$A$2:$B$343</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Washington_DC_cases!$N$2:$V$16</definedName>
+    <definedName name="Hito_DC">Washington_DC_cases!$R$3:$R$20</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1038,13 +1039,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8437,7 +8438,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C6B0B40B-C0E5-4BAD-A552-45B04758D80B}" type="CELLRANGE">
+                    <a:fld id="{8098AAD2-9501-4387-895B-F24EF6803A14}" type="CELLRANGE">
                       <a:rPr lang="es-CO"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8651,7 +8652,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6055E094-0E64-44B3-9A0F-5C9295F25BBE}" type="CELLRANGE">
+                    <a:fld id="{34D464AF-C228-492C-96AC-71816932CA79}" type="CELLRANGE">
                       <a:rPr lang="es-CO"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8685,7 +8686,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E12DB2C2-F165-4682-A1F3-10EA56A2C45F}" type="CELLRANGE">
+                    <a:fld id="{32BBDA09-4F0A-447A-A785-EABFEAAE225B}" type="CELLRANGE">
                       <a:rPr lang="es-CO"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8839,7 +8840,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{98ADD761-A7FA-4A1F-8914-BAB448CE81DE}" type="CELLRANGE">
+                    <a:fld id="{D1037486-E67B-41AF-95E9-19BF4A29A9C3}" type="CELLRANGE">
                       <a:rPr lang="es-CO"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -18091,34 +18092,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="53"/>
-      <c r="V1" s="53"/>
-      <c r="X1" s="55" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="X1" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="Y1" s="55"/>
+      <c r="Y1" s="53"/>
       <c r="Z1" t="s">
         <v>45</v>
       </c>
@@ -35778,21 +35779,89 @@
     </sortState>
   </autoFilter>
   <mergeCells count="122">
-    <mergeCell ref="C387:C393"/>
-    <mergeCell ref="C394:C400"/>
-    <mergeCell ref="C338:C344"/>
-    <mergeCell ref="C289:C295"/>
-    <mergeCell ref="C296:C302"/>
-    <mergeCell ref="C303:C309"/>
-    <mergeCell ref="C310:C316"/>
-    <mergeCell ref="C317:C323"/>
-    <mergeCell ref="C324:C330"/>
-    <mergeCell ref="C380:C386"/>
-    <mergeCell ref="C345:C351"/>
-    <mergeCell ref="C352:C358"/>
-    <mergeCell ref="C359:C365"/>
-    <mergeCell ref="C366:C372"/>
-    <mergeCell ref="C373:C379"/>
+    <mergeCell ref="C415:C421"/>
+    <mergeCell ref="E415:E421"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="E380:E386"/>
+    <mergeCell ref="E387:E393"/>
+    <mergeCell ref="E394:E400"/>
+    <mergeCell ref="E401:E407"/>
+    <mergeCell ref="E408:E414"/>
+    <mergeCell ref="E345:E351"/>
+    <mergeCell ref="E352:E358"/>
+    <mergeCell ref="E359:E365"/>
+    <mergeCell ref="E366:E372"/>
+    <mergeCell ref="E373:E379"/>
+    <mergeCell ref="E310:E316"/>
+    <mergeCell ref="E317:E323"/>
+    <mergeCell ref="E324:E330"/>
+    <mergeCell ref="E331:E337"/>
+    <mergeCell ref="E338:E344"/>
+    <mergeCell ref="E275:E281"/>
+    <mergeCell ref="E282:E288"/>
+    <mergeCell ref="E289:E295"/>
+    <mergeCell ref="E296:E302"/>
+    <mergeCell ref="E303:E309"/>
+    <mergeCell ref="E240:E246"/>
+    <mergeCell ref="E247:E253"/>
+    <mergeCell ref="E254:E260"/>
+    <mergeCell ref="E261:E267"/>
+    <mergeCell ref="E268:E274"/>
+    <mergeCell ref="E205:E211"/>
+    <mergeCell ref="E212:E218"/>
+    <mergeCell ref="E219:E225"/>
+    <mergeCell ref="E226:E232"/>
+    <mergeCell ref="E233:E239"/>
+    <mergeCell ref="E170:E176"/>
+    <mergeCell ref="E177:E183"/>
+    <mergeCell ref="E184:E190"/>
+    <mergeCell ref="E191:E197"/>
+    <mergeCell ref="E198:E204"/>
+    <mergeCell ref="E135:E141"/>
+    <mergeCell ref="E142:E148"/>
+    <mergeCell ref="E149:E155"/>
+    <mergeCell ref="E156:E162"/>
+    <mergeCell ref="E163:E169"/>
+    <mergeCell ref="E100:E106"/>
+    <mergeCell ref="E107:E113"/>
+    <mergeCell ref="E114:E120"/>
+    <mergeCell ref="E121:E127"/>
+    <mergeCell ref="E128:E134"/>
+    <mergeCell ref="C401:C407"/>
+    <mergeCell ref="C408:C414"/>
+    <mergeCell ref="E4:E8"/>
+    <mergeCell ref="E9:E15"/>
+    <mergeCell ref="E16:E22"/>
+    <mergeCell ref="E23:E29"/>
+    <mergeCell ref="E30:E36"/>
+    <mergeCell ref="E37:E43"/>
+    <mergeCell ref="E44:E50"/>
+    <mergeCell ref="E51:E57"/>
+    <mergeCell ref="E58:E64"/>
+    <mergeCell ref="E65:E71"/>
+    <mergeCell ref="E72:E78"/>
+    <mergeCell ref="E79:E85"/>
+    <mergeCell ref="E86:E92"/>
+    <mergeCell ref="E93:E99"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="C9:C15"/>
+    <mergeCell ref="C16:C22"/>
+    <mergeCell ref="C23:C29"/>
+    <mergeCell ref="C30:C36"/>
+    <mergeCell ref="C254:C260"/>
+    <mergeCell ref="C114:C120"/>
+    <mergeCell ref="C37:C43"/>
+    <mergeCell ref="C163:C169"/>
+    <mergeCell ref="C170:C176"/>
+    <mergeCell ref="C44:C50"/>
+    <mergeCell ref="C51:C57"/>
+    <mergeCell ref="C58:C64"/>
+    <mergeCell ref="C65:C71"/>
+    <mergeCell ref="C72:C78"/>
+    <mergeCell ref="C79:C85"/>
+    <mergeCell ref="C86:C92"/>
+    <mergeCell ref="C93:C99"/>
+    <mergeCell ref="C100:C106"/>
     <mergeCell ref="C261:C267"/>
     <mergeCell ref="C268:C274"/>
     <mergeCell ref="X1:Y1"/>
@@ -35817,89 +35886,21 @@
     <mergeCell ref="C142:C148"/>
     <mergeCell ref="C149:C155"/>
     <mergeCell ref="C156:C162"/>
-    <mergeCell ref="C23:C29"/>
-    <mergeCell ref="C30:C36"/>
-    <mergeCell ref="C254:C260"/>
-    <mergeCell ref="C114:C120"/>
-    <mergeCell ref="C37:C43"/>
-    <mergeCell ref="C163:C169"/>
-    <mergeCell ref="C170:C176"/>
-    <mergeCell ref="C44:C50"/>
-    <mergeCell ref="C51:C57"/>
-    <mergeCell ref="C58:C64"/>
-    <mergeCell ref="C65:C71"/>
-    <mergeCell ref="C72:C78"/>
-    <mergeCell ref="C79:C85"/>
-    <mergeCell ref="C86:C92"/>
-    <mergeCell ref="C93:C99"/>
-    <mergeCell ref="C100:C106"/>
-    <mergeCell ref="E100:E106"/>
-    <mergeCell ref="E107:E113"/>
-    <mergeCell ref="E114:E120"/>
-    <mergeCell ref="E121:E127"/>
-    <mergeCell ref="E128:E134"/>
-    <mergeCell ref="C401:C407"/>
-    <mergeCell ref="C408:C414"/>
-    <mergeCell ref="E4:E8"/>
-    <mergeCell ref="E9:E15"/>
-    <mergeCell ref="E16:E22"/>
-    <mergeCell ref="E23:E29"/>
-    <mergeCell ref="E30:E36"/>
-    <mergeCell ref="E37:E43"/>
-    <mergeCell ref="E44:E50"/>
-    <mergeCell ref="E51:E57"/>
-    <mergeCell ref="E58:E64"/>
-    <mergeCell ref="E65:E71"/>
-    <mergeCell ref="E72:E78"/>
-    <mergeCell ref="E79:E85"/>
-    <mergeCell ref="E86:E92"/>
-    <mergeCell ref="E93:E99"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="C9:C15"/>
-    <mergeCell ref="C16:C22"/>
-    <mergeCell ref="E170:E176"/>
-    <mergeCell ref="E177:E183"/>
-    <mergeCell ref="E184:E190"/>
-    <mergeCell ref="E191:E197"/>
-    <mergeCell ref="E198:E204"/>
-    <mergeCell ref="E135:E141"/>
-    <mergeCell ref="E142:E148"/>
-    <mergeCell ref="E149:E155"/>
-    <mergeCell ref="E156:E162"/>
-    <mergeCell ref="E163:E169"/>
-    <mergeCell ref="E247:E253"/>
-    <mergeCell ref="E254:E260"/>
-    <mergeCell ref="E261:E267"/>
-    <mergeCell ref="E268:E274"/>
-    <mergeCell ref="E205:E211"/>
-    <mergeCell ref="E212:E218"/>
-    <mergeCell ref="E219:E225"/>
-    <mergeCell ref="E226:E232"/>
-    <mergeCell ref="E233:E239"/>
-    <mergeCell ref="C415:C421"/>
-    <mergeCell ref="E415:E421"/>
-    <mergeCell ref="A1:V1"/>
-    <mergeCell ref="E380:E386"/>
-    <mergeCell ref="E387:E393"/>
-    <mergeCell ref="E394:E400"/>
-    <mergeCell ref="E401:E407"/>
-    <mergeCell ref="E408:E414"/>
-    <mergeCell ref="E345:E351"/>
-    <mergeCell ref="E352:E358"/>
-    <mergeCell ref="E359:E365"/>
-    <mergeCell ref="E366:E372"/>
-    <mergeCell ref="E373:E379"/>
-    <mergeCell ref="E310:E316"/>
-    <mergeCell ref="E317:E323"/>
-    <mergeCell ref="E324:E330"/>
-    <mergeCell ref="E331:E337"/>
-    <mergeCell ref="E338:E344"/>
-    <mergeCell ref="E275:E281"/>
-    <mergeCell ref="E282:E288"/>
-    <mergeCell ref="E289:E295"/>
-    <mergeCell ref="E296:E302"/>
-    <mergeCell ref="E303:E309"/>
-    <mergeCell ref="E240:E246"/>
+    <mergeCell ref="C387:C393"/>
+    <mergeCell ref="C394:C400"/>
+    <mergeCell ref="C338:C344"/>
+    <mergeCell ref="C289:C295"/>
+    <mergeCell ref="C296:C302"/>
+    <mergeCell ref="C303:C309"/>
+    <mergeCell ref="C310:C316"/>
+    <mergeCell ref="C317:C323"/>
+    <mergeCell ref="C324:C330"/>
+    <mergeCell ref="C380:C386"/>
+    <mergeCell ref="C345:C351"/>
+    <mergeCell ref="C352:C358"/>
+    <mergeCell ref="C359:C365"/>
+    <mergeCell ref="C366:C372"/>
+    <mergeCell ref="C373:C379"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -35943,35 +35944,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
-      <c r="X1" s="55" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="X1" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="Y1" s="55"/>
-      <c r="Z1" s="55"/>
+      <c r="Y1" s="53"/>
+      <c r="Z1" s="53"/>
       <c r="AA1" s="20"/>
       <c r="AB1" t="s">
         <v>47</v>
@@ -36062,14 +36063,14 @@
       <c r="B3" s="43">
         <v>3</v>
       </c>
-      <c r="C3" s="55">
+      <c r="C3" s="53">
         <f>ROUNDUP(AVERAGE(B3:B6),0)</f>
         <v>4</v>
       </c>
       <c r="D3" s="41">
         <v>0</v>
       </c>
-      <c r="E3" s="53">
+      <c r="E3" s="55">
         <f>ROUNDUP(AVERAGE(D3:D6),0)</f>
         <v>1</v>
       </c>
@@ -36143,11 +36144,11 @@
       <c r="B4" s="43">
         <v>3</v>
       </c>
-      <c r="C4" s="55"/>
+      <c r="C4" s="53"/>
       <c r="D4" s="42">
         <v>0</v>
       </c>
-      <c r="E4" s="53"/>
+      <c r="E4" s="55"/>
       <c r="F4" s="42">
         <f t="shared" ref="F4:F23" si="2">E4</f>
         <v>0</v>
@@ -36223,11 +36224,11 @@
       <c r="B5" s="43">
         <v>3</v>
       </c>
-      <c r="C5" s="55"/>
+      <c r="C5" s="53"/>
       <c r="D5" s="42">
         <v>0</v>
       </c>
-      <c r="E5" s="53"/>
+      <c r="E5" s="55"/>
       <c r="F5" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -36300,11 +36301,11 @@
       <c r="B6" s="43">
         <v>6</v>
       </c>
-      <c r="C6" s="55"/>
+      <c r="C6" s="53"/>
       <c r="D6" s="42">
         <v>1</v>
       </c>
-      <c r="E6" s="53"/>
+      <c r="E6" s="55"/>
       <c r="F6" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -53750,6 +53751,108 @@
     </row>
   </sheetData>
   <mergeCells count="126">
+    <mergeCell ref="C413:C419"/>
+    <mergeCell ref="C420:C426"/>
+    <mergeCell ref="C427:C433"/>
+    <mergeCell ref="E406:E412"/>
+    <mergeCell ref="E413:E419"/>
+    <mergeCell ref="E420:E426"/>
+    <mergeCell ref="E427:E433"/>
+    <mergeCell ref="E385:E391"/>
+    <mergeCell ref="E392:E398"/>
+    <mergeCell ref="E399:E405"/>
+    <mergeCell ref="C385:C391"/>
+    <mergeCell ref="E364:E370"/>
+    <mergeCell ref="E371:E377"/>
+    <mergeCell ref="E378:E384"/>
+    <mergeCell ref="E315:E321"/>
+    <mergeCell ref="E322:E328"/>
+    <mergeCell ref="E329:E335"/>
+    <mergeCell ref="E336:E342"/>
+    <mergeCell ref="E343:E349"/>
+    <mergeCell ref="C406:C412"/>
+    <mergeCell ref="C378:C384"/>
+    <mergeCell ref="C322:C328"/>
+    <mergeCell ref="E301:E307"/>
+    <mergeCell ref="E308:E314"/>
+    <mergeCell ref="E245:E251"/>
+    <mergeCell ref="E252:E258"/>
+    <mergeCell ref="E259:E265"/>
+    <mergeCell ref="E266:E272"/>
+    <mergeCell ref="E273:E279"/>
+    <mergeCell ref="E350:E356"/>
+    <mergeCell ref="E357:E363"/>
+    <mergeCell ref="E238:E244"/>
+    <mergeCell ref="E175:E181"/>
+    <mergeCell ref="E182:E188"/>
+    <mergeCell ref="E189:E195"/>
+    <mergeCell ref="E196:E202"/>
+    <mergeCell ref="E203:E209"/>
+    <mergeCell ref="E280:E286"/>
+    <mergeCell ref="E287:E293"/>
+    <mergeCell ref="E294:E300"/>
+    <mergeCell ref="C7:C13"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="C14:C20"/>
+    <mergeCell ref="C21:C27"/>
+    <mergeCell ref="C28:C34"/>
+    <mergeCell ref="C119:C125"/>
+    <mergeCell ref="C42:C48"/>
+    <mergeCell ref="C49:C55"/>
+    <mergeCell ref="C56:C62"/>
+    <mergeCell ref="C63:C69"/>
+    <mergeCell ref="C70:C76"/>
+    <mergeCell ref="C77:C83"/>
+    <mergeCell ref="C84:C90"/>
+    <mergeCell ref="C91:C97"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="E7:E13"/>
+    <mergeCell ref="E14:E20"/>
+    <mergeCell ref="E21:E27"/>
+    <mergeCell ref="E28:E34"/>
+    <mergeCell ref="C357:C363"/>
+    <mergeCell ref="C364:C370"/>
+    <mergeCell ref="C371:C377"/>
+    <mergeCell ref="E70:E76"/>
+    <mergeCell ref="E77:E83"/>
+    <mergeCell ref="E84:E90"/>
+    <mergeCell ref="E91:E97"/>
+    <mergeCell ref="E98:E104"/>
+    <mergeCell ref="E35:E41"/>
+    <mergeCell ref="E42:E48"/>
+    <mergeCell ref="E49:E55"/>
+    <mergeCell ref="E56:E62"/>
+    <mergeCell ref="E63:E69"/>
+    <mergeCell ref="E140:E146"/>
+    <mergeCell ref="E147:E153"/>
+    <mergeCell ref="E154:E160"/>
+    <mergeCell ref="E161:E167"/>
+    <mergeCell ref="E168:E174"/>
+    <mergeCell ref="C35:C41"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="C273:C279"/>
+    <mergeCell ref="C280:C286"/>
+    <mergeCell ref="C203:C209"/>
+    <mergeCell ref="C126:C132"/>
+    <mergeCell ref="C133:C139"/>
+    <mergeCell ref="C140:C146"/>
+    <mergeCell ref="C147:C153"/>
+    <mergeCell ref="C154:C160"/>
+    <mergeCell ref="C161:C167"/>
+    <mergeCell ref="C168:C174"/>
+    <mergeCell ref="C175:C181"/>
+    <mergeCell ref="C182:C188"/>
+    <mergeCell ref="C189:C195"/>
+    <mergeCell ref="C196:C202"/>
+    <mergeCell ref="E105:E111"/>
+    <mergeCell ref="E112:E118"/>
+    <mergeCell ref="E119:E125"/>
+    <mergeCell ref="E126:E132"/>
+    <mergeCell ref="E133:E139"/>
+    <mergeCell ref="E210:E216"/>
+    <mergeCell ref="E217:E223"/>
+    <mergeCell ref="E224:E230"/>
+    <mergeCell ref="E231:E237"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="C392:C398"/>
     <mergeCell ref="C399:C405"/>
@@ -53774,108 +53877,6 @@
     <mergeCell ref="C301:C307"/>
     <mergeCell ref="C308:C314"/>
     <mergeCell ref="C315:C321"/>
-    <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="C273:C279"/>
-    <mergeCell ref="C280:C286"/>
-    <mergeCell ref="C203:C209"/>
-    <mergeCell ref="C126:C132"/>
-    <mergeCell ref="C133:C139"/>
-    <mergeCell ref="C140:C146"/>
-    <mergeCell ref="C147:C153"/>
-    <mergeCell ref="C154:C160"/>
-    <mergeCell ref="C161:C167"/>
-    <mergeCell ref="C168:C174"/>
-    <mergeCell ref="C175:C181"/>
-    <mergeCell ref="C182:C188"/>
-    <mergeCell ref="C189:C195"/>
-    <mergeCell ref="C196:C202"/>
-    <mergeCell ref="E105:E111"/>
-    <mergeCell ref="E112:E118"/>
-    <mergeCell ref="E119:E125"/>
-    <mergeCell ref="E126:E132"/>
-    <mergeCell ref="E133:E139"/>
-    <mergeCell ref="E210:E216"/>
-    <mergeCell ref="E217:E223"/>
-    <mergeCell ref="E224:E230"/>
-    <mergeCell ref="E231:E237"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="E7:E13"/>
-    <mergeCell ref="E14:E20"/>
-    <mergeCell ref="E21:E27"/>
-    <mergeCell ref="E28:E34"/>
-    <mergeCell ref="C357:C363"/>
-    <mergeCell ref="C364:C370"/>
-    <mergeCell ref="C371:C377"/>
-    <mergeCell ref="E70:E76"/>
-    <mergeCell ref="E77:E83"/>
-    <mergeCell ref="E84:E90"/>
-    <mergeCell ref="E91:E97"/>
-    <mergeCell ref="E98:E104"/>
-    <mergeCell ref="E35:E41"/>
-    <mergeCell ref="E42:E48"/>
-    <mergeCell ref="E49:E55"/>
-    <mergeCell ref="E56:E62"/>
-    <mergeCell ref="E63:E69"/>
-    <mergeCell ref="E140:E146"/>
-    <mergeCell ref="E147:E153"/>
-    <mergeCell ref="E154:E160"/>
-    <mergeCell ref="E161:E167"/>
-    <mergeCell ref="E168:E174"/>
-    <mergeCell ref="C35:C41"/>
-    <mergeCell ref="C7:C13"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="C14:C20"/>
-    <mergeCell ref="C21:C27"/>
-    <mergeCell ref="C28:C34"/>
-    <mergeCell ref="C119:C125"/>
-    <mergeCell ref="C42:C48"/>
-    <mergeCell ref="C49:C55"/>
-    <mergeCell ref="C56:C62"/>
-    <mergeCell ref="C63:C69"/>
-    <mergeCell ref="C70:C76"/>
-    <mergeCell ref="C77:C83"/>
-    <mergeCell ref="C84:C90"/>
-    <mergeCell ref="C91:C97"/>
-    <mergeCell ref="E238:E244"/>
-    <mergeCell ref="E175:E181"/>
-    <mergeCell ref="E182:E188"/>
-    <mergeCell ref="E189:E195"/>
-    <mergeCell ref="E196:E202"/>
-    <mergeCell ref="E203:E209"/>
-    <mergeCell ref="E280:E286"/>
-    <mergeCell ref="E287:E293"/>
-    <mergeCell ref="E294:E300"/>
-    <mergeCell ref="E301:E307"/>
-    <mergeCell ref="E308:E314"/>
-    <mergeCell ref="E245:E251"/>
-    <mergeCell ref="E252:E258"/>
-    <mergeCell ref="E259:E265"/>
-    <mergeCell ref="E266:E272"/>
-    <mergeCell ref="E273:E279"/>
-    <mergeCell ref="E350:E356"/>
-    <mergeCell ref="E357:E363"/>
-    <mergeCell ref="E364:E370"/>
-    <mergeCell ref="E371:E377"/>
-    <mergeCell ref="E378:E384"/>
-    <mergeCell ref="E315:E321"/>
-    <mergeCell ref="E322:E328"/>
-    <mergeCell ref="E329:E335"/>
-    <mergeCell ref="E336:E342"/>
-    <mergeCell ref="E343:E349"/>
-    <mergeCell ref="C406:C412"/>
-    <mergeCell ref="C378:C384"/>
-    <mergeCell ref="C322:C328"/>
-    <mergeCell ref="C413:C419"/>
-    <mergeCell ref="C420:C426"/>
-    <mergeCell ref="C427:C433"/>
-    <mergeCell ref="E406:E412"/>
-    <mergeCell ref="E413:E419"/>
-    <mergeCell ref="E420:E426"/>
-    <mergeCell ref="E427:E433"/>
-    <mergeCell ref="E385:E391"/>
-    <mergeCell ref="E392:E398"/>
-    <mergeCell ref="E399:E405"/>
-    <mergeCell ref="C385:C391"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="date" showInputMessage="1" showErrorMessage="1" sqref="A2:A433" xr:uid="{BAF66607-B879-4D63-85F5-A749520E0F4A}">
@@ -53893,8 +53894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{753DFDB7-E793-47C7-9699-42695DBED7CF}">
   <dimension ref="A1:AB662"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="R26" sqref="R26"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -73005,105 +73006,6 @@
     </row>
   </sheetData>
   <mergeCells count="123">
-    <mergeCell ref="C389:C395"/>
-    <mergeCell ref="C396:C402"/>
-    <mergeCell ref="C214:C220"/>
-    <mergeCell ref="C221:C227"/>
-    <mergeCell ref="C228:C234"/>
-    <mergeCell ref="C235:C241"/>
-    <mergeCell ref="C242:C248"/>
-    <mergeCell ref="C284:C290"/>
-    <mergeCell ref="C291:C297"/>
-    <mergeCell ref="C340:C346"/>
-    <mergeCell ref="C249:C255"/>
-    <mergeCell ref="C256:C262"/>
-    <mergeCell ref="C263:C269"/>
-    <mergeCell ref="C270:C276"/>
-    <mergeCell ref="C277:C283"/>
-    <mergeCell ref="C382:C388"/>
-    <mergeCell ref="C354:C360"/>
-    <mergeCell ref="C361:C367"/>
-    <mergeCell ref="C368:C374"/>
-    <mergeCell ref="C375:C381"/>
-    <mergeCell ref="C326:C332"/>
-    <mergeCell ref="A1:AB1"/>
-    <mergeCell ref="C74:C80"/>
-    <mergeCell ref="C81:C87"/>
-    <mergeCell ref="C88:C94"/>
-    <mergeCell ref="C95:C101"/>
-    <mergeCell ref="C102:C108"/>
-    <mergeCell ref="C179:C185"/>
-    <mergeCell ref="C109:C115"/>
-    <mergeCell ref="C116:C122"/>
-    <mergeCell ref="C123:C129"/>
-    <mergeCell ref="C130:C136"/>
-    <mergeCell ref="C137:C143"/>
-    <mergeCell ref="C144:C150"/>
-    <mergeCell ref="C151:C157"/>
-    <mergeCell ref="C158:C164"/>
-    <mergeCell ref="C165:C171"/>
-    <mergeCell ref="E277:E283"/>
-    <mergeCell ref="E284:E290"/>
-    <mergeCell ref="C193:C199"/>
-    <mergeCell ref="C200:C206"/>
-    <mergeCell ref="C207:C213"/>
-    <mergeCell ref="C298:C304"/>
-    <mergeCell ref="C305:C311"/>
-    <mergeCell ref="C312:C318"/>
-    <mergeCell ref="C319:C325"/>
-    <mergeCell ref="E214:E220"/>
-    <mergeCell ref="E221:E227"/>
-    <mergeCell ref="E228:E234"/>
-    <mergeCell ref="E235:E241"/>
-    <mergeCell ref="E172:E178"/>
-    <mergeCell ref="E179:E185"/>
-    <mergeCell ref="E186:E192"/>
-    <mergeCell ref="E193:E199"/>
-    <mergeCell ref="E200:E206"/>
-    <mergeCell ref="E88:E94"/>
-    <mergeCell ref="E95:E101"/>
-    <mergeCell ref="C39:C45"/>
-    <mergeCell ref="C46:C52"/>
-    <mergeCell ref="C53:C59"/>
-    <mergeCell ref="C60:C66"/>
-    <mergeCell ref="C67:C73"/>
-    <mergeCell ref="E165:E171"/>
-    <mergeCell ref="E207:E213"/>
-    <mergeCell ref="E242:E248"/>
-    <mergeCell ref="E249:E255"/>
-    <mergeCell ref="E256:E262"/>
-    <mergeCell ref="E263:E269"/>
-    <mergeCell ref="E270:E276"/>
-    <mergeCell ref="E354:E360"/>
-    <mergeCell ref="C4:C10"/>
-    <mergeCell ref="C11:C17"/>
-    <mergeCell ref="C18:C24"/>
-    <mergeCell ref="C25:C31"/>
-    <mergeCell ref="C32:C38"/>
-    <mergeCell ref="E137:E143"/>
-    <mergeCell ref="E144:E150"/>
-    <mergeCell ref="E151:E157"/>
-    <mergeCell ref="E158:E164"/>
-    <mergeCell ref="E102:E108"/>
-    <mergeCell ref="E109:E115"/>
-    <mergeCell ref="E116:E122"/>
-    <mergeCell ref="E123:E129"/>
-    <mergeCell ref="E130:E136"/>
-    <mergeCell ref="C172:C178"/>
-    <mergeCell ref="C347:C353"/>
-    <mergeCell ref="C333:C339"/>
-    <mergeCell ref="C186:C192"/>
-    <mergeCell ref="E368:E374"/>
-    <mergeCell ref="E375:E381"/>
-    <mergeCell ref="E312:E318"/>
-    <mergeCell ref="E319:E325"/>
-    <mergeCell ref="E326:E332"/>
-    <mergeCell ref="E333:E339"/>
-    <mergeCell ref="E340:E346"/>
-    <mergeCell ref="E424:E430"/>
-    <mergeCell ref="E291:E297"/>
-    <mergeCell ref="E298:E304"/>
-    <mergeCell ref="E305:E311"/>
     <mergeCell ref="C403:C409"/>
     <mergeCell ref="C410:C416"/>
     <mergeCell ref="C417:C423"/>
@@ -73128,6 +73030,105 @@
     <mergeCell ref="E417:E423"/>
     <mergeCell ref="E347:E353"/>
     <mergeCell ref="E361:E367"/>
+    <mergeCell ref="E368:E374"/>
+    <mergeCell ref="E375:E381"/>
+    <mergeCell ref="E312:E318"/>
+    <mergeCell ref="E319:E325"/>
+    <mergeCell ref="E326:E332"/>
+    <mergeCell ref="E333:E339"/>
+    <mergeCell ref="E340:E346"/>
+    <mergeCell ref="E424:E430"/>
+    <mergeCell ref="E291:E297"/>
+    <mergeCell ref="E298:E304"/>
+    <mergeCell ref="E305:E311"/>
+    <mergeCell ref="E354:E360"/>
+    <mergeCell ref="C4:C10"/>
+    <mergeCell ref="C11:C17"/>
+    <mergeCell ref="C18:C24"/>
+    <mergeCell ref="C25:C31"/>
+    <mergeCell ref="C32:C38"/>
+    <mergeCell ref="E137:E143"/>
+    <mergeCell ref="E144:E150"/>
+    <mergeCell ref="E151:E157"/>
+    <mergeCell ref="E158:E164"/>
+    <mergeCell ref="E102:E108"/>
+    <mergeCell ref="E109:E115"/>
+    <mergeCell ref="E116:E122"/>
+    <mergeCell ref="E123:E129"/>
+    <mergeCell ref="E130:E136"/>
+    <mergeCell ref="C172:C178"/>
+    <mergeCell ref="C347:C353"/>
+    <mergeCell ref="C333:C339"/>
+    <mergeCell ref="C186:C192"/>
+    <mergeCell ref="E186:E192"/>
+    <mergeCell ref="E193:E199"/>
+    <mergeCell ref="E200:E206"/>
+    <mergeCell ref="E88:E94"/>
+    <mergeCell ref="E95:E101"/>
+    <mergeCell ref="C39:C45"/>
+    <mergeCell ref="C46:C52"/>
+    <mergeCell ref="C53:C59"/>
+    <mergeCell ref="C60:C66"/>
+    <mergeCell ref="C67:C73"/>
+    <mergeCell ref="E165:E171"/>
+    <mergeCell ref="E277:E283"/>
+    <mergeCell ref="E284:E290"/>
+    <mergeCell ref="C193:C199"/>
+    <mergeCell ref="C200:C206"/>
+    <mergeCell ref="C207:C213"/>
+    <mergeCell ref="C298:C304"/>
+    <mergeCell ref="C305:C311"/>
+    <mergeCell ref="C312:C318"/>
+    <mergeCell ref="C319:C325"/>
+    <mergeCell ref="E214:E220"/>
+    <mergeCell ref="E221:E227"/>
+    <mergeCell ref="E228:E234"/>
+    <mergeCell ref="E235:E241"/>
+    <mergeCell ref="E207:E213"/>
+    <mergeCell ref="E242:E248"/>
+    <mergeCell ref="E249:E255"/>
+    <mergeCell ref="E256:E262"/>
+    <mergeCell ref="E263:E269"/>
+    <mergeCell ref="E270:E276"/>
+    <mergeCell ref="A1:AB1"/>
+    <mergeCell ref="C74:C80"/>
+    <mergeCell ref="C81:C87"/>
+    <mergeCell ref="C88:C94"/>
+    <mergeCell ref="C95:C101"/>
+    <mergeCell ref="C102:C108"/>
+    <mergeCell ref="C179:C185"/>
+    <mergeCell ref="C109:C115"/>
+    <mergeCell ref="C116:C122"/>
+    <mergeCell ref="C123:C129"/>
+    <mergeCell ref="C130:C136"/>
+    <mergeCell ref="C137:C143"/>
+    <mergeCell ref="C144:C150"/>
+    <mergeCell ref="C151:C157"/>
+    <mergeCell ref="C158:C164"/>
+    <mergeCell ref="C165:C171"/>
+    <mergeCell ref="E172:E178"/>
+    <mergeCell ref="E179:E185"/>
+    <mergeCell ref="C389:C395"/>
+    <mergeCell ref="C396:C402"/>
+    <mergeCell ref="C214:C220"/>
+    <mergeCell ref="C221:C227"/>
+    <mergeCell ref="C228:C234"/>
+    <mergeCell ref="C235:C241"/>
+    <mergeCell ref="C242:C248"/>
+    <mergeCell ref="C284:C290"/>
+    <mergeCell ref="C291:C297"/>
+    <mergeCell ref="C340:C346"/>
+    <mergeCell ref="C249:C255"/>
+    <mergeCell ref="C256:C262"/>
+    <mergeCell ref="C263:C269"/>
+    <mergeCell ref="C270:C276"/>
+    <mergeCell ref="C277:C283"/>
+    <mergeCell ref="C382:C388"/>
+    <mergeCell ref="C354:C360"/>
+    <mergeCell ref="C361:C367"/>
+    <mergeCell ref="C368:C374"/>
+    <mergeCell ref="C375:C381"/>
+    <mergeCell ref="C326:C332"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -81811,6 +81812,120 @@
     </row>
   </sheetData>
   <mergeCells count="138">
+    <mergeCell ref="E468:E474"/>
+    <mergeCell ref="E475:E481"/>
+    <mergeCell ref="E398:E404"/>
+    <mergeCell ref="E405:E411"/>
+    <mergeCell ref="E412:E418"/>
+    <mergeCell ref="E419:E425"/>
+    <mergeCell ref="E426:E432"/>
+    <mergeCell ref="E433:E439"/>
+    <mergeCell ref="E328:E334"/>
+    <mergeCell ref="E335:E341"/>
+    <mergeCell ref="E342:E348"/>
+    <mergeCell ref="E349:E355"/>
+    <mergeCell ref="E356:E362"/>
+    <mergeCell ref="E363:E369"/>
+    <mergeCell ref="E447:E453"/>
+    <mergeCell ref="E454:E460"/>
+    <mergeCell ref="E461:E467"/>
+    <mergeCell ref="E251:E257"/>
+    <mergeCell ref="E258:E264"/>
+    <mergeCell ref="E265:E271"/>
+    <mergeCell ref="E272:E278"/>
+    <mergeCell ref="E279:E285"/>
+    <mergeCell ref="E286:E292"/>
+    <mergeCell ref="E181:E187"/>
+    <mergeCell ref="E188:E194"/>
+    <mergeCell ref="E195:E201"/>
+    <mergeCell ref="E202:E208"/>
+    <mergeCell ref="E209:E215"/>
+    <mergeCell ref="E216:E222"/>
+    <mergeCell ref="E111:E117"/>
+    <mergeCell ref="E118:E124"/>
+    <mergeCell ref="E125:E131"/>
+    <mergeCell ref="E132:E138"/>
+    <mergeCell ref="E139:E145"/>
+    <mergeCell ref="E146:E152"/>
+    <mergeCell ref="D468:D474"/>
+    <mergeCell ref="D475:D481"/>
+    <mergeCell ref="E13:E19"/>
+    <mergeCell ref="E20:E26"/>
+    <mergeCell ref="E27:E33"/>
+    <mergeCell ref="E34:E40"/>
+    <mergeCell ref="E41:E47"/>
+    <mergeCell ref="E48:E54"/>
+    <mergeCell ref="E55:E61"/>
+    <mergeCell ref="E62:E68"/>
+    <mergeCell ref="D398:D404"/>
+    <mergeCell ref="D405:D411"/>
+    <mergeCell ref="D412:D418"/>
+    <mergeCell ref="D419:D425"/>
+    <mergeCell ref="D426:D432"/>
+    <mergeCell ref="D433:D439"/>
+    <mergeCell ref="D328:D334"/>
+    <mergeCell ref="D335:D341"/>
+    <mergeCell ref="D132:D138"/>
+    <mergeCell ref="D139:D145"/>
+    <mergeCell ref="D146:D152"/>
+    <mergeCell ref="D342:D348"/>
+    <mergeCell ref="D349:D355"/>
+    <mergeCell ref="D356:D362"/>
+    <mergeCell ref="D363:D369"/>
+    <mergeCell ref="D251:D257"/>
+    <mergeCell ref="D258:D264"/>
+    <mergeCell ref="D265:D271"/>
+    <mergeCell ref="D272:D278"/>
+    <mergeCell ref="D279:D285"/>
+    <mergeCell ref="D286:D292"/>
+    <mergeCell ref="D6:D12"/>
+    <mergeCell ref="E6:E12"/>
+    <mergeCell ref="D13:D19"/>
+    <mergeCell ref="D20:D26"/>
+    <mergeCell ref="D27:D33"/>
+    <mergeCell ref="D34:D40"/>
+    <mergeCell ref="D41:D47"/>
+    <mergeCell ref="D48:D54"/>
+    <mergeCell ref="E440:E446"/>
+    <mergeCell ref="E370:E376"/>
+    <mergeCell ref="E377:E383"/>
+    <mergeCell ref="E384:E390"/>
+    <mergeCell ref="E391:E397"/>
+    <mergeCell ref="E300:E306"/>
+    <mergeCell ref="E307:E313"/>
+    <mergeCell ref="E314:E320"/>
+    <mergeCell ref="E321:E327"/>
+    <mergeCell ref="E293:E299"/>
+    <mergeCell ref="E223:E229"/>
+    <mergeCell ref="E230:E236"/>
+    <mergeCell ref="E237:E243"/>
+    <mergeCell ref="E244:E250"/>
+    <mergeCell ref="E153:E159"/>
+    <mergeCell ref="E160:E166"/>
+    <mergeCell ref="E76:E82"/>
+    <mergeCell ref="D440:D446"/>
+    <mergeCell ref="D293:D299"/>
+    <mergeCell ref="D223:D229"/>
+    <mergeCell ref="D230:D236"/>
+    <mergeCell ref="D237:D243"/>
+    <mergeCell ref="D244:D250"/>
+    <mergeCell ref="D153:D159"/>
+    <mergeCell ref="D160:D166"/>
+    <mergeCell ref="D167:D173"/>
+    <mergeCell ref="D174:D180"/>
+    <mergeCell ref="D83:D89"/>
+    <mergeCell ref="D90:D96"/>
+    <mergeCell ref="D97:D103"/>
+    <mergeCell ref="D104:D110"/>
+    <mergeCell ref="D181:D187"/>
+    <mergeCell ref="D188:D194"/>
+    <mergeCell ref="D195:D201"/>
+    <mergeCell ref="D202:D208"/>
+    <mergeCell ref="D209:D215"/>
+    <mergeCell ref="D216:D222"/>
+    <mergeCell ref="D111:D117"/>
+    <mergeCell ref="D118:D124"/>
+    <mergeCell ref="D125:D131"/>
     <mergeCell ref="D55:D61"/>
     <mergeCell ref="D62:D68"/>
     <mergeCell ref="D69:D75"/>
@@ -81835,120 +81950,6 @@
     <mergeCell ref="E97:E103"/>
     <mergeCell ref="E104:E110"/>
     <mergeCell ref="E69:E75"/>
-    <mergeCell ref="E76:E82"/>
-    <mergeCell ref="D440:D446"/>
-    <mergeCell ref="D293:D299"/>
-    <mergeCell ref="D223:D229"/>
-    <mergeCell ref="D230:D236"/>
-    <mergeCell ref="D237:D243"/>
-    <mergeCell ref="D244:D250"/>
-    <mergeCell ref="D153:D159"/>
-    <mergeCell ref="D160:D166"/>
-    <mergeCell ref="D167:D173"/>
-    <mergeCell ref="D174:D180"/>
-    <mergeCell ref="D83:D89"/>
-    <mergeCell ref="D90:D96"/>
-    <mergeCell ref="D97:D103"/>
-    <mergeCell ref="D104:D110"/>
-    <mergeCell ref="D181:D187"/>
-    <mergeCell ref="D188:D194"/>
-    <mergeCell ref="D195:D201"/>
-    <mergeCell ref="D202:D208"/>
-    <mergeCell ref="D209:D215"/>
-    <mergeCell ref="D216:D222"/>
-    <mergeCell ref="D111:D117"/>
-    <mergeCell ref="D118:D124"/>
-    <mergeCell ref="D125:D131"/>
-    <mergeCell ref="D6:D12"/>
-    <mergeCell ref="E6:E12"/>
-    <mergeCell ref="D13:D19"/>
-    <mergeCell ref="D20:D26"/>
-    <mergeCell ref="D27:D33"/>
-    <mergeCell ref="D34:D40"/>
-    <mergeCell ref="D41:D47"/>
-    <mergeCell ref="D48:D54"/>
-    <mergeCell ref="E440:E446"/>
-    <mergeCell ref="E370:E376"/>
-    <mergeCell ref="E377:E383"/>
-    <mergeCell ref="E384:E390"/>
-    <mergeCell ref="E391:E397"/>
-    <mergeCell ref="E300:E306"/>
-    <mergeCell ref="E307:E313"/>
-    <mergeCell ref="E314:E320"/>
-    <mergeCell ref="E321:E327"/>
-    <mergeCell ref="E293:E299"/>
-    <mergeCell ref="E223:E229"/>
-    <mergeCell ref="E230:E236"/>
-    <mergeCell ref="E237:E243"/>
-    <mergeCell ref="E244:E250"/>
-    <mergeCell ref="E153:E159"/>
-    <mergeCell ref="E160:E166"/>
-    <mergeCell ref="D132:D138"/>
-    <mergeCell ref="D139:D145"/>
-    <mergeCell ref="D146:D152"/>
-    <mergeCell ref="D342:D348"/>
-    <mergeCell ref="D349:D355"/>
-    <mergeCell ref="D356:D362"/>
-    <mergeCell ref="D363:D369"/>
-    <mergeCell ref="D251:D257"/>
-    <mergeCell ref="D258:D264"/>
-    <mergeCell ref="D265:D271"/>
-    <mergeCell ref="D272:D278"/>
-    <mergeCell ref="D279:D285"/>
-    <mergeCell ref="D286:D292"/>
-    <mergeCell ref="E111:E117"/>
-    <mergeCell ref="E118:E124"/>
-    <mergeCell ref="E125:E131"/>
-    <mergeCell ref="E132:E138"/>
-    <mergeCell ref="E139:E145"/>
-    <mergeCell ref="E146:E152"/>
-    <mergeCell ref="D468:D474"/>
-    <mergeCell ref="D475:D481"/>
-    <mergeCell ref="E13:E19"/>
-    <mergeCell ref="E20:E26"/>
-    <mergeCell ref="E27:E33"/>
-    <mergeCell ref="E34:E40"/>
-    <mergeCell ref="E41:E47"/>
-    <mergeCell ref="E48:E54"/>
-    <mergeCell ref="E55:E61"/>
-    <mergeCell ref="E62:E68"/>
-    <mergeCell ref="D398:D404"/>
-    <mergeCell ref="D405:D411"/>
-    <mergeCell ref="D412:D418"/>
-    <mergeCell ref="D419:D425"/>
-    <mergeCell ref="D426:D432"/>
-    <mergeCell ref="D433:D439"/>
-    <mergeCell ref="D328:D334"/>
-    <mergeCell ref="D335:D341"/>
-    <mergeCell ref="E251:E257"/>
-    <mergeCell ref="E258:E264"/>
-    <mergeCell ref="E265:E271"/>
-    <mergeCell ref="E272:E278"/>
-    <mergeCell ref="E279:E285"/>
-    <mergeCell ref="E286:E292"/>
-    <mergeCell ref="E181:E187"/>
-    <mergeCell ref="E188:E194"/>
-    <mergeCell ref="E195:E201"/>
-    <mergeCell ref="E202:E208"/>
-    <mergeCell ref="E209:E215"/>
-    <mergeCell ref="E216:E222"/>
-    <mergeCell ref="E468:E474"/>
-    <mergeCell ref="E475:E481"/>
-    <mergeCell ref="E398:E404"/>
-    <mergeCell ref="E405:E411"/>
-    <mergeCell ref="E412:E418"/>
-    <mergeCell ref="E419:E425"/>
-    <mergeCell ref="E426:E432"/>
-    <mergeCell ref="E433:E439"/>
-    <mergeCell ref="E328:E334"/>
-    <mergeCell ref="E335:E341"/>
-    <mergeCell ref="E342:E348"/>
-    <mergeCell ref="E349:E355"/>
-    <mergeCell ref="E356:E362"/>
-    <mergeCell ref="E363:E369"/>
-    <mergeCell ref="E447:E453"/>
-    <mergeCell ref="E454:E460"/>
-    <mergeCell ref="E461:E467"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
